--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674782B0-1A89-45DE-83D6-60EEF8D7EA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C907145E-7564-4E44-8607-416277AA8504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,13 +42,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$C$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet6!$A$1:$C$103</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="5014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="5247">
   <si>
     <t>单词</t>
   </si>
@@ -16074,6 +16075,919 @@
   </si>
   <si>
     <t>编织</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思乡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速，促成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食腐动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共设施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>憎恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无休止的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母系的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象学家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地衣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一缕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视转播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美学的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两腿动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相反的，交谈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头颅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑郁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固执</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨碎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先兆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊柱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲惫厌烦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小教堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土瓷器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不协调的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏伟的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仔细的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强硬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空穿梭机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>损耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独木舟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶幼虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平坦的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>善于表达的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气味</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画图，谋划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌黑的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈旧的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反常的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能生育的，贫瘠的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安抚人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防，接种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺席的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸膛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回声</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易于 的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难以置信的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动机打算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松散的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸽子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支配的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>促进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整形状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>壮丽的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咀嚼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毒的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真相</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖直的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考古学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小行星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狒狒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不寻常的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发芽生长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>峡谷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬崖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秃鹰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明有罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水闸，坝，堰，堰</t>
+  </si>
+  <si>
+    <t>无一的，缺缺…</t>
+  </si>
+  <si>
+    <t>十字交叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕疵</t>
+  </si>
+  <si>
+    <t>蚱蜢</t>
+  </si>
+  <si>
+    <t>冬眠；蛰居；越冬居；</t>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+  </si>
+  <si>
+    <t>曲曲折折地流；蜿蜒，弯曲地流</t>
+  </si>
+  <si>
+    <t>微生物；（尤指引起疾病的）细菌（尤</t>
+  </si>
+  <si>
+    <t>周期的，定期的，定时的定期</t>
+  </si>
+  <si>
+    <t>倾向，嗜好，癖好，</t>
+  </si>
+  <si>
+    <t>鞣（革），硝（皮）；使晒成棕褐色，硝</t>
+  </si>
+  <si>
+    <t>租屋人</t>
+  </si>
+  <si>
+    <t>厚度；密度；稠密度；</t>
+  </si>
+  <si>
+    <t>挥发（性）的）的</t>
+  </si>
+  <si>
+    <t>深思熟虑的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过分大方的；过于丰富的，过度的，浪费的的；</t>
+  </si>
+  <si>
+    <t>拔，扯（羽毛等）；采，摘（华、果实）羽毛</t>
+  </si>
+  <si>
+    <t>路上的）水坑，污水坑）水</t>
+  </si>
+  <si>
+    <t>广阔的，宽敞的（[opp]cramped）宽敞</t>
+  </si>
+  <si>
+    <t>停滞的，不流动的；萧条的，不景气的不流</t>
+  </si>
+  <si>
+    <t>辩论，争论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程度广度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不死的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪审团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛弃，放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗出，渗入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管，负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出汗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怕的，惊人的，巨大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒谬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为。。。有罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字路口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细 的故意的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方面，程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怕的巨大的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16353,12 +17267,12 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16367,6 +17281,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16729,10 +17651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -16742,7 +17664,7 @@
     <col min="3" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16750,7 +17672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -16764,7 +17686,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -16778,7 +17700,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -16792,7 +17714,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16806,7 +17728,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -16820,7 +17742,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -16834,7 +17756,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -16853,8 +17775,11 @@
       <c r="F8" s="24" t="s">
         <v>4818</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="24" t="s">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -16868,7 +17793,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -16882,7 +17807,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -16896,7 +17821,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -16910,7 +17835,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -16924,7 +17849,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -16938,7 +17863,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -16952,7 +17877,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -16966,7 +17891,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -16980,7 +17905,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -16994,7 +17919,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -17008,7 +17933,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -17022,7 +17947,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -17036,7 +17961,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -17050,7 +17975,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -17064,7 +17989,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -17078,7 +18003,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -17092,7 +18017,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -17106,7 +18031,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
@@ -17125,8 +18050,11 @@
       <c r="F27" s="25" t="s">
         <v>4819</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="25" t="s">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
@@ -17145,8 +18073,11 @@
       <c r="F28" s="25" t="s">
         <v>4820</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="25" t="s">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
@@ -17165,8 +18096,11 @@
       <c r="F29" s="25" t="s">
         <v>4821</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="25" t="s">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -17180,7 +18114,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -17194,7 +18128,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -17208,7 +18142,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -17222,7 +18156,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -17236,7 +18170,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -17250,7 +18184,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -17264,7 +18198,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -17278,7 +18212,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -17292,7 +18226,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -17306,7 +18240,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -17320,7 +18254,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -17339,8 +18273,11 @@
       <c r="F41" s="25" t="s">
         <v>4822</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G41" s="25" t="s">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -17354,7 +18291,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -17368,7 +18305,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -17382,7 +18319,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -17396,7 +18333,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>90</v>
       </c>
@@ -17415,8 +18352,11 @@
       <c r="F46" s="25" t="s">
         <v>4823</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="25" t="s">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -17430,7 +18370,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -17444,7 +18384,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -17458,7 +18398,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -17472,7 +18412,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -17486,7 +18426,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -17500,7 +18440,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -17514,7 +18454,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>106</v>
       </c>
@@ -17533,8 +18473,11 @@
       <c r="F54" s="25" t="s">
         <v>4824</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54" s="25" t="s">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>108</v>
       </c>
@@ -17553,8 +18496,11 @@
       <c r="F55" s="25" t="s">
         <v>4825</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G55" s="25" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -17568,7 +18514,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -17582,7 +18528,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -17596,7 +18542,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -17610,7 +18556,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -17624,7 +18570,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -17638,7 +18584,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -17652,7 +18598,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -17666,7 +18612,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
@@ -17685,8 +18631,11 @@
       <c r="F64" s="25" t="s">
         <v>4826</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G64" s="25" t="s">
+        <v>5022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -17700,7 +18649,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -17714,7 +18663,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -17728,7 +18677,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>134</v>
       </c>
@@ -17747,8 +18696,11 @@
       <c r="F68" s="25" t="s">
         <v>4827</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G68" s="25" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -17762,7 +18714,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -17776,7 +18728,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -17790,7 +18742,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -17804,7 +18756,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -17818,7 +18770,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -17832,7 +18784,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -17846,7 +18798,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -17860,7 +18812,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
         <v>152</v>
       </c>
@@ -17879,8 +18831,11 @@
       <c r="F77" s="25" t="s">
         <v>4828</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G77" s="25" t="s">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -17894,7 +18849,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -17908,7 +18863,7 @@
         <v>4490</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -17922,7 +18877,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -17936,7 +18891,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -17950,7 +18905,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -17964,7 +18919,7 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -17978,7 +18933,7 @@
         <v>4493</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -17992,7 +18947,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -18006,7 +18961,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -18020,7 +18975,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -18034,7 +18989,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>176</v>
       </c>
@@ -18053,8 +19008,11 @@
       <c r="F89" s="25" t="s">
         <v>4829</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G89" s="25" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -18068,7 +19026,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -18082,7 +19040,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -18096,7 +19054,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -18110,7 +19068,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -18124,7 +19082,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -18138,7 +19096,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -18152,7 +19110,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
@@ -18166,7 +19124,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
         <v>194</v>
       </c>
@@ -18185,8 +19143,11 @@
       <c r="F98" s="25" t="s">
         <v>4830</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G98" s="25" t="s">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -18200,7 +19161,7 @@
         <v>4501</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -18214,7 +19175,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -18228,7 +19189,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -18245,7 +19206,7 @@
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{8877E4EA-1C65-427B-856D-A0FBC6DD8473}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4" cellColor="0"/>
+      <colorFilter dxfId="5" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26646,20 +27607,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:G104"/>
+  <dimension ref="A2:H104"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="A1:G1048576"/>
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
-    <col min="3" max="6" width="9" customWidth="1"/>
+    <col min="2" max="2" width="49.125" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -26667,7 +27629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>204</v>
       </c>
@@ -26689,8 +27651,11 @@
       <c r="G3" s="25" t="s">
         <v>4831</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="25" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -26701,7 +27666,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -26712,7 +27677,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>210</v>
       </c>
@@ -26723,7 +27688,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>212</v>
       </c>
@@ -26734,7 +27699,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>214</v>
       </c>
@@ -26745,7 +27710,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>216</v>
       </c>
@@ -26756,7 +27721,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -26767,7 +27732,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>220</v>
       </c>
@@ -26778,7 +27743,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
@@ -26789,7 +27754,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>224</v>
       </c>
@@ -26811,8 +27776,11 @@
       <c r="G13" s="25" t="s">
         <v>4832</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="25" t="s">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>226</v>
       </c>
@@ -26823,7 +27791,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>228</v>
       </c>
@@ -26845,8 +27813,11 @@
       <c r="G15" s="25" t="s">
         <v>4833</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="25" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>230</v>
       </c>
@@ -26857,7 +27828,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>232</v>
       </c>
@@ -26868,7 +27839,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>234</v>
       </c>
@@ -26879,7 +27850,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>236</v>
       </c>
@@ -26890,7 +27861,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>238</v>
       </c>
@@ -26901,7 +27872,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>240</v>
       </c>
@@ -26923,8 +27894,11 @@
       <c r="G21" s="25" t="s">
         <v>4834</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="25" t="s">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
@@ -26935,7 +27909,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>244</v>
       </c>
@@ -26946,7 +27920,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>246</v>
       </c>
@@ -26957,7 +27931,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>248</v>
       </c>
@@ -26968,7 +27942,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>250</v>
       </c>
@@ -26979,7 +27953,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>252</v>
       </c>
@@ -26990,7 +27964,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>254</v>
       </c>
@@ -27001,7 +27975,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -27012,7 +27986,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>258</v>
       </c>
@@ -27023,7 +27997,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -27034,7 +28008,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>262</v>
       </c>
@@ -27045,7 +28019,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>264</v>
       </c>
@@ -27056,7 +28030,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>266</v>
       </c>
@@ -27078,8 +28052,11 @@
       <c r="G34" s="25" t="s">
         <v>4835</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="25" t="s">
+        <v>5031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>268</v>
       </c>
@@ -27090,7 +28067,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>270</v>
       </c>
@@ -27101,7 +28078,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>272</v>
       </c>
@@ -27112,7 +28089,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>274</v>
       </c>
@@ -27123,7 +28100,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>276</v>
       </c>
@@ -27134,7 +28111,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>278</v>
       </c>
@@ -27145,7 +28122,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>280</v>
       </c>
@@ -27156,7 +28133,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>282</v>
       </c>
@@ -27167,7 +28144,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>284</v>
       </c>
@@ -27189,8 +28166,11 @@
       <c r="G43" s="25" t="s">
         <v>4836</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="25" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>286</v>
       </c>
@@ -27201,7 +28181,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>288</v>
       </c>
@@ -27212,7 +28192,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>290</v>
       </c>
@@ -27223,7 +28203,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -27234,7 +28214,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>294</v>
       </c>
@@ -27245,7 +28225,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -27256,7 +28236,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>298</v>
       </c>
@@ -27267,7 +28247,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>300</v>
       </c>
@@ -27278,7 +28258,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>302</v>
       </c>
@@ -27300,8 +28280,11 @@
       <c r="G52" s="25" t="s">
         <v>4837</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="25" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>304</v>
       </c>
@@ -27323,8 +28306,11 @@
       <c r="G53" s="25" t="s">
         <v>4838</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H53" s="25" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>306</v>
       </c>
@@ -27335,7 +28321,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>308</v>
       </c>
@@ -27357,8 +28343,11 @@
       <c r="G55" s="25" t="s">
         <v>4839</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H55" s="25" t="s">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>310</v>
       </c>
@@ -27369,7 +28358,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>312</v>
       </c>
@@ -27391,8 +28380,11 @@
       <c r="G57" s="25" t="s">
         <v>4840</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H57" s="25" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>314</v>
       </c>
@@ -27403,7 +28395,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>316</v>
       </c>
@@ -27414,7 +28406,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>318</v>
       </c>
@@ -27425,7 +28417,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>320</v>
       </c>
@@ -27436,7 +28428,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>322</v>
       </c>
@@ -27447,7 +28439,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>324</v>
       </c>
@@ -27458,7 +28450,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>326</v>
       </c>
@@ -27480,8 +28472,11 @@
       <c r="G64" s="25" t="s">
         <v>4841</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="25" t="s">
+        <v>5037</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>328</v>
       </c>
@@ -27492,7 +28487,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>330</v>
       </c>
@@ -27503,7 +28498,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>332</v>
       </c>
@@ -27514,7 +28509,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>334</v>
       </c>
@@ -27525,7 +28520,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>336</v>
       </c>
@@ -27547,8 +28542,11 @@
       <c r="G69" s="25" t="s">
         <v>4842</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H69" s="25" t="s">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>338</v>
       </c>
@@ -27559,7 +28557,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>340</v>
       </c>
@@ -27581,8 +28579,11 @@
       <c r="G71" s="25" t="s">
         <v>4843</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H71" s="25" t="s">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>342</v>
       </c>
@@ -27593,7 +28594,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>344</v>
       </c>
@@ -27615,8 +28616,11 @@
       <c r="G73" s="25" t="s">
         <v>4844</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H73" s="25" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -27627,7 +28631,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>348</v>
       </c>
@@ -27638,7 +28642,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>350</v>
       </c>
@@ -27649,7 +28653,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>352</v>
       </c>
@@ -27671,8 +28675,11 @@
       <c r="G77" s="25" t="s">
         <v>4845</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H77" s="25" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>354</v>
       </c>
@@ -27683,7 +28690,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>356</v>
       </c>
@@ -27694,7 +28701,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>358</v>
       </c>
@@ -27716,8 +28723,11 @@
       <c r="G80" s="25" t="s">
         <v>4846</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H80" s="25" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>360</v>
       </c>
@@ -27728,7 +28738,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>362</v>
       </c>
@@ -27739,7 +28749,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>364</v>
       </c>
@@ -27750,7 +28760,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>366</v>
       </c>
@@ -27761,7 +28771,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>368</v>
       </c>
@@ -27783,8 +28793,11 @@
       <c r="G85" s="25" t="s">
         <v>4847</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H85" s="25" t="s">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>370</v>
       </c>
@@ -27795,7 +28808,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>372</v>
       </c>
@@ -27817,8 +28830,11 @@
       <c r="G87" s="25" t="s">
         <v>4848</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H87" s="25" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>374</v>
       </c>
@@ -27840,8 +28856,11 @@
       <c r="G88" s="25" t="s">
         <v>4849</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H88" s="25" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>376</v>
       </c>
@@ -27852,7 +28871,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>378</v>
       </c>
@@ -27863,7 +28882,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>380</v>
       </c>
@@ -27874,7 +28893,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>382</v>
       </c>
@@ -27885,7 +28904,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>384</v>
       </c>
@@ -27907,8 +28926,11 @@
       <c r="G93" s="25" t="s">
         <v>4850</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H93" s="25" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>386</v>
       </c>
@@ -27919,7 +28941,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>388</v>
       </c>
@@ -27930,7 +28952,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>390</v>
       </c>
@@ -27941,7 +28963,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>392</v>
       </c>
@@ -27952,7 +28974,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
@@ -27974,8 +28996,11 @@
       <c r="G98" s="25" t="s">
         <v>4851</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H98" s="25" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>396</v>
       </c>
@@ -27986,7 +29011,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>398</v>
       </c>
@@ -27997,7 +29022,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
@@ -28008,7 +29033,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
@@ -28019,7 +29044,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>404</v>
       </c>
@@ -28041,8 +29066,11 @@
       <c r="G103" s="25" t="s">
         <v>4852</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="H103" s="25" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>406</v>
       </c>
@@ -28056,7 +29084,7 @@
   </sheetData>
   <autoFilter ref="C2:C104" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="3" cellColor="0"/>
+      <colorFilter dxfId="4" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29858,10 +30886,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="E10:F10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -29869,10 +30897,10 @@
     <col min="1" max="1" width="22.3125" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="22.3125" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="4" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29880,7 +30908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>408</v>
       </c>
@@ -29891,7 +30919,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>410</v>
       </c>
@@ -29902,7 +30930,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>412</v>
       </c>
@@ -29921,8 +30949,11 @@
       <c r="F4" s="25" t="s">
         <v>4853</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="25" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>414</v>
       </c>
@@ -29941,8 +30972,11 @@
       <c r="F5" s="25" t="s">
         <v>4854</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="25" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>416</v>
       </c>
@@ -29953,7 +30987,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>418</v>
       </c>
@@ -29972,8 +31006,11 @@
       <c r="F7" s="25" t="s">
         <v>4855</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="25" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>420</v>
       </c>
@@ -29984,7 +31021,7 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>422</v>
       </c>
@@ -29995,7 +31032,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>424</v>
       </c>
@@ -30014,8 +31051,11 @@
       <c r="F10" s="25" t="s">
         <v>4885</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="25" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>426</v>
       </c>
@@ -30026,7 +31066,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>428</v>
       </c>
@@ -30037,7 +31077,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
@@ -30048,7 +31088,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>432</v>
       </c>
@@ -30067,8 +31107,11 @@
       <c r="F14" s="25" t="s">
         <v>4856</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="25" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>434</v>
       </c>
@@ -30079,7 +31122,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>436</v>
       </c>
@@ -30090,7 +31133,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>438</v>
       </c>
@@ -30101,7 +31144,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>440</v>
       </c>
@@ -30112,7 +31155,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>442</v>
       </c>
@@ -30123,7 +31166,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>444</v>
       </c>
@@ -30142,8 +31185,11 @@
       <c r="F20" s="25" t="s">
         <v>4857</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="25" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>446</v>
       </c>
@@ -30162,8 +31208,11 @@
       <c r="F21" s="25" t="s">
         <v>4858</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G21" s="25" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>448</v>
       </c>
@@ -30174,7 +31223,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>450</v>
       </c>
@@ -30185,7 +31234,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>452</v>
       </c>
@@ -30204,8 +31253,11 @@
       <c r="F24" s="25" t="s">
         <v>4859</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="25" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>454</v>
       </c>
@@ -30224,8 +31276,11 @@
       <c r="F25" s="25" t="s">
         <v>4860</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="25" t="s">
+        <v>5057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
         <v>456</v>
       </c>
@@ -30244,8 +31299,11 @@
       <c r="F26" s="25" t="s">
         <v>4861</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="25" t="s">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>458</v>
       </c>
@@ -30264,8 +31322,11 @@
       <c r="F27" s="25" t="s">
         <v>4862</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="25" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>460</v>
       </c>
@@ -30284,8 +31345,11 @@
       <c r="F28" s="25" t="s">
         <v>4863</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="25" t="s">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>462</v>
       </c>
@@ -30296,7 +31360,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>464</v>
       </c>
@@ -30307,7 +31371,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>466</v>
       </c>
@@ -30318,7 +31382,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>468</v>
       </c>
@@ -30329,7 +31393,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>470</v>
       </c>
@@ -30340,7 +31404,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>472</v>
       </c>
@@ -30351,7 +31415,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>474</v>
       </c>
@@ -30362,7 +31426,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>476</v>
       </c>
@@ -30381,8 +31445,11 @@
       <c r="F36" s="25" t="s">
         <v>4864</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="25" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>478</v>
       </c>
@@ -30401,8 +31468,11 @@
       <c r="F37" s="25" t="s">
         <v>4852</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="25" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>480</v>
       </c>
@@ -30421,8 +31491,11 @@
       <c r="F38" s="25" t="s">
         <v>4865</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="25" t="s">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
         <v>482</v>
       </c>
@@ -30441,8 +31514,11 @@
       <c r="F39" s="25" t="s">
         <v>4866</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G39" s="25" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>484</v>
       </c>
@@ -30453,7 +31529,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>486</v>
       </c>
@@ -30464,7 +31540,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>488</v>
       </c>
@@ -30475,7 +31551,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>490</v>
       </c>
@@ -30486,7 +31562,7 @@
         <v>4537</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>492</v>
       </c>
@@ -30505,8 +31581,11 @@
       <c r="F44" s="25" t="s">
         <v>4867</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G44" s="25" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>494</v>
       </c>
@@ -30517,7 +31596,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>496</v>
       </c>
@@ -30536,8 +31615,11 @@
       <c r="F46" s="25" t="s">
         <v>4868</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="25" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>498</v>
       </c>
@@ -30545,7 +31627,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="27" t="s">
         <v>500</v>
       </c>
@@ -30564,8 +31646,11 @@
       <c r="F48" s="25" t="s">
         <v>4869</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" s="25" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>502</v>
       </c>
@@ -30584,8 +31669,11 @@
       <c r="F49" s="25" t="s">
         <v>4870</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="25" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>504</v>
       </c>
@@ -30596,7 +31684,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>506</v>
       </c>
@@ -30607,7 +31695,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>508</v>
       </c>
@@ -30618,7 +31706,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="27" t="s">
         <v>510</v>
       </c>
@@ -30637,8 +31725,11 @@
       <c r="F53" s="25" t="s">
         <v>4871</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53" s="25" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>512</v>
       </c>
@@ -30657,8 +31748,11 @@
       <c r="F54" s="25" t="s">
         <v>4872</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G54" s="25" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>514</v>
       </c>
@@ -30669,7 +31763,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>516</v>
       </c>
@@ -30680,7 +31774,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>518</v>
       </c>
@@ -30691,7 +31785,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>520</v>
       </c>
@@ -30702,7 +31796,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>522</v>
       </c>
@@ -30713,7 +31807,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>524</v>
       </c>
@@ -30732,8 +31826,11 @@
       <c r="F60" s="25" t="s">
         <v>4873</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G60" s="25" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>526</v>
       </c>
@@ -30744,7 +31841,7 @@
         <v>4547</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
         <v>528</v>
       </c>
@@ -30763,8 +31860,11 @@
       <c r="F62" s="25" t="s">
         <v>4874</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G62" s="25" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>530</v>
       </c>
@@ -30775,7 +31875,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>532</v>
       </c>
@@ -30786,7 +31886,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>534</v>
       </c>
@@ -30805,8 +31905,11 @@
       <c r="F65" s="25" t="s">
         <v>4875</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G65" s="25" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>536</v>
       </c>
@@ -30817,7 +31920,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>538</v>
       </c>
@@ -30836,8 +31939,11 @@
       <c r="F67" s="25" t="s">
         <v>4876</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G67" s="25" t="s">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>540</v>
       </c>
@@ -30848,7 +31954,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>542</v>
       </c>
@@ -30859,7 +31965,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>544</v>
       </c>
@@ -30870,7 +31976,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>546</v>
       </c>
@@ -30881,7 +31987,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>548</v>
       </c>
@@ -30892,7 +31998,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>550</v>
       </c>
@@ -30903,7 +32009,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>552</v>
       </c>
@@ -30914,7 +32020,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>554</v>
       </c>
@@ -30933,8 +32039,11 @@
       <c r="F75" s="25" t="s">
         <v>4877</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75" s="25" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
         <v>556</v>
       </c>
@@ -30953,8 +32062,11 @@
       <c r="F76" s="25" t="s">
         <v>4878</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G76" s="25" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>558</v>
       </c>
@@ -30965,7 +32077,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>560</v>
       </c>
@@ -30976,7 +32088,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>562</v>
       </c>
@@ -30987,7 +32099,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>564</v>
       </c>
@@ -30998,7 +32110,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>566</v>
       </c>
@@ -31009,7 +32121,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>568</v>
       </c>
@@ -31017,7 +32129,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>570</v>
       </c>
@@ -31028,7 +32140,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>572</v>
       </c>
@@ -31047,8 +32159,11 @@
       <c r="F84" s="25" t="s">
         <v>4879</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G84" s="25" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>574</v>
       </c>
@@ -31059,7 +32174,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>576</v>
       </c>
@@ -31078,8 +32193,11 @@
       <c r="F86" s="25" t="s">
         <v>4880</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G86" s="25" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>578</v>
       </c>
@@ -31090,7 +32208,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>580</v>
       </c>
@@ -31101,7 +32219,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>582</v>
       </c>
@@ -31112,7 +32230,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>584</v>
       </c>
@@ -31123,7 +32241,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>586</v>
       </c>
@@ -31134,7 +32252,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>588</v>
       </c>
@@ -31145,7 +32263,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>590</v>
       </c>
@@ -31164,8 +32282,11 @@
       <c r="F93" s="25" t="s">
         <v>4881</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G93" s="25" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>592</v>
       </c>
@@ -31176,7 +32297,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>594</v>
       </c>
@@ -31195,8 +32316,11 @@
       <c r="F95" s="25" t="s">
         <v>4882</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G95" s="25" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>596</v>
       </c>
@@ -31207,7 +32331,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A97" s="8" t="s">
         <v>598</v>
       </c>
@@ -31226,8 +32350,11 @@
       <c r="F97" s="25" t="s">
         <v>4883</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G97" s="25" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>600</v>
       </c>
@@ -31235,7 +32362,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>602</v>
       </c>
@@ -31246,7 +32373,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>604</v>
       </c>
@@ -31257,7 +32384,7 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>606</v>
       </c>
@@ -31268,7 +32395,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
         <v>608</v>
       </c>
@@ -31287,8 +32414,11 @@
       <c r="F102" s="25" t="s">
         <v>4884</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G102" s="25" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>610</v>
       </c>
@@ -31302,7 +32432,7 @@
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{EB0AAC0E-54E6-4BAF-85EA-EAB72902E7D8}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2" cellColor="0"/>
+      <colorFilter dxfId="3" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31315,10 +32445,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView topLeftCell="A32" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -31326,10 +32456,10 @@
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="66.5" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="4" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31337,7 +32467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>612</v>
       </c>
@@ -31348,7 +32478,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>614</v>
       </c>
@@ -31359,7 +32489,7 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>616</v>
       </c>
@@ -31370,7 +32500,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>618</v>
       </c>
@@ -31381,7 +32511,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
         <v>620</v>
       </c>
@@ -31394,8 +32524,11 @@
       <c r="D6" s="25" t="s">
         <v>4778</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G6" s="25" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
         <v>622</v>
       </c>
@@ -31408,8 +32541,11 @@
       <c r="D7" s="25" t="s">
         <v>4735</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="25" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>624</v>
       </c>
@@ -31420,7 +32556,7 @@
         <v>4684</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>626</v>
       </c>
@@ -31431,7 +32567,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>628</v>
       </c>
@@ -31442,7 +32578,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>630</v>
       </c>
@@ -31453,7 +32589,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>632</v>
       </c>
@@ -31466,8 +32602,11 @@
       <c r="D12" s="25" t="s">
         <v>4736</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="25" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>634</v>
       </c>
@@ -31480,8 +32619,11 @@
       <c r="D13" s="25" t="s">
         <v>4737</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="25" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>636</v>
       </c>
@@ -31500,8 +32642,11 @@
       <c r="F14" s="25" t="s">
         <v>4886</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G14" s="25" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>638</v>
       </c>
@@ -31512,7 +32657,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>640</v>
       </c>
@@ -31523,7 +32668,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>642</v>
       </c>
@@ -31534,7 +32679,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="28" t="s">
         <v>644</v>
       </c>
@@ -31547,8 +32692,11 @@
       <c r="D18" s="25" t="s">
         <v>4779</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G18" s="25" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>646</v>
       </c>
@@ -31559,7 +32707,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>648</v>
       </c>
@@ -31567,7 +32715,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>650</v>
       </c>
@@ -31578,7 +32726,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>652</v>
       </c>
@@ -31589,7 +32737,7 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>654</v>
       </c>
@@ -31600,7 +32748,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="28" t="s">
         <v>656</v>
       </c>
@@ -31613,8 +32761,11 @@
       <c r="D24" s="25" t="s">
         <v>4780</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G24" s="25" t="s">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>658</v>
       </c>
@@ -31625,7 +32776,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>660</v>
       </c>
@@ -31644,8 +32795,11 @@
       <c r="F26" s="25" t="s">
         <v>4902</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G26" s="25" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>662</v>
       </c>
@@ -31656,7 +32810,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="28" t="s">
         <v>664</v>
       </c>
@@ -31669,8 +32823,11 @@
       <c r="D28" s="25" t="s">
         <v>4781</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G28" s="25" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="28" t="s">
         <v>666</v>
       </c>
@@ -31683,8 +32840,11 @@
       <c r="D29" s="25" t="s">
         <v>4782</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G29" s="25" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="28" t="s">
         <v>668</v>
       </c>
@@ -31697,8 +32857,11 @@
       <c r="D30" s="25" t="s">
         <v>4783</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="25" t="s">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>670</v>
       </c>
@@ -31709,7 +32872,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="30" t="s">
         <v>672</v>
       </c>
@@ -31728,8 +32891,11 @@
       <c r="F32" s="25" t="s">
         <v>4903</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G32" s="25" t="s">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>674</v>
       </c>
@@ -31740,7 +32906,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>676</v>
       </c>
@@ -31751,7 +32917,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="28" t="s">
         <v>4748</v>
       </c>
@@ -31764,8 +32930,11 @@
       <c r="D35" s="25" t="s">
         <v>4749</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="25" t="s">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="30" t="s">
         <v>679</v>
       </c>
@@ -31784,8 +32953,11 @@
       <c r="F36" s="25" t="s">
         <v>4887</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G36" s="25" t="s">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="28" t="s">
         <v>681</v>
       </c>
@@ -31798,8 +32970,11 @@
       <c r="D37" s="25" t="s">
         <v>4784</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="25" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>683</v>
       </c>
@@ -31810,7 +32985,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>685</v>
       </c>
@@ -31821,7 +32996,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>687</v>
       </c>
@@ -31832,7 +33007,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>689</v>
       </c>
@@ -31851,8 +33026,11 @@
       <c r="F41" s="25" t="s">
         <v>4888</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G41" s="25" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>691</v>
       </c>
@@ -31863,7 +33041,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>693</v>
       </c>
@@ -31874,7 +33052,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>695</v>
       </c>
@@ -31885,7 +33063,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="28" t="s">
         <v>697</v>
       </c>
@@ -31898,8 +33076,11 @@
       <c r="D45" s="25" t="s">
         <v>4753</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G45" s="25" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A46" s="28" t="s">
         <v>699</v>
       </c>
@@ -31912,8 +33093,11 @@
       <c r="D46" s="25" t="s">
         <v>4785</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="G46" s="25" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
         <v>701</v>
       </c>
@@ -31932,8 +33116,11 @@
       <c r="F47" s="25" t="s">
         <v>4889</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G47" s="25" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="28" t="s">
         <v>703</v>
       </c>
@@ -31946,8 +33133,11 @@
       <c r="D48" s="25" t="s">
         <v>4266</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" s="25" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="30" t="s">
         <v>705</v>
       </c>
@@ -31966,8 +33156,11 @@
       <c r="F49" s="25" t="s">
         <v>4890</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="25" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>707</v>
       </c>
@@ -31978,7 +33171,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="30" t="s">
         <v>709</v>
       </c>
@@ -31997,8 +33190,11 @@
       <c r="F51" s="25" t="s">
         <v>4891</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="25" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>711</v>
       </c>
@@ -32009,7 +33205,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="30" t="s">
         <v>713</v>
       </c>
@@ -32028,8 +33224,11 @@
       <c r="F53" s="25" t="s">
         <v>4892</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G53" s="25" t="s">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>715</v>
       </c>
@@ -32040,7 +33239,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>717</v>
       </c>
@@ -32051,7 +33250,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="28" t="s">
         <v>719</v>
       </c>
@@ -32064,8 +33263,11 @@
       <c r="D56" s="25" t="s">
         <v>4786</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G56" s="25" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>721</v>
       </c>
@@ -32076,7 +33278,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>723</v>
       </c>
@@ -32087,7 +33289,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="30" t="s">
         <v>725</v>
       </c>
@@ -32106,8 +33308,11 @@
       <c r="F59" s="25" t="s">
         <v>4893</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59" s="25" t="s">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
         <v>727</v>
       </c>
@@ -32126,8 +33331,11 @@
       <c r="F60" s="25" t="s">
         <v>4894</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G60" s="25" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>729</v>
       </c>
@@ -32138,7 +33346,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="28" t="s">
         <v>731</v>
       </c>
@@ -32151,8 +33359,11 @@
       <c r="D62" s="25" t="s">
         <v>4787</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G62" s="25" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>733</v>
       </c>
@@ -32163,7 +33374,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>735</v>
       </c>
@@ -32174,7 +33385,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="28" t="s">
         <v>737</v>
       </c>
@@ -32187,8 +33398,11 @@
       <c r="D65" s="25" t="s">
         <v>4319</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65" s="25" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="30" t="s">
         <v>739</v>
       </c>
@@ -32207,8 +33421,11 @@
       <c r="F66" s="25" t="s">
         <v>4895</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G66" s="25" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>741</v>
       </c>
@@ -32219,7 +33436,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>743</v>
       </c>
@@ -32230,7 +33447,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="28" t="s">
         <v>745</v>
       </c>
@@ -32243,8 +33460,11 @@
       <c r="D69" s="25" t="s">
         <v>4788</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G69" s="25" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>747</v>
       </c>
@@ -32255,7 +33475,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>749</v>
       </c>
@@ -32266,7 +33486,7 @@
         <v>4715</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>751</v>
       </c>
@@ -32277,7 +33497,7 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>753</v>
       </c>
@@ -32288,7 +33508,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="30" t="s">
         <v>755</v>
       </c>
@@ -32307,8 +33527,11 @@
       <c r="F74" s="25" t="s">
         <v>4896</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G74" s="25" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>757</v>
       </c>
@@ -32319,7 +33542,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="28" t="s">
         <v>759</v>
       </c>
@@ -32332,8 +33555,11 @@
       <c r="D76" s="25" t="s">
         <v>4789</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G76" s="25" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>761</v>
       </c>
@@ -32344,7 +33570,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>763</v>
       </c>
@@ -32355,7 +33581,7 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A79" s="30" t="s">
         <v>765</v>
       </c>
@@ -32374,8 +33600,11 @@
       <c r="F79" s="25" t="s">
         <v>4897</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79" s="25" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="30" t="s">
         <v>767</v>
       </c>
@@ -32394,8 +33623,11 @@
       <c r="F80" s="25" t="s">
         <v>4898</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G80" s="25" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>769</v>
       </c>
@@ -32406,7 +33638,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>771</v>
       </c>
@@ -32417,7 +33649,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>773</v>
       </c>
@@ -32428,7 +33660,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>775</v>
       </c>
@@ -32439,7 +33671,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="28" t="s">
         <v>777</v>
       </c>
@@ -32452,8 +33684,11 @@
       <c r="D85" s="25" t="s">
         <v>4790</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G85" s="25" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>779</v>
       </c>
@@ -32464,7 +33699,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>781</v>
       </c>
@@ -32475,7 +33710,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>783</v>
       </c>
@@ -32486,7 +33721,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="30" t="s">
         <v>785</v>
       </c>
@@ -32505,8 +33740,11 @@
       <c r="F89" s="25" t="s">
         <v>4899</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G89" s="25" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>787</v>
       </c>
@@ -32517,7 +33755,7 @@
         <v>4728</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="30" t="s">
         <v>789</v>
       </c>
@@ -32536,8 +33774,11 @@
       <c r="F91" s="25" t="s">
         <v>4900</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G91" s="25" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>791</v>
       </c>
@@ -32548,7 +33789,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>793</v>
       </c>
@@ -32559,7 +33800,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="28" t="s">
         <v>795</v>
       </c>
@@ -32572,8 +33813,11 @@
       <c r="D94" s="25" t="s">
         <v>4774</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G94" s="25" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>797</v>
       </c>
@@ -32584,7 +33828,7 @@
         <v>4729</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>799</v>
       </c>
@@ -32595,7 +33839,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="30" t="s">
         <v>801</v>
       </c>
@@ -32614,8 +33858,11 @@
       <c r="F97" s="25" t="s">
         <v>4901</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G97" s="25" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>803</v>
       </c>
@@ -32626,7 +33873,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>805</v>
       </c>
@@ -32637,7 +33884,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>807</v>
       </c>
@@ -32648,7 +33895,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="28" t="s">
         <v>809</v>
       </c>
@@ -32661,8 +33908,11 @@
       <c r="D101" s="25" t="s">
         <v>4791</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G101" s="25" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A102" s="28" t="s">
         <v>811</v>
       </c>
@@ -32674,12 +33924,15 @@
       </c>
       <c r="D102" s="25" t="s">
         <v>4792</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>5123</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{FC10310A-B1AA-4FE6-B9AA-93B13E1AE05E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32694,8 +33947,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A87" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -32746,7 +33999,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>819</v>
       </c>
@@ -32815,7 +34068,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
         <v>831</v>
       </c>
@@ -32850,8 +34103,11 @@
       <c r="C13" s="25" t="s">
         <v>4959</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="25" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
         <v>837</v>
       </c>
@@ -32865,7 +34121,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="31" t="s">
         <v>839</v>
       </c>
@@ -32879,7 +34135,7 @@
         <v>4961</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
         <v>841</v>
       </c>
@@ -32915,7 +34171,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
         <v>847</v>
       </c>
@@ -32972,6 +34228,9 @@
       <c r="C23" s="25" t="s">
         <v>4965</v>
       </c>
+      <c r="D23" s="25" t="s">
+        <v>5125</v>
+      </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
@@ -33016,8 +34275,11 @@
       <c r="C27" s="25" t="s">
         <v>4966</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="25" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
         <v>865</v>
       </c>
@@ -33031,7 +34293,7 @@
         <v>4967</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
         <v>867</v>
       </c>
@@ -33089,7 +34351,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
         <v>877</v>
       </c>
@@ -33113,6 +34375,9 @@
       <c r="C35" s="25" t="s">
         <v>4970</v>
       </c>
+      <c r="D35" s="25" t="s">
+        <v>5127</v>
+      </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
@@ -33136,7 +34401,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
         <v>885</v>
       </c>
@@ -33150,7 +34415,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
         <v>887</v>
       </c>
@@ -33164,7 +34429,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
         <v>889</v>
       </c>
@@ -33178,7 +34443,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
         <v>891</v>
       </c>
@@ -33213,6 +34478,9 @@
       <c r="C43" s="25" t="s">
         <v>4974</v>
       </c>
+      <c r="D43" s="25" t="s">
+        <v>5128</v>
+      </c>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
@@ -33246,6 +34514,9 @@
       <c r="C46" s="25" t="s">
         <v>4975</v>
       </c>
+      <c r="D46" s="25" t="s">
+        <v>5129</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
@@ -33257,8 +34528,11 @@
       <c r="C47" s="25" t="s">
         <v>4976</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D47" s="25" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="31" t="s">
         <v>905</v>
       </c>
@@ -33404,7 +34678,7 @@
         <v>4935</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="31" t="s">
         <v>931</v>
       </c>
@@ -33450,6 +34724,9 @@
       <c r="C64" s="25" t="s">
         <v>4980</v>
       </c>
+      <c r="D64" s="25" t="s">
+        <v>5131</v>
+      </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
@@ -33484,7 +34761,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="31" t="s">
         <v>945</v>
       </c>
@@ -33531,7 +34808,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="31" t="s">
         <v>953</v>
       </c>
@@ -33610,6 +34887,9 @@
       <c r="C78" s="25" t="s">
         <v>4985</v>
       </c>
+      <c r="D78" s="25" t="s">
+        <v>5132</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
@@ -33654,6 +34934,9 @@
       <c r="C82" s="25" t="s">
         <v>4986</v>
       </c>
+      <c r="D82" s="25" t="s">
+        <v>5133</v>
+      </c>
     </row>
     <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
@@ -33709,6 +34992,9 @@
       <c r="C87" s="25" t="s">
         <v>4988</v>
       </c>
+      <c r="D87" s="25" t="s">
+        <v>5134</v>
+      </c>
     </row>
     <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
@@ -33732,7 +35018,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="32" t="s">
         <v>989</v>
       </c>
@@ -33756,6 +35042,9 @@
       <c r="C91" s="25" t="s">
         <v>4991</v>
       </c>
+      <c r="D91" s="25" t="s">
+        <v>5135</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="30" t="s">
@@ -33767,6 +35056,9 @@
       <c r="C92" s="25" t="s">
         <v>4992</v>
       </c>
+      <c r="D92" s="25" t="s">
+        <v>5136</v>
+      </c>
     </row>
     <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
@@ -33779,7 +35071,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="31" t="s">
         <v>997</v>
       </c>
@@ -33803,8 +35095,11 @@
       <c r="C95" s="25" t="s">
         <v>4270</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="D95" s="25" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A96" s="31" t="s">
         <v>1001</v>
       </c>
@@ -33829,7 +35124,7 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="31" t="s">
         <v>1005</v>
       </c>
@@ -33864,6 +35159,9 @@
       <c r="C100" s="25" t="s">
         <v>4996</v>
       </c>
+      <c r="D100" s="25" t="s">
+        <v>5138</v>
+      </c>
     </row>
     <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
@@ -33876,7 +35174,7 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="31" t="s">
         <v>1013</v>
       </c>
@@ -33890,7 +35188,7 @@
         <v>4997</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
         <v>1015</v>
       </c>
@@ -33904,7 +35202,7 @@
         <v>5013</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="31" t="s">
         <v>1017</v>
       </c>
@@ -33921,7 +35219,7 @@
   </sheetData>
   <autoFilter ref="A1:C104" xr:uid="{B972B4E9-6070-4B03-B736-003BB1CB9797}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0" cellColor="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -33933,15 +35231,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B103"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="70.625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33949,823 +35253,1195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1019</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="25" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1021</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" s="25" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1023</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="25" t="s">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
         <v>1025</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="25" t="s">
+        <v>5190</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
         <v>1027</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="25" t="s">
+        <v>5191</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
         <v>1029</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="25" t="s">
+        <v>5192</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="30" t="s">
         <v>1031</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" s="25" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>1033</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="25" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="31" t="s">
         <v>1035</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="25" t="s">
+        <v>5194</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="31" t="s">
         <v>1037</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="25" t="s">
+        <v>5195</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="31" t="s">
         <v>1039</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="25" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="31" t="s">
         <v>1041</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" s="25" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>1043</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="63" x14ac:dyDescent="0.4">
+      <c r="C14" s="25" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="25" t="s">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="31" t="s">
         <v>1047</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="25" t="s">
+        <v>5198</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" s="25" t="s">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>1051</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" s="25" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>1053</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="25" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
         <v>1055</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="25" t="s">
+        <v>5200</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
         <v>1057</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="25" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="31" t="s">
         <v>1059</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="25" t="s">
+        <v>5201</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
         <v>1061</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="25" t="s">
+        <v>5216</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="31" t="s">
         <v>1063</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="25" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="31" t="s">
         <v>1065</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" s="25" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>1067</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" s="25" t="s">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" s="25" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" s="25" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" s="25" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>1075</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="25" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="31" t="s">
         <v>1077</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31" s="25" t="s">
+        <v>5223</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>1079</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" s="25" t="s">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>1081</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" s="25" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>1083</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34" s="25" t="s">
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>1085</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35" s="25" t="s">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>1087</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="25" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
         <v>1089</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37" s="25" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>1091</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38" s="25" t="s">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>1093</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39" s="25" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="25" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="31" t="s">
         <v>1097</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" s="25" t="s">
+        <v>5224</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" s="25" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>1101</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" s="25" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>1103</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" s="25" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>1105</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="25" t="s">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="31" t="s">
         <v>1107</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+      <c r="C46" s="25" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="31" t="s">
         <v>1109</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47" s="25" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>1111</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48" s="25" t="s">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>1113</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
+      <c r="C49" s="25" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="31" t="s">
         <v>1115</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+      <c r="C50" s="25" t="s">
+        <v>5207</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="31" t="s">
         <v>1117</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="25" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="31" t="s">
         <v>1119</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" s="25" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53" s="25" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>1123</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54" s="25" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" s="25" t="s">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1127</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="C56" s="25" t="s">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57" s="25" t="s">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C58" s="25" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>1133</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59" s="25" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>1135</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="25" t="s">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="31" t="s">
         <v>1137</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C61" s="25" t="s">
+        <v>5210</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>1139</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+      <c r="C62" s="25" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="31" t="s">
         <v>1141</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C63" s="25" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>1143</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64" s="25" t="s">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>1145</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" s="25" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>1147</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="25" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="31" t="s">
         <v>1149</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="25" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="31" t="s">
         <v>1151</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" s="25" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" s="25" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>1155</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70" s="25" t="s">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>1157</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" s="25" t="s">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>1159</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="25" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="31" t="s">
         <v>1161</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" s="25" t="s">
+        <v>5226</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>1163</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" s="25" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>1165</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" s="25" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>1167</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="25" t="s">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="31" t="s">
         <v>1169</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77" s="25" t="s">
+        <v>5227</v>
+      </c>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>1171</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
+      <c r="C78" s="25" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="31" t="s">
         <v>1173</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="25" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="31" t="s">
         <v>1175</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="25" t="s">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="31" t="s">
         <v>1177</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" s="25" t="s">
+        <v>5230</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
+      <c r="C82" s="25" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="31" t="s">
         <v>1181</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83" s="25" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>1183</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
+      <c r="C84" s="25" t="s">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="31" t="s">
         <v>1185</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85" s="25" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>1187</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="126" x14ac:dyDescent="0.4">
+      <c r="C86" s="25" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>1189</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" s="25" t="s">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>1191</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
+      <c r="C88" s="25" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="31" t="s">
         <v>1193</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A90" s="2" t="s">
+      <c r="C89" s="25" t="s">
+        <v>5231</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="31" t="s">
         <v>1195</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
+      <c r="C90" s="25" t="s">
+        <v>5232</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="31" t="s">
         <v>1197</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
+      <c r="C91" s="25" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="31" t="s">
         <v>1199</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C92" s="25" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>1201</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="141.75" x14ac:dyDescent="0.4">
+      <c r="C93" s="25" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>1203</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C94" s="25" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>1205</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="25" t="s">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="31" t="s">
         <v>1207</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C96" s="25" t="s">
+        <v>5233</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>1209</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C97" s="25" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>1211</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C98" s="25" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C99" s="25" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
+      <c r="C100" s="25" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="31" t="s">
         <v>1217</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
+      <c r="C101" s="25" t="s">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="31" t="s">
         <v>1219</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C102" s="25" t="s">
+        <v>5234</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>1221</v>
       </c>
       <c r="B103" t="s">
         <v>1222</v>
       </c>
+      <c r="C103" s="25" t="s">
+        <v>5189</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C103" xr:uid="{3CEA6DCD-6F19-45F4-A1AC-9A6529A1AAED}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4EC5DA-82D6-40E8-B252-A889D74AD8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A49EBD5-C2E1-4B9E-B3FE-F63B5B0AFB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="5695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6226" uniqueCount="5943">
   <si>
     <t>单词</t>
   </si>
@@ -18782,6 +18782,998 @@
   </si>
   <si>
     <t>易腐败的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘出的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思乡的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食腐动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共设施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>憎恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母系的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象学家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔藓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一缕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视转播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美学的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两脚动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交谈，对立的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头颅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑郁的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固执的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承权</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先兆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反叛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌烦的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶幼虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保守的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土瓷器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平坦的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表述的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花岗岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香味</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架子鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谋划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校长，最大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌黑的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木筏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈旧的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍受，经历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊奇的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空穿梭机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富足的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦炭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反常 的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八边形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽默的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐设施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不孕的，无结果的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安抚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热力学的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱赶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考古学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄铜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬崖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陡峭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉走路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故意的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干涸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有争议的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>层面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不朽的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">伤害 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过多的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微生物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣布放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧烈的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狒狒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚱蜢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水坑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕褐色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>租屋人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥发性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背叛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋葬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮湿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼吞虎咽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚麻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱国者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马鞍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一瞬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼梯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热爱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大胆的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆锥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">和谐 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>润滑剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权，命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世俗的平凡的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新颖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易坏的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳酸钾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啮齿动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严厉的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有刺的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破坏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -19080,8 +20072,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19476,20 +20468,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1048576"/>
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="67.875" customWidth="1"/>
-    <col min="3" max="7" width="9" customWidth="1"/>
+    <col min="3" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19497,7 +20489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -19511,7 +20503,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -19525,7 +20517,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -19539,7 +20531,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19553,7 +20545,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -19567,7 +20559,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -19581,7 +20573,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -19606,8 +20598,11 @@
       <c r="H8" s="24" t="s">
         <v>5391</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="24" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -19621,7 +20616,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -19635,7 +20630,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -19649,7 +20644,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -19663,7 +20658,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -19677,7 +20672,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -19691,7 +20686,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -19705,7 +20700,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -19719,7 +20714,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -19733,7 +20728,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -19747,7 +20742,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -19761,7 +20756,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -19775,7 +20770,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -19789,7 +20784,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -19803,7 +20798,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -19817,7 +20812,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -19831,7 +20826,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -19845,7 +20840,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -19859,7 +20854,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
@@ -19884,8 +20879,11 @@
       <c r="H27" s="25" t="s">
         <v>5392</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="25" t="s">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
@@ -19910,8 +20908,11 @@
       <c r="H28" s="25" t="s">
         <v>5393</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="25" t="s">
+        <v>5697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
@@ -19936,8 +20937,11 @@
       <c r="H29" s="25" t="s">
         <v>5394</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I29" s="25" t="s">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -19951,7 +20955,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -19965,7 +20969,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -19979,7 +20983,7 @@
         <v>4483</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -19993,7 +20997,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -20007,7 +21011,7 @@
         <v>4289</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -20021,7 +21025,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -20035,7 +21039,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -20049,7 +21053,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -20063,7 +21067,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -20077,7 +21081,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -20091,7 +21095,7 @@
         <v>4295</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -20116,8 +21120,11 @@
       <c r="H41" s="25" t="s">
         <v>5395</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="25" t="s">
+        <v>5699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -20131,7 +21138,7 @@
         <v>4485</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -20145,7 +21152,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -20159,7 +21166,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -20173,7 +21180,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>90</v>
       </c>
@@ -20198,8 +21205,11 @@
       <c r="H46" s="25" t="s">
         <v>5396</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="25" t="s">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -20213,7 +21223,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -20227,7 +21237,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -20241,7 +21251,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -20255,7 +21265,7 @@
         <v>4305</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -20269,7 +21279,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -20283,7 +21293,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -20297,7 +21307,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>106</v>
       </c>
@@ -20322,8 +21332,11 @@
       <c r="H54" s="25" t="s">
         <v>5397</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" s="25" t="s">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>108</v>
       </c>
@@ -20348,8 +21361,11 @@
       <c r="H55" s="25" t="s">
         <v>5398</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I55" s="25" t="s">
+        <v>5702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -20363,7 +21379,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -20377,7 +21393,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -20391,7 +21407,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -20405,7 +21421,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -20419,7 +21435,7 @@
         <v>4314</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -20433,7 +21449,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -20447,7 +21463,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -20461,7 +21477,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>126</v>
       </c>
@@ -20486,8 +21502,11 @@
       <c r="H64" s="25" t="s">
         <v>5399</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I64" s="25" t="s">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -20501,7 +21520,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -20515,7 +21534,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -20529,7 +21548,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>134</v>
       </c>
@@ -20554,8 +21573,11 @@
       <c r="H68" s="25" t="s">
         <v>5400</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I68" s="25" t="s">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -20569,7 +21591,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -20583,7 +21605,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -20597,7 +21619,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -20611,7 +21633,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -20625,7 +21647,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -20639,7 +21661,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -20653,7 +21675,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -20667,7 +21689,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
         <v>152</v>
       </c>
@@ -20692,8 +21714,11 @@
       <c r="H77" s="25" t="s">
         <v>5401</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I77" s="25" t="s">
+        <v>5705</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -20707,7 +21732,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -20721,7 +21746,7 @@
         <v>4490</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -20735,7 +21760,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -20749,7 +21774,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -20763,7 +21788,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -20777,7 +21802,7 @@
         <v>4492</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -20791,7 +21816,7 @@
         <v>4493</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -20805,7 +21830,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -20819,7 +21844,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -20833,7 +21858,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -20847,7 +21872,7 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>176</v>
       </c>
@@ -20872,8 +21897,11 @@
       <c r="H89" s="25" t="s">
         <v>5402</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I89" s="25" t="s">
+        <v>5706</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -20887,7 +21915,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -20901,7 +21929,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -20915,7 +21943,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -20929,7 +21957,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -20943,7 +21971,7 @@
         <v>4499</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -20957,7 +21985,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -20971,7 +21999,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
@@ -20985,7 +22013,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
         <v>194</v>
       </c>
@@ -21010,8 +22038,11 @@
       <c r="H98" s="25" t="s">
         <v>5403</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I98" s="25" t="s">
+        <v>5707</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -21025,7 +22056,7 @@
         <v>4501</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -21039,7 +22070,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -21053,7 +22084,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -21084,7 +22115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
@@ -29471,21 +30502,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:I104"/>
+  <dimension ref="A2:J104"/>
   <sheetViews>
     <sheetView topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="49.125" hidden="1" customWidth="1"/>
-    <col min="3" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="3" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -29493,7 +30523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>204</v>
       </c>
@@ -29521,8 +30551,11 @@
       <c r="I3" s="25" t="s">
         <v>5404</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J3" s="25" t="s">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>206</v>
       </c>
@@ -29533,7 +30566,7 @@
         <v>4362</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>208</v>
       </c>
@@ -29544,7 +30577,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>210</v>
       </c>
@@ -29555,7 +30588,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>212</v>
       </c>
@@ -29566,7 +30599,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>214</v>
       </c>
@@ -29577,7 +30610,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>216</v>
       </c>
@@ -29588,7 +30621,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -29599,7 +30632,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>220</v>
       </c>
@@ -29610,7 +30643,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
@@ -29621,7 +30654,7 @@
         <v>4370</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>224</v>
       </c>
@@ -29649,8 +30682,11 @@
       <c r="I13" s="25" t="s">
         <v>5405</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="25" t="s">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>226</v>
       </c>
@@ -29661,7 +30697,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>228</v>
       </c>
@@ -29689,8 +30725,11 @@
       <c r="I15" s="25" t="s">
         <v>5406</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J15" s="25" t="s">
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>230</v>
       </c>
@@ -29701,7 +30740,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>232</v>
       </c>
@@ -29712,7 +30751,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>234</v>
       </c>
@@ -29723,7 +30762,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>236</v>
       </c>
@@ -29734,7 +30773,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>238</v>
       </c>
@@ -29745,7 +30784,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>240</v>
       </c>
@@ -29773,8 +30812,11 @@
       <c r="I21" s="25" t="s">
         <v>5407</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J21" s="25" t="s">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>242</v>
       </c>
@@ -29785,7 +30827,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>244</v>
       </c>
@@ -29796,7 +30838,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>246</v>
       </c>
@@ -29807,7 +30849,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>248</v>
       </c>
@@ -29818,7 +30860,7 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>250</v>
       </c>
@@ -29829,7 +30871,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>252</v>
       </c>
@@ -29840,7 +30882,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>254</v>
       </c>
@@ -29851,7 +30893,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>256</v>
       </c>
@@ -29862,7 +30904,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>258</v>
       </c>
@@ -29873,7 +30915,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -29884,7 +30926,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>262</v>
       </c>
@@ -29895,7 +30937,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>264</v>
       </c>
@@ -29906,7 +30948,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>266</v>
       </c>
@@ -29934,8 +30976,11 @@
       <c r="I34" s="25" t="s">
         <v>5408</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J34" s="25" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>268</v>
       </c>
@@ -29946,7 +30991,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>270</v>
       </c>
@@ -29957,7 +31002,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>272</v>
       </c>
@@ -29968,7 +31013,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>274</v>
       </c>
@@ -29979,7 +31024,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>276</v>
       </c>
@@ -29990,7 +31035,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>278</v>
       </c>
@@ -30001,7 +31046,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>280</v>
       </c>
@@ -30012,7 +31057,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>282</v>
       </c>
@@ -30023,7 +31068,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>284</v>
       </c>
@@ -30051,8 +31096,11 @@
       <c r="I43" s="25" t="s">
         <v>5409</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J43" s="25" t="s">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>286</v>
       </c>
@@ -30063,7 +31111,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>288</v>
       </c>
@@ -30074,7 +31122,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>290</v>
       </c>
@@ -30085,7 +31133,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>292</v>
       </c>
@@ -30096,7 +31144,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>294</v>
       </c>
@@ -30107,7 +31155,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -30118,7 +31166,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>298</v>
       </c>
@@ -30129,7 +31177,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>300</v>
       </c>
@@ -30140,7 +31188,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>302</v>
       </c>
@@ -30168,8 +31216,11 @@
       <c r="I52" s="25" t="s">
         <v>5410</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52" s="25" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>304</v>
       </c>
@@ -30197,8 +31248,11 @@
       <c r="I53" s="25" t="s">
         <v>5411</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J53" s="25" t="s">
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>306</v>
       </c>
@@ -30209,7 +31263,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>308</v>
       </c>
@@ -30237,8 +31291,11 @@
       <c r="I55" s="25" t="s">
         <v>5412</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J55" s="25" t="s">
+        <v>5716</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>310</v>
       </c>
@@ -30249,7 +31306,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>312</v>
       </c>
@@ -30277,8 +31334,11 @@
       <c r="I57" s="25" t="s">
         <v>5413</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J57" s="25" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>314</v>
       </c>
@@ -30289,7 +31349,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>316</v>
       </c>
@@ -30300,7 +31360,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>318</v>
       </c>
@@ -30311,7 +31371,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>320</v>
       </c>
@@ -30322,7 +31382,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>322</v>
       </c>
@@ -30333,7 +31393,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>324</v>
       </c>
@@ -30344,7 +31404,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>326</v>
       </c>
@@ -30372,8 +31432,11 @@
       <c r="I64" s="25" t="s">
         <v>5414</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J64" s="25" t="s">
+        <v>5718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>328</v>
       </c>
@@ -30384,7 +31447,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>330</v>
       </c>
@@ -30395,7 +31458,7 @@
         <v>4409</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>332</v>
       </c>
@@ -30406,7 +31469,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>334</v>
       </c>
@@ -30417,7 +31480,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>336</v>
       </c>
@@ -30445,8 +31508,11 @@
       <c r="I69" s="25" t="s">
         <v>5415</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J69" s="25" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>338</v>
       </c>
@@ -30457,7 +31523,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>340</v>
       </c>
@@ -30485,8 +31551,11 @@
       <c r="I71" s="25" t="s">
         <v>5416</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J71" s="25" t="s">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>342</v>
       </c>
@@ -30497,7 +31566,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>344</v>
       </c>
@@ -30525,8 +31594,11 @@
       <c r="I73" s="25" t="s">
         <v>5417</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J73" s="25" t="s">
+        <v>5721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -30537,7 +31609,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>348</v>
       </c>
@@ -30548,7 +31620,7 @@
         <v>4415</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>350</v>
       </c>
@@ -30559,7 +31631,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>352</v>
       </c>
@@ -30587,8 +31659,11 @@
       <c r="I77" s="25" t="s">
         <v>5418</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J77" s="25" t="s">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>354</v>
       </c>
@@ -30599,7 +31674,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>356</v>
       </c>
@@ -30610,7 +31685,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>358</v>
       </c>
@@ -30638,8 +31713,11 @@
       <c r="I80" s="25" t="s">
         <v>5419</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J80" s="25" t="s">
+        <v>5723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>360</v>
       </c>
@@ -30650,7 +31728,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>362</v>
       </c>
@@ -30661,7 +31739,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>364</v>
       </c>
@@ -30672,7 +31750,7 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>366</v>
       </c>
@@ -30683,7 +31761,7 @@
         <v>4421</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>368</v>
       </c>
@@ -30711,8 +31789,11 @@
       <c r="I85" s="25" t="s">
         <v>5420</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J85" s="25" t="s">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>370</v>
       </c>
@@ -30723,7 +31804,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>372</v>
       </c>
@@ -30751,8 +31832,11 @@
       <c r="I87" s="25" t="s">
         <v>5421</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J87" s="25" t="s">
+        <v>5725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>374</v>
       </c>
@@ -30780,8 +31864,11 @@
       <c r="I88" s="25" t="s">
         <v>5422</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J88" s="25" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>376</v>
       </c>
@@ -30792,7 +31879,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>378</v>
       </c>
@@ -30803,7 +31890,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>380</v>
       </c>
@@ -30814,7 +31901,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>382</v>
       </c>
@@ -30825,7 +31912,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>384</v>
       </c>
@@ -30853,8 +31940,11 @@
       <c r="I93" s="25" t="s">
         <v>5423</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J93" s="25" t="s">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>386</v>
       </c>
@@ -30865,7 +31955,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>388</v>
       </c>
@@ -30876,7 +31966,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>390</v>
       </c>
@@ -30887,7 +31977,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>392</v>
       </c>
@@ -30898,7 +31988,7 @@
         <v>4427</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>394</v>
       </c>
@@ -30926,8 +32016,11 @@
       <c r="I98" s="25" t="s">
         <v>5424</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J98" s="25" t="s">
+        <v>5729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>396</v>
       </c>
@@ -30938,7 +32031,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>398</v>
       </c>
@@ -30949,7 +32042,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>400</v>
       </c>
@@ -30960,7 +32053,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
@@ -30971,7 +32064,7 @@
         <v>4431</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>404</v>
       </c>
@@ -30999,8 +32092,11 @@
       <c r="I103" s="25" t="s">
         <v>5425</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J103" s="25" t="s">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>406</v>
       </c>
@@ -32816,22 +33912,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView topLeftCell="A65" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.3125" customWidth="1"/>
-    <col min="2" max="2" width="30.375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3125" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="22.3125" customWidth="1"/>
+    <col min="4" max="8" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32839,7 +33934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>408</v>
       </c>
@@ -32850,7 +33945,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>410</v>
       </c>
@@ -32861,7 +33956,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>412</v>
       </c>
@@ -32886,8 +33981,11 @@
       <c r="H4" s="25" t="s">
         <v>5426</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" s="25" t="s">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>414</v>
       </c>
@@ -32912,8 +34010,11 @@
       <c r="H5" s="25" t="s">
         <v>5427</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="25" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>416</v>
       </c>
@@ -32924,7 +34025,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>418</v>
       </c>
@@ -32949,8 +34050,11 @@
       <c r="H7" s="25" t="s">
         <v>5428</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="25" t="s">
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>420</v>
       </c>
@@ -32961,7 +34065,7 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>422</v>
       </c>
@@ -32972,7 +34076,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>424</v>
       </c>
@@ -32997,8 +34101,11 @@
       <c r="H10" s="25" t="s">
         <v>5429</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="25" t="s">
+        <v>5733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>426</v>
       </c>
@@ -33009,7 +34116,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>428</v>
       </c>
@@ -33020,7 +34127,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
@@ -33031,7 +34138,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>432</v>
       </c>
@@ -33056,8 +34163,11 @@
       <c r="H14" s="25" t="s">
         <v>5430</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="25" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>434</v>
       </c>
@@ -33068,7 +34178,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>436</v>
       </c>
@@ -33079,7 +34189,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>438</v>
       </c>
@@ -33090,7 +34200,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>440</v>
       </c>
@@ -33101,7 +34211,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>442</v>
       </c>
@@ -33112,7 +34222,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>444</v>
       </c>
@@ -33137,8 +34247,11 @@
       <c r="H20" s="25" t="s">
         <v>5431</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="25" t="s">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>446</v>
       </c>
@@ -33163,8 +34276,11 @@
       <c r="H21" s="25" t="s">
         <v>5432</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I21" s="25" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>448</v>
       </c>
@@ -33175,7 +34291,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>450</v>
       </c>
@@ -33186,7 +34302,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>452</v>
       </c>
@@ -33211,8 +34327,11 @@
       <c r="H24" s="25" t="s">
         <v>5433</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="25" t="s">
+        <v>5737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>454</v>
       </c>
@@ -33237,8 +34356,11 @@
       <c r="H25" s="25" t="s">
         <v>5434</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="25" t="s">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
         <v>456</v>
       </c>
@@ -33263,8 +34385,11 @@
       <c r="H26" s="25" t="s">
         <v>5435</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="25" t="s">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>458</v>
       </c>
@@ -33289,8 +34414,11 @@
       <c r="H27" s="25" t="s">
         <v>5436</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="25" t="s">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>460</v>
       </c>
@@ -33315,8 +34443,11 @@
       <c r="H28" s="25" t="s">
         <v>5437</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="25" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>462</v>
       </c>
@@ -33327,7 +34458,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>464</v>
       </c>
@@ -33338,7 +34469,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>466</v>
       </c>
@@ -33349,7 +34480,7 @@
         <v>4532</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>468</v>
       </c>
@@ -33360,7 +34491,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>470</v>
       </c>
@@ -33371,7 +34502,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>472</v>
       </c>
@@ -33382,7 +34513,7 @@
         <v>4581</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>474</v>
       </c>
@@ -33393,7 +34524,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>476</v>
       </c>
@@ -33418,8 +34549,11 @@
       <c r="H36" s="25" t="s">
         <v>5438</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="25" t="s">
+        <v>5742</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>478</v>
       </c>
@@ -33444,8 +34578,11 @@
       <c r="H37" s="25" t="s">
         <v>5440</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" s="25" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>480</v>
       </c>
@@ -33470,8 +34607,11 @@
       <c r="H38" s="25" t="s">
         <v>5439</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" s="25" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
         <v>482</v>
       </c>
@@ -33496,8 +34636,11 @@
       <c r="H39" s="25" t="s">
         <v>5441</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="25" t="s">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>484</v>
       </c>
@@ -33508,7 +34651,7 @@
         <v>4535</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>486</v>
       </c>
@@ -33519,7 +34662,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>488</v>
       </c>
@@ -33530,7 +34673,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>490</v>
       </c>
@@ -33541,7 +34684,7 @@
         <v>4537</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>492</v>
       </c>
@@ -33566,8 +34709,11 @@
       <c r="H44" s="25" t="s">
         <v>5442</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="25" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>494</v>
       </c>
@@ -33578,7 +34724,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>496</v>
       </c>
@@ -33603,8 +34749,11 @@
       <c r="H46" s="25" t="s">
         <v>5443</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I46" s="25" t="s">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>498</v>
       </c>
@@ -33612,7 +34761,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="27" t="s">
         <v>500</v>
       </c>
@@ -33637,8 +34786,11 @@
       <c r="H48" s="25" t="s">
         <v>5444</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="25" t="s">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>502</v>
       </c>
@@ -33663,8 +34815,11 @@
       <c r="H49" s="25" t="s">
         <v>5445</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I49" s="25" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>504</v>
       </c>
@@ -33675,7 +34830,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>506</v>
       </c>
@@ -33686,7 +34841,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>508</v>
       </c>
@@ -33697,7 +34852,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="27" t="s">
         <v>510</v>
       </c>
@@ -33722,8 +34877,11 @@
       <c r="H53" s="25" t="s">
         <v>5446</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" s="25" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>512</v>
       </c>
@@ -33748,8 +34906,11 @@
       <c r="H54" s="25" t="s">
         <v>5447</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I54" s="25" t="s">
+        <v>5751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>514</v>
       </c>
@@ -33760,7 +34921,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>516</v>
       </c>
@@ -33771,7 +34932,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>518</v>
       </c>
@@ -33782,7 +34943,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>520</v>
       </c>
@@ -33793,7 +34954,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>522</v>
       </c>
@@ -33804,7 +34965,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>524</v>
       </c>
@@ -33830,7 +34991,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>526</v>
       </c>
@@ -33841,7 +35002,7 @@
         <v>4547</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
         <v>528</v>
       </c>
@@ -33866,8 +35027,11 @@
       <c r="H62" s="25" t="s">
         <v>5449</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="25" t="s">
+        <v>5752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>530</v>
       </c>
@@ -33878,7 +35042,7 @@
         <v>4548</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>532</v>
       </c>
@@ -33889,7 +35053,7 @@
         <v>4549</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>534</v>
       </c>
@@ -33914,8 +35078,11 @@
       <c r="H65" s="25" t="s">
         <v>5450</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I65" s="25" t="s">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>536</v>
       </c>
@@ -33926,7 +35093,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>538</v>
       </c>
@@ -33951,8 +35118,11 @@
       <c r="H67" s="25" t="s">
         <v>5451</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I67" s="25" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>540</v>
       </c>
@@ -33963,7 +35133,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>542</v>
       </c>
@@ -33974,7 +35144,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>544</v>
       </c>
@@ -33985,7 +35155,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>546</v>
       </c>
@@ -33996,7 +35166,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>548</v>
       </c>
@@ -34007,7 +35177,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>550</v>
       </c>
@@ -34018,7 +35188,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>552</v>
       </c>
@@ -34029,7 +35199,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>554</v>
       </c>
@@ -34054,8 +35224,11 @@
       <c r="H75" s="25" t="s">
         <v>5452</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I75" s="25" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
         <v>556</v>
       </c>
@@ -34080,8 +35253,11 @@
       <c r="H76" s="25" t="s">
         <v>5453</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I76" s="25" t="s">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>558</v>
       </c>
@@ -34092,7 +35268,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>560</v>
       </c>
@@ -34103,7 +35279,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>562</v>
       </c>
@@ -34114,7 +35290,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>564</v>
       </c>
@@ -34125,7 +35301,7 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>566</v>
       </c>
@@ -34136,7 +35312,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>568</v>
       </c>
@@ -34144,7 +35320,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>570</v>
       </c>
@@ -34155,7 +35331,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>572</v>
       </c>
@@ -34180,8 +35356,9 @@
       <c r="H84" s="25" t="s">
         <v>5454</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I84" s="25"/>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>574</v>
       </c>
@@ -34192,7 +35369,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>576</v>
       </c>
@@ -34217,8 +35394,11 @@
       <c r="H86" s="25" t="s">
         <v>5455</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I86" s="25" t="s">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>578</v>
       </c>
@@ -34229,7 +35409,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>580</v>
       </c>
@@ -34240,7 +35420,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>582</v>
       </c>
@@ -34251,7 +35431,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>584</v>
       </c>
@@ -34262,7 +35442,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>586</v>
       </c>
@@ -34273,7 +35453,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>588</v>
       </c>
@@ -34284,7 +35464,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>590</v>
       </c>
@@ -34309,8 +35489,11 @@
       <c r="H93" s="25" t="s">
         <v>5456</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I93" s="25" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>592</v>
       </c>
@@ -34321,7 +35504,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>594</v>
       </c>
@@ -34346,8 +35529,11 @@
       <c r="H95" s="25" t="s">
         <v>5457</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I95" s="25" t="s">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>596</v>
       </c>
@@ -34358,7 +35544,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A97" s="8" t="s">
         <v>598</v>
       </c>
@@ -34383,8 +35569,11 @@
       <c r="H97" s="25" t="s">
         <v>5424</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I97" s="25" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>600</v>
       </c>
@@ -34392,7 +35581,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>602</v>
       </c>
@@ -34403,7 +35592,7 @@
         <v>4570</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>604</v>
       </c>
@@ -34414,7 +35603,7 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>606</v>
       </c>
@@ -34425,7 +35614,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
         <v>608</v>
       </c>
@@ -34450,8 +35639,11 @@
       <c r="H102" s="25" t="s">
         <v>5458</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I102" s="25" t="s">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>610</v>
       </c>
@@ -34478,22 +35670,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="A66" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="66.5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" customWidth="1"/>
     <col min="3" max="3" width="23.875" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34501,7 +35692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>612</v>
       </c>
@@ -34512,7 +35703,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>614</v>
       </c>
@@ -34523,7 +35714,7 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>616</v>
       </c>
@@ -34534,7 +35725,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>618</v>
       </c>
@@ -34545,7 +35736,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
         <v>620</v>
       </c>
@@ -34564,8 +35755,11 @@
       <c r="H6" s="25" t="s">
         <v>5459</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="25" t="s">
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
         <v>622</v>
       </c>
@@ -34584,8 +35778,11 @@
       <c r="H7" s="25" t="s">
         <v>5460</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="25" t="s">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>624</v>
       </c>
@@ -34596,7 +35793,7 @@
         <v>4684</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>626</v>
       </c>
@@ -34607,7 +35804,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>628</v>
       </c>
@@ -34618,7 +35815,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>630</v>
       </c>
@@ -34629,7 +35826,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>632</v>
       </c>
@@ -34649,7 +35846,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>634</v>
       </c>
@@ -34668,8 +35865,11 @@
       <c r="H13" s="25" t="s">
         <v>5462</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="25" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>636</v>
       </c>
@@ -34695,7 +35895,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>638</v>
       </c>
@@ -34706,7 +35906,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>640</v>
       </c>
@@ -34717,7 +35917,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>642</v>
       </c>
@@ -34728,7 +35928,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="28" t="s">
         <v>644</v>
       </c>
@@ -34747,8 +35947,11 @@
       <c r="H18" s="25" t="s">
         <v>5464</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="25" t="s">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>646</v>
       </c>
@@ -34759,7 +35962,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>648</v>
       </c>
@@ -34767,7 +35970,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>650</v>
       </c>
@@ -34778,7 +35981,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>652</v>
       </c>
@@ -34789,7 +35992,7 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>654</v>
       </c>
@@ -34800,7 +36003,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="28" t="s">
         <v>656</v>
       </c>
@@ -34819,8 +36022,11 @@
       <c r="H24" s="25" t="s">
         <v>5465</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="25" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>658</v>
       </c>
@@ -34831,7 +36037,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>660</v>
       </c>
@@ -34856,8 +36062,11 @@
       <c r="H26" s="25" t="s">
         <v>5466</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="25" t="s">
+        <v>5767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>662</v>
       </c>
@@ -34868,7 +36077,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="28" t="s">
         <v>664</v>
       </c>
@@ -34887,8 +36096,11 @@
       <c r="H28" s="25" t="s">
         <v>5467</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="25" t="s">
+        <v>5768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="28" t="s">
         <v>666</v>
       </c>
@@ -34907,8 +36119,11 @@
       <c r="H29" s="25" t="s">
         <v>5468</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="25" t="s">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="28" t="s">
         <v>668</v>
       </c>
@@ -34927,8 +36142,11 @@
       <c r="H30" s="25" t="s">
         <v>5469</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I30" s="25" t="s">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>670</v>
       </c>
@@ -34939,7 +36157,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="30" t="s">
         <v>672</v>
       </c>
@@ -34964,8 +36182,11 @@
       <c r="H32" s="25" t="s">
         <v>5470</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="25" t="s">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>674</v>
       </c>
@@ -34976,7 +36197,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>676</v>
       </c>
@@ -34987,7 +36208,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="28" t="s">
         <v>4748</v>
       </c>
@@ -35006,8 +36227,11 @@
       <c r="H35" s="25" t="s">
         <v>5471</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" s="25" t="s">
+        <v>5771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="30" t="s">
         <v>679</v>
       </c>
@@ -35032,8 +36256,11 @@
       <c r="H36" s="25" t="s">
         <v>5472</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="25" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="28" t="s">
         <v>681</v>
       </c>
@@ -35052,8 +36279,11 @@
       <c r="H37" s="25" t="s">
         <v>5439</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="25" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>683</v>
       </c>
@@ -35064,7 +36294,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>685</v>
       </c>
@@ -35075,7 +36305,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>687</v>
       </c>
@@ -35086,7 +36316,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>689</v>
       </c>
@@ -35112,7 +36342,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>691</v>
       </c>
@@ -35123,7 +36353,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>693</v>
       </c>
@@ -35134,7 +36364,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>695</v>
       </c>
@@ -35145,7 +36375,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="28" t="s">
         <v>697</v>
       </c>
@@ -35164,8 +36394,11 @@
       <c r="H45" s="25" t="s">
         <v>5474</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="I45" s="25" t="s">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A46" s="28" t="s">
         <v>699</v>
       </c>
@@ -35184,8 +36417,11 @@
       <c r="H46" s="25" t="s">
         <v>5475</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="I46" s="25" t="s">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
         <v>701</v>
       </c>
@@ -35210,8 +36446,11 @@
       <c r="H47" s="25" t="s">
         <v>5476</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" s="25" t="s">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="28" t="s">
         <v>703</v>
       </c>
@@ -35230,8 +36469,11 @@
       <c r="H48" s="25" t="s">
         <v>5477</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="25" t="s">
+        <v>5695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="30" t="s">
         <v>705</v>
       </c>
@@ -35257,7 +36499,7 @@
         <v>5478</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>707</v>
       </c>
@@ -35268,7 +36510,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="30" t="s">
         <v>709</v>
       </c>
@@ -35294,7 +36536,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>711</v>
       </c>
@@ -35305,7 +36547,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="30" t="s">
         <v>713</v>
       </c>
@@ -35330,8 +36572,11 @@
       <c r="H53" s="25" t="s">
         <v>5480</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I53" s="25" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>715</v>
       </c>
@@ -35342,7 +36587,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>717</v>
       </c>
@@ -35353,7 +36598,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="28" t="s">
         <v>719</v>
       </c>
@@ -35372,8 +36617,11 @@
       <c r="H56" s="25" t="s">
         <v>5481</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I56" s="25" t="s">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>721</v>
       </c>
@@ -35384,7 +36632,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>723</v>
       </c>
@@ -35395,7 +36643,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="30" t="s">
         <v>725</v>
       </c>
@@ -35421,7 +36669,7 @@
         <v>5482</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
         <v>727</v>
       </c>
@@ -35446,8 +36694,11 @@
       <c r="H60" s="25" t="s">
         <v>5483</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I60" s="25" t="s">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>729</v>
       </c>
@@ -35458,7 +36709,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="28" t="s">
         <v>731</v>
       </c>
@@ -35477,8 +36728,11 @@
       <c r="H62" s="25" t="s">
         <v>5484</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="25" t="s">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>733</v>
       </c>
@@ -35489,7 +36743,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>735</v>
       </c>
@@ -35500,7 +36754,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="28" t="s">
         <v>737</v>
       </c>
@@ -35519,8 +36773,11 @@
       <c r="H65" s="25" t="s">
         <v>5485</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" s="25" t="s">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="30" t="s">
         <v>739</v>
       </c>
@@ -35545,8 +36802,11 @@
       <c r="H66" s="25" t="s">
         <v>5486</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I66" s="25" t="s">
+        <v>5781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>741</v>
       </c>
@@ -35557,7 +36817,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>743</v>
       </c>
@@ -35568,7 +36828,7 @@
         <v>4765</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="28" t="s">
         <v>745</v>
       </c>
@@ -35587,8 +36847,11 @@
       <c r="H69" s="25" t="s">
         <v>5487</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I69" s="25" t="s">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>747</v>
       </c>
@@ -35599,7 +36862,7 @@
         <v>4714</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>749</v>
       </c>
@@ -35610,7 +36873,7 @@
         <v>4715</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>751</v>
       </c>
@@ -35621,7 +36884,7 @@
         <v>4716</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>753</v>
       </c>
@@ -35632,7 +36895,7 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="30" t="s">
         <v>755</v>
       </c>
@@ -35657,8 +36920,11 @@
       <c r="H74" s="25" t="s">
         <v>5488</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I74" s="25" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>757</v>
       </c>
@@ -35669,7 +36935,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="28" t="s">
         <v>759</v>
       </c>
@@ -35688,8 +36954,11 @@
       <c r="H76" s="25" t="s">
         <v>5489</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I76" s="25" t="s">
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>761</v>
       </c>
@@ -35700,7 +36969,7 @@
         <v>4719</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>763</v>
       </c>
@@ -35711,7 +36980,7 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A79" s="30" t="s">
         <v>765</v>
       </c>
@@ -35736,8 +37005,11 @@
       <c r="H79" s="25" t="s">
         <v>5490</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I79" s="25" t="s">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="30" t="s">
         <v>767</v>
       </c>
@@ -35762,8 +37034,11 @@
       <c r="H80" s="25" t="s">
         <v>5491</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I80" s="25" t="s">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>769</v>
       </c>
@@ -35774,7 +37049,7 @@
         <v>4721</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>771</v>
       </c>
@@ -35785,7 +37060,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>773</v>
       </c>
@@ -35796,7 +37071,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>775</v>
       </c>
@@ -35807,7 +37082,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="28" t="s">
         <v>777</v>
       </c>
@@ -35826,8 +37101,11 @@
       <c r="H85" s="25" t="s">
         <v>5492</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I85" s="25" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>779</v>
       </c>
@@ -35838,7 +37116,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>781</v>
       </c>
@@ -35849,7 +37127,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>783</v>
       </c>
@@ -35860,7 +37138,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="30" t="s">
         <v>785</v>
       </c>
@@ -35885,8 +37163,11 @@
       <c r="H89" s="25" t="s">
         <v>5493</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I89" s="25" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>787</v>
       </c>
@@ -35897,7 +37178,7 @@
         <v>4728</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="30" t="s">
         <v>789</v>
       </c>
@@ -35922,8 +37203,11 @@
       <c r="H91" s="25" t="s">
         <v>5494</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I91" s="25" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>791</v>
       </c>
@@ -35934,7 +37218,7 @@
         <v>4525</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>793</v>
       </c>
@@ -35945,7 +37229,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="28" t="s">
         <v>795</v>
       </c>
@@ -35964,8 +37248,11 @@
       <c r="H94" s="25" t="s">
         <v>5495</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I94" s="25" t="s">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>797</v>
       </c>
@@ -35976,7 +37263,7 @@
         <v>4729</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>799</v>
       </c>
@@ -35987,7 +37274,7 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="30" t="s">
         <v>801</v>
       </c>
@@ -36012,8 +37299,11 @@
       <c r="H97" s="25" t="s">
         <v>5496</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+      <c r="I97" s="25" t="s">
+        <v>5790</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>803</v>
       </c>
@@ -36024,7 +37314,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>805</v>
       </c>
@@ -36035,7 +37325,7 @@
         <v>4732</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>807</v>
       </c>
@@ -36046,7 +37336,7 @@
         <v>4733</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="28" t="s">
         <v>809</v>
       </c>
@@ -36065,8 +37355,11 @@
       <c r="H101" s="25" t="s">
         <v>5497</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="I101" s="25" t="s">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A102" s="28" t="s">
         <v>811</v>
       </c>
@@ -36084,6 +37377,9 @@
       </c>
       <c r="H102" s="25" t="s">
         <v>5498</v>
+      </c>
+      <c r="I102" s="25" t="s">
+        <v>5792</v>
       </c>
     </row>
   </sheetData>
@@ -36102,21 +37398,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView topLeftCell="A72" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
-    <col min="2" max="2" width="52.375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="3" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36124,7 +37419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>813</v>
       </c>
@@ -36135,7 +37430,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>815</v>
       </c>
@@ -36146,7 +37441,7 @@
         <v>4905</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>817</v>
       </c>
@@ -36157,7 +37452,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>819</v>
       </c>
@@ -36173,8 +37468,11 @@
       <c r="E5" s="25" t="s">
         <v>5499</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="25" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>821</v>
       </c>
@@ -36185,7 +37483,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>823</v>
       </c>
@@ -36196,7 +37494,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>825</v>
       </c>
@@ -36207,7 +37505,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>827</v>
       </c>
@@ -36218,7 +37516,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>829</v>
       </c>
@@ -36229,7 +37527,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
         <v>831</v>
       </c>
@@ -36245,8 +37543,11 @@
       <c r="E11" s="25" t="s">
         <v>5500</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="25" t="s">
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>833</v>
       </c>
@@ -36257,7 +37558,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="30" t="s">
         <v>835</v>
       </c>
@@ -36274,7 +37575,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="31" t="s">
         <v>837</v>
       </c>
@@ -36290,8 +37591,11 @@
       <c r="E14" s="25" t="s">
         <v>5502</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14" s="25" t="s">
+        <v>5796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="31" t="s">
         <v>839</v>
       </c>
@@ -36307,8 +37611,11 @@
       <c r="E15" s="25" t="s">
         <v>5503</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15" s="25" t="s">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
         <v>841</v>
       </c>
@@ -36324,8 +37631,11 @@
       <c r="E16" s="25" t="s">
         <v>5504</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="25" t="s">
+        <v>5798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>843</v>
       </c>
@@ -36336,7 +37646,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>845</v>
       </c>
@@ -36347,7 +37657,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
         <v>847</v>
       </c>
@@ -36363,8 +37673,11 @@
       <c r="E19" s="25" t="s">
         <v>5505</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="25" t="s">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>849</v>
       </c>
@@ -36375,7 +37688,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>851</v>
       </c>
@@ -36386,7 +37699,7 @@
         <v>4964</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>853</v>
       </c>
@@ -36397,7 +37710,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="30" t="s">
         <v>855</v>
       </c>
@@ -36414,7 +37727,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>857</v>
       </c>
@@ -36425,7 +37738,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>859</v>
       </c>
@@ -36436,7 +37749,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>861</v>
       </c>
@@ -36447,7 +37760,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="s">
         <v>863</v>
       </c>
@@ -36463,8 +37776,11 @@
       <c r="E27" s="25" t="s">
         <v>5507</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27" s="25" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
         <v>865</v>
       </c>
@@ -36480,8 +37796,11 @@
       <c r="E28" s="25" t="s">
         <v>5508</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28" s="25" t="s">
+        <v>5801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
         <v>867</v>
       </c>
@@ -36497,8 +37816,11 @@
       <c r="E29" s="25" t="s">
         <v>5509</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F29" s="25" t="s">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>869</v>
       </c>
@@ -36509,7 +37831,7 @@
         <v>4921</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>871</v>
       </c>
@@ -36520,7 +37842,7 @@
         <v>4922</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>873</v>
       </c>
@@ -36531,7 +37853,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>875</v>
       </c>
@@ -36542,7 +37864,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
         <v>877</v>
       </c>
@@ -36558,8 +37880,11 @@
       <c r="E34" s="25" t="s">
         <v>5510</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34" s="25" t="s">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="30" t="s">
         <v>879</v>
       </c>
@@ -36575,8 +37900,11 @@
       <c r="E35" s="25" t="s">
         <v>5511</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F35" s="25" t="s">
+        <v>5804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>881</v>
       </c>
@@ -36587,7 +37915,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>883</v>
       </c>
@@ -36598,7 +37926,7 @@
         <v>4523</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
         <v>885</v>
       </c>
@@ -36614,8 +37942,11 @@
       <c r="E38" s="25" t="s">
         <v>5512</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38" s="25" t="s">
+        <v>5744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
         <v>887</v>
       </c>
@@ -36631,8 +37962,11 @@
       <c r="E39" s="25" t="s">
         <v>5513</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39" s="25" t="s">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
         <v>889</v>
       </c>
@@ -36648,8 +37982,11 @@
       <c r="E40" s="25" t="s">
         <v>5514</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40" s="25" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
         <v>891</v>
       </c>
@@ -36665,8 +38002,11 @@
       <c r="E41" s="25" t="s">
         <v>5515</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="25" t="s">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>893</v>
       </c>
@@ -36677,7 +38017,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="30" t="s">
         <v>895</v>
       </c>
@@ -36693,8 +38033,11 @@
       <c r="E43" s="25" t="s">
         <v>5516</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F43" s="25" t="s">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>897</v>
       </c>
@@ -36705,7 +38048,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>899</v>
       </c>
@@ -36716,7 +38059,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="30" t="s">
         <v>901</v>
       </c>
@@ -36732,8 +38075,11 @@
       <c r="E46" s="25" t="s">
         <v>5517</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46" s="25" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
         <v>903</v>
       </c>
@@ -36749,8 +38095,11 @@
       <c r="E47" s="25" t="s">
         <v>5518</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47" s="25" t="s">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="31" t="s">
         <v>905</v>
       </c>
@@ -36766,8 +38115,11 @@
       <c r="E48" s="25" t="s">
         <v>5519</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="25" t="s">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>907</v>
       </c>
@@ -36778,7 +38130,7 @@
         <v>4927</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>909</v>
       </c>
@@ -36789,7 +38141,7 @@
         <v>4978</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>911</v>
       </c>
@@ -36800,7 +38152,7 @@
         <v>4928</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>913</v>
       </c>
@@ -36811,7 +38163,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>915</v>
       </c>
@@ -36822,7 +38174,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>917</v>
       </c>
@@ -36833,7 +38185,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>919</v>
       </c>
@@ -36844,7 +38196,7 @@
         <v>4931</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>921</v>
       </c>
@@ -36855,7 +38207,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>923</v>
       </c>
@@ -36866,7 +38218,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>925</v>
       </c>
@@ -36877,7 +38229,7 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>927</v>
       </c>
@@ -36888,7 +38240,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>929</v>
       </c>
@@ -36899,7 +38251,7 @@
         <v>4935</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="31" t="s">
         <v>931</v>
       </c>
@@ -36915,8 +38267,11 @@
       <c r="E61" s="25" t="s">
         <v>5520</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F61" s="25" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>933</v>
       </c>
@@ -36927,7 +38282,7 @@
         <v>4936</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>935</v>
       </c>
@@ -36938,7 +38293,7 @@
         <v>4937</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="30" t="s">
         <v>937</v>
       </c>
@@ -36954,8 +38309,11 @@
       <c r="E64" s="25" t="s">
         <v>5521</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F64" s="25" t="s">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>939</v>
       </c>
@@ -36966,7 +38324,7 @@
         <v>4938</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>941</v>
       </c>
@@ -36977,7 +38335,7 @@
         <v>4981</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>943</v>
       </c>
@@ -36988,7 +38346,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="31" t="s">
         <v>945</v>
       </c>
@@ -37004,8 +38362,11 @@
       <c r="E68" s="25" t="s">
         <v>5523</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F68" s="25" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>947</v>
       </c>
@@ -37016,7 +38377,7 @@
         <v>4940</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>949</v>
       </c>
@@ -37027,7 +38388,7 @@
         <v>4941</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>951</v>
       </c>
@@ -37038,7 +38399,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="31" t="s">
         <v>953</v>
       </c>
@@ -37054,8 +38415,11 @@
       <c r="E72" s="25" t="s">
         <v>5522</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F72" s="25" t="s">
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>955</v>
       </c>
@@ -37066,7 +38430,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>957</v>
       </c>
@@ -37077,7 +38441,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>959</v>
       </c>
@@ -37088,7 +38452,7 @@
         <v>4984</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>961</v>
       </c>
@@ -37099,7 +38463,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>963</v>
       </c>
@@ -37110,7 +38474,7 @@
         <v>4946</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="30" t="s">
         <v>965</v>
       </c>
@@ -37126,8 +38490,11 @@
       <c r="E78" s="25" t="s">
         <v>5524</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F78" s="25" t="s">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>967</v>
       </c>
@@ -37138,7 +38505,7 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>969</v>
       </c>
@@ -37149,7 +38516,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>971</v>
       </c>
@@ -37160,7 +38527,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="30" t="s">
         <v>973</v>
       </c>
@@ -37176,8 +38543,11 @@
       <c r="E82" s="25" t="s">
         <v>5525</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F82" s="25" t="s">
+        <v>5816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>975</v>
       </c>
@@ -37188,7 +38558,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>977</v>
       </c>
@@ -37199,7 +38569,7 @@
         <v>4951</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>979</v>
       </c>
@@ -37210,7 +38580,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>981</v>
       </c>
@@ -37221,7 +38591,7 @@
         <v>4987</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="30" t="s">
         <v>983</v>
       </c>
@@ -37237,8 +38607,11 @@
       <c r="E87" s="25" t="s">
         <v>5526</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F87" s="25" t="s">
+        <v>5817</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>985</v>
       </c>
@@ -37249,7 +38622,7 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>987</v>
       </c>
@@ -37260,7 +38633,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="32" t="s">
         <v>989</v>
       </c>
@@ -37276,8 +38649,11 @@
       <c r="E90" s="25" t="s">
         <v>5527</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F90" s="25" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A91" s="30" t="s">
         <v>991</v>
       </c>
@@ -37293,8 +38669,11 @@
       <c r="E91" s="25" t="s">
         <v>5528</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91" s="25" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="30" t="s">
         <v>993</v>
       </c>
@@ -37310,8 +38689,11 @@
       <c r="E92" s="25" t="s">
         <v>5529</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F92" s="25" t="s">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>995</v>
       </c>
@@ -37322,7 +38704,7 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="31" t="s">
         <v>997</v>
       </c>
@@ -37338,8 +38720,11 @@
       <c r="E94" s="25" t="s">
         <v>5530</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94" s="25" t="s">
+        <v>5822</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="30" t="s">
         <v>999</v>
       </c>
@@ -37355,8 +38740,11 @@
       <c r="E95" s="25" t="s">
         <v>5531</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F95" s="25" t="s">
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A96" s="31" t="s">
         <v>1001</v>
       </c>
@@ -37372,8 +38760,11 @@
       <c r="E96" s="25" t="s">
         <v>5532</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F96" s="25" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>1003</v>
       </c>
@@ -37384,7 +38775,7 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="31" t="s">
         <v>1005</v>
       </c>
@@ -37400,8 +38791,11 @@
       <c r="E98" s="25" t="s">
         <v>5533</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F98" s="25" t="s">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>1007</v>
       </c>
@@ -37412,7 +38806,7 @@
         <v>4955</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="30" t="s">
         <v>1009</v>
       </c>
@@ -37428,8 +38822,11 @@
       <c r="E100" s="25" t="s">
         <v>5534</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F100" s="25" t="s">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>1011</v>
       </c>
@@ -37440,7 +38837,7 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="31" t="s">
         <v>1013</v>
       </c>
@@ -37456,8 +38853,11 @@
       <c r="E102" s="25" t="s">
         <v>5535</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F102" s="25" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="31" t="s">
         <v>1015</v>
       </c>
@@ -37473,8 +38873,11 @@
       <c r="E103" s="25" t="s">
         <v>5536</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F103" s="25" t="s">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="31" t="s">
         <v>1017</v>
       </c>
@@ -37489,6 +38892,9 @@
       </c>
       <c r="E104" s="25" t="s">
         <v>5537</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>5829</v>
       </c>
     </row>
   </sheetData>
@@ -37507,20 +38913,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="A61" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="70.625" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="9" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="70.625" customWidth="1"/>
+    <col min="3" max="6" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37528,7 +38934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1019</v>
       </c>
@@ -37539,7 +38945,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1021</v>
       </c>
@@ -37550,7 +38956,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1023</v>
       </c>
@@ -37561,7 +38967,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>1025</v>
       </c>
@@ -37580,8 +38986,11 @@
       <c r="F5" s="25" t="s">
         <v>5538</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="25" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
         <v>1027</v>
       </c>
@@ -37600,8 +39009,11 @@
       <c r="F6" s="25" t="s">
         <v>5539</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="25" t="s">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
         <v>1029</v>
       </c>
@@ -37620,8 +39032,11 @@
       <c r="F7" s="25" t="s">
         <v>5540</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="25" t="s">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="s">
         <v>1031</v>
       </c>
@@ -37637,8 +39052,11 @@
       <c r="F8" s="25" t="s">
         <v>5541</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="25" t="s">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>1033</v>
       </c>
@@ -37649,7 +39067,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="31" t="s">
         <v>1035</v>
       </c>
@@ -37668,8 +39086,11 @@
       <c r="F10" s="25" t="s">
         <v>5507</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="25" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
         <v>1037</v>
       </c>
@@ -37688,8 +39109,11 @@
       <c r="F11" s="25" t="s">
         <v>5542</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="25" t="s">
+        <v>5834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
         <v>1039</v>
       </c>
@@ -37705,8 +39129,11 @@
       <c r="F12" s="25" t="s">
         <v>5543</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="25" t="s">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
         <v>1041</v>
       </c>
@@ -37722,8 +39149,11 @@
       <c r="F13" s="25" t="s">
         <v>5545</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="25" t="s">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>1043</v>
       </c>
@@ -37734,7 +39164,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>1045</v>
       </c>
@@ -37745,7 +39175,7 @@
         <v>5142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
         <v>1047</v>
       </c>
@@ -37764,8 +39194,11 @@
       <c r="F16" s="25" t="s">
         <v>5544</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G16" s="25" t="s">
+        <v>5837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>1049</v>
       </c>
@@ -37776,7 +39209,7 @@
         <v>5143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>1051</v>
       </c>
@@ -37787,7 +39220,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>1053</v>
       </c>
@@ -37798,7 +39231,7 @@
         <v>5144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="s">
         <v>1055</v>
       </c>
@@ -37817,8 +39250,11 @@
       <c r="F20" s="25" t="s">
         <v>5546</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="25" t="s">
+        <v>5838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="31" t="s">
         <v>1057</v>
       </c>
@@ -37837,8 +39273,11 @@
       <c r="F21" s="25" t="s">
         <v>5547</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="25" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
         <v>1059</v>
       </c>
@@ -37857,8 +39296,11 @@
       <c r="F22" s="25" t="s">
         <v>5548</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="25" t="s">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
         <v>1061</v>
       </c>
@@ -37877,8 +39319,11 @@
       <c r="F23" s="25" t="s">
         <v>5549</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="25" t="s">
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
         <v>1063</v>
       </c>
@@ -37894,8 +39339,11 @@
       <c r="F24" s="25" t="s">
         <v>5550</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="25" t="s">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
         <v>1065</v>
       </c>
@@ -37911,8 +39359,11 @@
       <c r="F25" s="25" t="s">
         <v>5551</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G25" s="25" t="s">
+        <v>5843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>1067</v>
       </c>
@@ -37923,7 +39374,7 @@
         <v>5145</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>1069</v>
       </c>
@@ -37934,7 +39385,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>1071</v>
       </c>
@@ -37945,7 +39396,7 @@
         <v>4403</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>1073</v>
       </c>
@@ -37956,7 +39407,7 @@
         <v>5147</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>1075</v>
       </c>
@@ -37967,7 +39418,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="31" t="s">
         <v>1077</v>
       </c>
@@ -37986,8 +39437,11 @@
       <c r="F31" s="25" t="s">
         <v>5552</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="25" t="s">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>1079</v>
       </c>
@@ -37998,7 +39452,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>1081</v>
       </c>
@@ -38009,7 +39463,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>1083</v>
       </c>
@@ -38020,7 +39474,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>1085</v>
       </c>
@@ -38031,7 +39485,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>1087</v>
       </c>
@@ -38042,7 +39496,7 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="31" t="s">
         <v>1089</v>
       </c>
@@ -38058,8 +39512,11 @@
       <c r="F37" s="25" t="s">
         <v>5553</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="25" t="s">
+        <v>5861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>1091</v>
       </c>
@@ -38070,7 +39527,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>1093</v>
       </c>
@@ -38081,7 +39538,7 @@
         <v>5206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>1095</v>
       </c>
@@ -38092,7 +39549,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="31" t="s">
         <v>1097</v>
       </c>
@@ -38111,8 +39568,11 @@
       <c r="F41" s="25" t="s">
         <v>5554</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G41" s="25" t="s">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>1099</v>
       </c>
@@ -38123,7 +39583,7 @@
         <v>5153</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>1101</v>
       </c>
@@ -38134,7 +39594,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>1103</v>
       </c>
@@ -38145,7 +39605,7 @@
         <v>5155</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>1105</v>
       </c>
@@ -38156,7 +39616,7 @@
         <v>5156</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="31" t="s">
         <v>1107</v>
       </c>
@@ -38172,8 +39632,11 @@
       <c r="F46" s="25" t="s">
         <v>5555</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46" s="25" t="s">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="31" t="s">
         <v>1109</v>
       </c>
@@ -38189,8 +39652,11 @@
       <c r="F47" s="25" t="s">
         <v>5556</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G47" s="25" t="s">
+        <v>5847</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>1111</v>
       </c>
@@ -38201,7 +39667,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>1113</v>
       </c>
@@ -38212,7 +39678,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
         <v>1115</v>
       </c>
@@ -38231,8 +39697,11 @@
       <c r="F50" s="25" t="s">
         <v>5560</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50" s="25" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="31" t="s">
         <v>1117</v>
       </c>
@@ -38248,8 +39717,11 @@
       <c r="F51" s="25" t="s">
         <v>5561</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51" s="25" t="s">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="31" t="s">
         <v>1119</v>
       </c>
@@ -38265,8 +39737,11 @@
       <c r="F52" s="25" t="s">
         <v>5557</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G52" s="25" t="s">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>1121</v>
       </c>
@@ -38277,7 +39752,7 @@
         <v>5159</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>1123</v>
       </c>
@@ -38288,7 +39763,7 @@
         <v>5160</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>1125</v>
       </c>
@@ -38299,7 +39774,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1127</v>
       </c>
@@ -38310,7 +39785,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>1129</v>
       </c>
@@ -38321,7 +39796,7 @@
         <v>5162</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>1131</v>
       </c>
@@ -38332,7 +39807,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>1133</v>
       </c>
@@ -38343,7 +39818,7 @@
         <v>5164</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>1135</v>
       </c>
@@ -38354,7 +39829,7 @@
         <v>5165</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="31" t="s">
         <v>1137</v>
       </c>
@@ -38373,8 +39848,11 @@
       <c r="F61" s="25" t="s">
         <v>5558</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G61" s="25" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>1139</v>
       </c>
@@ -38385,7 +39863,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
         <v>1141</v>
       </c>
@@ -38401,8 +39879,11 @@
       <c r="F63" s="25" t="s">
         <v>5559</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G63" s="25" t="s">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>1143</v>
       </c>
@@ -38413,7 +39894,7 @@
         <v>5167</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>1145</v>
       </c>
@@ -38424,7 +39905,7 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>1147</v>
       </c>
@@ -38435,7 +39916,7 @@
         <v>5169</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="31" t="s">
         <v>1149</v>
       </c>
@@ -38451,8 +39932,11 @@
       <c r="F67" s="25" t="s">
         <v>5562</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67" s="25" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="31" t="s">
         <v>1151</v>
       </c>
@@ -38468,8 +39952,11 @@
       <c r="F68" s="25" t="s">
         <v>5563</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G68" s="25" t="s">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>1153</v>
       </c>
@@ -38480,7 +39967,7 @@
         <v>5170</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>1155</v>
       </c>
@@ -38491,7 +39978,7 @@
         <v>5171</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>1157</v>
       </c>
@@ -38502,7 +39989,7 @@
         <v>5172</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>1159</v>
       </c>
@@ -38513,7 +40000,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="31" t="s">
         <v>1161</v>
       </c>
@@ -38532,8 +40019,11 @@
       <c r="F73" s="25" t="s">
         <v>5564</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G73" s="25" t="s">
+        <v>5852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>1163</v>
       </c>
@@ -38544,7 +40034,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>1165</v>
       </c>
@@ -38555,7 +40045,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>1167</v>
       </c>
@@ -38566,7 +40056,7 @@
         <v>5177</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="31" t="s">
         <v>1169</v>
       </c>
@@ -38583,8 +40073,11 @@
       <c r="F77" s="25" t="s">
         <v>5565</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G77" s="25" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>1171</v>
       </c>
@@ -38595,7 +40088,7 @@
         <v>5178</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="31" t="s">
         <v>1173</v>
       </c>
@@ -38611,8 +40104,11 @@
       <c r="F79" s="25" t="s">
         <v>5566</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79" s="25" t="s">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="31" t="s">
         <v>1175</v>
       </c>
@@ -38628,8 +40124,11 @@
       <c r="F80" s="25" t="s">
         <v>5567</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80" s="25" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="31" t="s">
         <v>1177</v>
       </c>
@@ -38648,8 +40147,11 @@
       <c r="F81" s="25" t="s">
         <v>5568</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G81" s="25" t="s">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>1179</v>
       </c>
@@ -38660,7 +40162,7 @@
         <v>5179</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="31" t="s">
         <v>1181</v>
       </c>
@@ -38676,8 +40178,11 @@
       <c r="F83" s="25" t="s">
         <v>5569</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G83" s="25" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>1183</v>
       </c>
@@ -38688,7 +40193,7 @@
         <v>5180</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="31" t="s">
         <v>1185</v>
       </c>
@@ -38704,8 +40209,11 @@
       <c r="F85" s="25" t="s">
         <v>5570</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G85" s="25" t="s">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>1187</v>
       </c>
@@ -38716,7 +40224,7 @@
         <v>5181</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>1189</v>
       </c>
@@ -38727,7 +40235,7 @@
         <v>5182</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>1191</v>
       </c>
@@ -38738,7 +40246,7 @@
         <v>5183</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="31" t="s">
         <v>1193</v>
       </c>
@@ -38757,8 +40265,11 @@
       <c r="F89" s="25" t="s">
         <v>5571</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G89" s="25" t="s">
+        <v>5856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="31" t="s">
         <v>1195</v>
       </c>
@@ -38777,8 +40288,11 @@
       <c r="F90" s="25" t="s">
         <v>5572</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90" s="25" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="31" t="s">
         <v>1197</v>
       </c>
@@ -38794,8 +40308,11 @@
       <c r="F91" s="25" t="s">
         <v>5573</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G91" s="25" t="s">
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="31" t="s">
         <v>1199</v>
       </c>
@@ -38811,8 +40328,11 @@
       <c r="F92" s="25" t="s">
         <v>5574</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G92" s="25" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>1201</v>
       </c>
@@ -38823,7 +40343,7 @@
         <v>5214</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>1203</v>
       </c>
@@ -38834,7 +40354,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>1205</v>
       </c>
@@ -38845,7 +40365,7 @@
         <v>5185</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="31" t="s">
         <v>1207</v>
       </c>
@@ -38864,8 +40384,11 @@
       <c r="F96" s="25" t="s">
         <v>5575</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G96" s="25" t="s">
+        <v>5858</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>1209</v>
       </c>
@@ -38876,7 +40399,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>1211</v>
       </c>
@@ -38887,7 +40410,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>1213</v>
       </c>
@@ -38898,7 +40421,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>1215</v>
       </c>
@@ -38909,7 +40432,7 @@
         <v>5188</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="31" t="s">
         <v>1217</v>
       </c>
@@ -38925,8 +40448,11 @@
       <c r="F101" s="25" t="s">
         <v>5576</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G101" s="25" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="31" t="s">
         <v>1219</v>
       </c>
@@ -38945,8 +40471,11 @@
       <c r="F102" s="25" t="s">
         <v>5577</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="G102" s="25" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>1221</v>
       </c>
@@ -38973,21 +40502,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.9375" customWidth="1"/>
-    <col min="2" max="2" width="44.9375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="44.9375" customWidth="1"/>
+    <col min="3" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -38995,7 +40522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1223</v>
       </c>
@@ -39006,7 +40533,7 @@
         <v>5288</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1225</v>
       </c>
@@ -39017,7 +40544,7 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1227</v>
       </c>
@@ -39028,7 +40555,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1229</v>
       </c>
@@ -39039,7 +40566,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1231</v>
       </c>
@@ -39050,7 +40577,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1233</v>
       </c>
@@ -39061,7 +40588,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>1235</v>
       </c>
@@ -39072,7 +40599,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>1237</v>
       </c>
@@ -39083,7 +40610,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>1239</v>
       </c>
@@ -39094,7 +40621,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
         <v>1241</v>
       </c>
@@ -39110,8 +40637,11 @@
       <c r="E11" s="25" t="s">
         <v>5578</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11" s="25" t="s">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
         <v>1243</v>
       </c>
@@ -39127,8 +40657,11 @@
       <c r="E12" s="25" t="s">
         <v>5579</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="25" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -39139,7 +40672,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>1246</v>
       </c>
@@ -39150,7 +40683,7 @@
         <v>5294</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>1248</v>
       </c>
@@ -39161,7 +40694,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="30" t="s">
         <v>1250</v>
       </c>
@@ -39177,8 +40710,11 @@
       <c r="E16" s="25" t="s">
         <v>5580</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16" s="25" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="31" t="s">
         <v>1252</v>
       </c>
@@ -39194,8 +40730,11 @@
       <c r="E17" s="25" t="s">
         <v>5581</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F17" s="25" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
         <v>1254</v>
       </c>
@@ -39211,8 +40750,11 @@
       <c r="E18" s="25" t="s">
         <v>5582</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F18" s="25" t="s">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
         <v>1256</v>
       </c>
@@ -39228,8 +40770,11 @@
       <c r="E19" s="25" t="s">
         <v>5583</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F19" s="25" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>1258</v>
       </c>
@@ -39240,7 +40785,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>1260</v>
       </c>
@@ -39251,7 +40796,7 @@
         <v>5296</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
         <v>1262</v>
       </c>
@@ -39267,8 +40812,11 @@
       <c r="E22" s="25" t="s">
         <v>5584</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="25" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>1264</v>
       </c>
@@ -39279,7 +40827,7 @@
         <v>5297</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="30" t="s">
         <v>1266</v>
       </c>
@@ -39295,8 +40843,11 @@
       <c r="E24" s="25" t="s">
         <v>5585</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="25" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>1268</v>
       </c>
@@ -39307,7 +40858,7 @@
         <v>5298</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>1270</v>
       </c>
@@ -39318,7 +40869,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>1272</v>
       </c>
@@ -39329,7 +40880,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>1274</v>
       </c>
@@ -39340,7 +40891,7 @@
         <v>5113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>1276</v>
       </c>
@@ -39351,7 +40902,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>1278</v>
       </c>
@@ -39362,7 +40913,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>1280</v>
       </c>
@@ -39373,7 +40924,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>1282</v>
       </c>
@@ -39384,7 +40935,7 @@
         <v>5303</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
         <v>1284</v>
       </c>
@@ -39400,8 +40951,11 @@
       <c r="E33" s="25" t="s">
         <v>5586</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F33" s="25" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>1286</v>
       </c>
@@ -39412,7 +40966,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>1288</v>
       </c>
@@ -39420,7 +40974,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>1290</v>
       </c>
@@ -39431,7 +40985,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>1292</v>
       </c>
@@ -39442,7 +40996,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>1294</v>
       </c>
@@ -39453,7 +41007,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>1296</v>
       </c>
@@ -39464,7 +41018,7 @@
         <v>5356</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>1298</v>
       </c>
@@ -39475,7 +41029,7 @@
         <v>5308</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>1300</v>
       </c>
@@ -39486,7 +41040,7 @@
         <v>5309</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="30" t="s">
         <v>1302</v>
       </c>
@@ -39502,8 +41056,11 @@
       <c r="E42" s="25" t="s">
         <v>5587</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F42" s="25" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>1304</v>
       </c>
@@ -39514,7 +41071,7 @@
         <v>5310</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>1306</v>
       </c>
@@ -39525,7 +41082,7 @@
         <v>5311</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
         <v>1308</v>
       </c>
@@ -39541,8 +41098,11 @@
       <c r="E45" s="25" t="s">
         <v>5588</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45" s="25" t="s">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="30" t="s">
         <v>1310</v>
       </c>
@@ -39558,8 +41118,11 @@
       <c r="E46" s="25" t="s">
         <v>5589</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F46" s="25" t="s">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>1312</v>
       </c>
@@ -39570,7 +41133,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="30" t="s">
         <v>1314</v>
       </c>
@@ -39586,8 +41149,11 @@
       <c r="E48" s="25" t="s">
         <v>5590</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="25" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>1316</v>
       </c>
@@ -39598,7 +41164,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>1318</v>
       </c>
@@ -39609,7 +41175,7 @@
         <v>5313</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>1320</v>
       </c>
@@ -39620,7 +41186,7 @@
         <v>5314</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>1322</v>
       </c>
@@ -39631,7 +41197,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>1324</v>
       </c>
@@ -39642,7 +41208,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>1326</v>
       </c>
@@ -39653,7 +41219,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="31" t="s">
         <v>1328</v>
       </c>
@@ -39669,8 +41235,11 @@
       <c r="E55" s="25" t="s">
         <v>5591</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="25" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1330</v>
       </c>
@@ -39681,7 +41250,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>1332</v>
       </c>
@@ -39692,7 +41261,7 @@
         <v>5319</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="31" t="s">
         <v>1334</v>
       </c>
@@ -39708,8 +41277,11 @@
       <c r="E58" s="25" t="s">
         <v>5592</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58" s="25" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="31" t="s">
         <v>1336</v>
       </c>
@@ -39725,8 +41297,11 @@
       <c r="E59" s="25" t="s">
         <v>5593</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59" s="25" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="30" t="s">
         <v>1338</v>
       </c>
@@ -39742,8 +41317,11 @@
       <c r="E60" s="25" t="s">
         <v>5594</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F60" s="25" t="s">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>1340</v>
       </c>
@@ -39754,7 +41332,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
         <v>1342</v>
       </c>
@@ -39770,8 +41348,11 @@
       <c r="E62" s="25" t="s">
         <v>5595</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62" s="25" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="30" t="s">
         <v>1344</v>
       </c>
@@ -39787,8 +41368,11 @@
       <c r="E63" s="25" t="s">
         <v>5596</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63" s="25" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="31" t="s">
         <v>1346</v>
       </c>
@@ -39804,8 +41388,11 @@
       <c r="E64" s="25" t="s">
         <v>5597</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F64" s="25" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>1348</v>
       </c>
@@ -39816,7 +41403,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>1350</v>
       </c>
@@ -39827,7 +41414,7 @@
         <v>5322</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>1352</v>
       </c>
@@ -39838,7 +41425,7 @@
         <v>5323</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>1354</v>
       </c>
@@ -39846,7 +41433,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>1356</v>
       </c>
@@ -39857,7 +41444,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>1358</v>
       </c>
@@ -39868,7 +41455,7 @@
         <v>5325</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>1360</v>
       </c>
@@ -39879,7 +41466,7 @@
         <v>5326</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>1362</v>
       </c>
@@ -39890,7 +41477,7 @@
         <v>5327</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>1364</v>
       </c>
@@ -39901,7 +41488,7 @@
         <v>5328</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>1366</v>
       </c>
@@ -39912,7 +41499,7 @@
         <v>5329</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>1368</v>
       </c>
@@ -39923,7 +41510,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>1370</v>
       </c>
@@ -39934,7 +41521,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="30" t="s">
         <v>1372</v>
       </c>
@@ -39950,8 +41537,11 @@
       <c r="E77" s="25" t="s">
         <v>5598</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F77" s="25" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>1374</v>
       </c>
@@ -39962,7 +41552,7 @@
         <v>5332</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>1376</v>
       </c>
@@ -39973,7 +41563,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>1378</v>
       </c>
@@ -39984,7 +41574,7 @@
         <v>5334</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>1380</v>
       </c>
@@ -39995,7 +41585,7 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>1382</v>
       </c>
@@ -40006,7 +41596,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A83" s="31" t="s">
         <v>1384</v>
       </c>
@@ -40022,8 +41612,11 @@
       <c r="E83" s="25" t="s">
         <v>5599</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83" s="25" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="31" t="s">
         <v>1386</v>
       </c>
@@ -40039,8 +41632,11 @@
       <c r="E84" s="25" t="s">
         <v>5600</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="F84" s="25" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A85" s="31" t="s">
         <v>1388</v>
       </c>
@@ -40056,8 +41652,11 @@
       <c r="E85" s="25" t="s">
         <v>5601</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85" s="25" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="31" t="s">
         <v>1390</v>
       </c>
@@ -40073,8 +41672,11 @@
       <c r="E86" s="25" t="s">
         <v>5602</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F86" s="25" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>1392</v>
       </c>
@@ -40085,7 +41687,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>1394</v>
       </c>
@@ -40096,7 +41698,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>1396</v>
       </c>
@@ -40107,7 +41709,7 @@
         <v>4899</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>1398</v>
       </c>
@@ -40118,7 +41720,7 @@
         <v>5337</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>1400</v>
       </c>
@@ -40129,7 +41731,7 @@
         <v>5338</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>1402</v>
       </c>
@@ -40140,7 +41742,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>1404</v>
       </c>
@@ -40151,7 +41753,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="47.25" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A94" s="30" t="s">
         <v>1406</v>
       </c>
@@ -40167,8 +41769,11 @@
       <c r="E94" s="25" t="s">
         <v>5603</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F94" s="25" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>1408</v>
       </c>
@@ -40179,7 +41784,7 @@
         <v>5341</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>1410</v>
       </c>
@@ -40190,7 +41795,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>1412</v>
       </c>
@@ -40201,7 +41806,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="30" t="s">
         <v>1414</v>
       </c>
@@ -40217,8 +41822,11 @@
       <c r="E98" s="25" t="s">
         <v>5604</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="F98" s="25" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>1416</v>
       </c>
@@ -40229,7 +41837,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>1418</v>
       </c>
@@ -40240,7 +41848,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>1420</v>
       </c>
@@ -40251,7 +41859,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>1422</v>
       </c>
@@ -40278,20 +41886,21 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A76" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="58.875" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40299,7 +41908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1424</v>
       </c>
@@ -40313,7 +41922,7 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
         <v>1426</v>
       </c>
@@ -40324,8 +41933,11 @@
       <c r="D3" s="25" t="s">
         <v>5670</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="25" t="s">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>1428</v>
       </c>
@@ -40338,8 +41950,11 @@
       <c r="D4" s="25" t="s">
         <v>5646</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="25" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1430</v>
       </c>
@@ -40350,7 +41965,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="31" t="s">
         <v>1432</v>
       </c>
@@ -40363,8 +41978,11 @@
       <c r="D6" s="25" t="s">
         <v>5671</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="25" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1434</v>
       </c>
@@ -40375,7 +41993,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>1436</v>
       </c>
@@ -40386,7 +42004,7 @@
         <v>5609</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="30" t="s">
         <v>1438</v>
       </c>
@@ -40396,8 +42014,11 @@
       <c r="C9" s="25" t="s">
         <v>5610</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="25" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>1440</v>
       </c>
@@ -40408,7 +42029,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>1442</v>
       </c>
@@ -40419,15 +42040,18 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
         <v>1444</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="157.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="25" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>1446</v>
       </c>
@@ -40438,7 +42062,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>1448</v>
       </c>
@@ -40449,7 +42073,7 @@
         <v>5614</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="31" t="s">
         <v>1450</v>
       </c>
@@ -40462,8 +42086,11 @@
       <c r="D15" s="25" t="s">
         <v>5672</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="25" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="31" t="s">
         <v>1452</v>
       </c>
@@ -40473,8 +42100,11 @@
       <c r="D16" s="25" t="s">
         <v>5673</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="25" t="s">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="31" t="s">
         <v>1454</v>
       </c>
@@ -40487,16 +42117,22 @@
       <c r="D17" s="25" t="s">
         <v>5311</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="25" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>1456</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="25" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="31" t="s">
         <v>1458</v>
       </c>
@@ -40506,8 +42142,11 @@
       <c r="D19" s="25" t="s">
         <v>5674</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="25" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="s">
         <v>1460</v>
       </c>
@@ -40520,8 +42159,11 @@
       <c r="D20" s="25" t="s">
         <v>5675</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="110.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="25" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>1462</v>
       </c>
@@ -40532,7 +42174,7 @@
         <v>5618</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
         <v>1464</v>
       </c>
@@ -40542,8 +42184,11 @@
       <c r="D22" s="25" t="s">
         <v>5676</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="25" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>1466</v>
       </c>
@@ -40554,7 +42199,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="31" t="s">
         <v>1468</v>
       </c>
@@ -40564,8 +42209,11 @@
       <c r="D24" s="25" t="s">
         <v>5677</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="25" t="s">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
         <v>1470</v>
       </c>
@@ -40575,8 +42223,11 @@
       <c r="D25" s="25" t="s">
         <v>5678</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25" s="25" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>1472</v>
       </c>
@@ -40586,8 +42237,11 @@
       <c r="C26" s="25" t="s">
         <v>5620</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="25" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="31" t="s">
         <v>1474</v>
       </c>
@@ -40600,8 +42254,11 @@
       <c r="D27" s="25" t="s">
         <v>5679</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="25" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>1476</v>
       </c>
@@ -40612,7 +42269,7 @@
         <v>4955</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
         <v>1478</v>
       </c>
@@ -40622,8 +42279,11 @@
       <c r="D29" s="25" t="s">
         <v>5680</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="25" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
         <v>1480</v>
       </c>
@@ -40636,8 +42296,11 @@
       <c r="D30" s="25" t="s">
         <v>5681</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="25" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>1482</v>
       </c>
@@ -40648,7 +42311,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>1484</v>
       </c>
@@ -40659,7 +42322,7 @@
         <v>5624</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>1486</v>
       </c>
@@ -40670,7 +42333,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>1488</v>
       </c>
@@ -40681,7 +42344,7 @@
         <v>5625</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>1490</v>
       </c>
@@ -40692,7 +42355,7 @@
         <v>5626</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>1492</v>
       </c>
@@ -40703,15 +42366,18 @@
         <v>5151</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="30" t="s">
         <v>1494</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="25" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
         <v>1496</v>
       </c>
@@ -40721,8 +42387,11 @@
       <c r="D38" s="25" t="s">
         <v>5682</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="25" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>1498</v>
       </c>
@@ -40733,7 +42402,7 @@
         <v>5627</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="31" t="s">
         <v>1500</v>
       </c>
@@ -40746,8 +42415,11 @@
       <c r="D40" s="25" t="s">
         <v>5683</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="25" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>1502</v>
       </c>
@@ -40758,7 +42430,7 @@
         <v>5307</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>1504</v>
       </c>
@@ -40769,7 +42441,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>1506</v>
       </c>
@@ -40780,7 +42452,7 @@
         <v>5630</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>1508</v>
       </c>
@@ -40791,7 +42463,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
         <v>1510</v>
       </c>
@@ -40801,8 +42473,11 @@
       <c r="D45" s="25" t="s">
         <v>5684</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="25" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="31" t="s">
         <v>1512</v>
       </c>
@@ -40815,8 +42490,11 @@
       <c r="D46" s="25" t="s">
         <v>5685</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="25" t="s">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>1514</v>
       </c>
@@ -40827,7 +42505,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>1516</v>
       </c>
@@ -40838,7 +42516,7 @@
         <v>5634</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="31" t="s">
         <v>1518</v>
       </c>
@@ -40851,16 +42529,22 @@
       <c r="D49" s="25" t="s">
         <v>5686</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="E49" s="25" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A50" s="30" t="s">
         <v>1520</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E50" s="25" t="s">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>1522</v>
       </c>
@@ -40871,7 +42555,7 @@
         <v>5636</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>1524</v>
       </c>
@@ -40882,7 +42566,7 @@
         <v>5637</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>1526</v>
       </c>
@@ -40893,7 +42577,7 @@
         <v>5638</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="30" t="s">
         <v>1528</v>
       </c>
@@ -40903,8 +42587,11 @@
       <c r="C54" s="25" t="s">
         <v>4673</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E54" s="25" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>1530</v>
       </c>
@@ -40915,7 +42602,7 @@
         <v>5639</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="31" t="s">
         <v>1532</v>
       </c>
@@ -40928,8 +42615,11 @@
       <c r="D56" s="25" t="s">
         <v>5687</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E56" s="25" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>1534</v>
       </c>
@@ -40940,7 +42630,7 @@
         <v>5641</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>1536</v>
       </c>
@@ -40951,7 +42641,7 @@
         <v>5642</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="31" t="s">
         <v>1538</v>
       </c>
@@ -40961,8 +42651,11 @@
       <c r="D59" s="25" t="s">
         <v>5259</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="25" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>1540</v>
       </c>
@@ -40973,7 +42666,7 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="30" t="s">
         <v>1542</v>
       </c>
@@ -40983,8 +42676,11 @@
       <c r="D61" s="25" t="s">
         <v>5694</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E61" s="25" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
         <v>1544</v>
       </c>
@@ -40994,8 +42690,11 @@
       <c r="D62" s="25" t="s">
         <v>5688</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="25" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
         <v>1546</v>
       </c>
@@ -41008,16 +42707,22 @@
       <c r="D63" s="25" t="s">
         <v>5643</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E63" s="25" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="30" t="s">
         <v>1548</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E64" s="25" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="31" t="s">
         <v>1550</v>
       </c>
@@ -41027,8 +42732,11 @@
       <c r="D65" s="25" t="s">
         <v>5689</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="25" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>1552</v>
       </c>
@@ -41039,15 +42747,18 @@
         <v>5644</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="30" t="s">
         <v>1554</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="25" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>1556</v>
       </c>
@@ -41058,7 +42769,7 @@
         <v>5645</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="78.75" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>1558</v>
       </c>
@@ -41069,7 +42780,7 @@
         <v>5646</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>1560</v>
       </c>
@@ -41080,7 +42791,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>1562</v>
       </c>
@@ -41091,15 +42802,18 @@
         <v>5648</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="30" t="s">
         <v>1564</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E72" s="25" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>1566</v>
       </c>
@@ -41110,7 +42824,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>1568</v>
       </c>
@@ -41121,7 +42835,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>1570</v>
       </c>
@@ -41132,7 +42846,7 @@
         <v>5651</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="31" t="s">
         <v>1572</v>
       </c>
@@ -41142,8 +42856,11 @@
       <c r="D76" s="25" t="s">
         <v>5690</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="94.5" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E76" s="25" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>1574</v>
       </c>
@@ -41154,23 +42871,29 @@
         <v>5652</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="30" t="s">
         <v>1576</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E78" s="25" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="30" t="s">
         <v>1578</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="126" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E79" s="25" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>1580</v>
       </c>
@@ -41181,7 +42904,7 @@
         <v>5653</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>1582</v>
       </c>
@@ -41192,7 +42915,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="189" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>1584</v>
       </c>
@@ -41203,7 +42926,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="110.25" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34" t="s">
         <v>1586</v>
       </c>
@@ -41214,7 +42937,7 @@
         <v>5656</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>1588</v>
       </c>
@@ -41225,7 +42948,7 @@
         <v>5657</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>1590</v>
       </c>
@@ -41236,15 +42959,18 @@
         <v>5658</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="30" t="s">
         <v>1592</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E86" s="25" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>1594</v>
       </c>
@@ -41255,7 +42981,7 @@
         <v>5659</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="31" t="s">
         <v>1596</v>
       </c>
@@ -41268,8 +42994,11 @@
       <c r="D88" s="25" t="s">
         <v>5691</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E88" s="25" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>1598</v>
       </c>
@@ -41280,7 +43009,7 @@
         <v>5661</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>1600</v>
       </c>
@@ -41291,7 +43020,7 @@
         <v>5662</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="63" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>1602</v>
       </c>
@@ -41302,23 +43031,29 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="30" t="s">
         <v>1604</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E92" s="25" t="s">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="30" t="s">
         <v>1606</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E93" s="25" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>1608</v>
       </c>
@@ -41329,7 +43064,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>1610</v>
       </c>
@@ -41340,7 +43075,7 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>1612</v>
       </c>
@@ -41351,15 +43086,18 @@
         <v>5338</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="30" t="s">
         <v>1614</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="63" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E97" s="25" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>1616</v>
       </c>
@@ -41370,7 +43108,7 @@
         <v>5665</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>1618</v>
       </c>
@@ -41381,7 +43119,7 @@
         <v>5666</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="31" t="s">
         <v>1620</v>
       </c>
@@ -41394,8 +43132,11 @@
       <c r="D100" s="25" t="s">
         <v>5667</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E100" s="25" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="31" t="s">
         <v>1622</v>
       </c>
@@ -41405,8 +43146,11 @@
       <c r="D101" s="25" t="s">
         <v>5692</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="E101" s="25" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>1624</v>
       </c>
@@ -41417,7 +43161,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="35" t="s">
         <v>1626</v>
       </c>
@@ -41426,12 +43170,15 @@
       </c>
       <c r="D103" s="25" t="s">
         <v>5693</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>5942</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{4D99FFA6-EBF8-45B5-9ACB-5FE5A2FB6ADF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0" cellColor="0"/>
+      <colorFilter dxfId="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -41446,7 +43193,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B101"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2379B5-B3C1-4C1E-B7FB-793C0CB2D842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E55F72C-061C-4A06-BF70-6419EDCBF3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet10!$A$1:$C$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$102</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="5040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5276" uniqueCount="5110">
   <si>
     <t>单词</t>
   </si>
@@ -16182,6 +16183,286 @@
   </si>
   <si>
     <t>地下的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>j警示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一束光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天花板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比较的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥沃的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨折</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艰难的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传授</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可避免的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可抵抗的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴唇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻居</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外向的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先决条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>革命性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀少的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海绵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微妙的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲剧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独一无二的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易受伤害的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鲸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿沟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>症状</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小册子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有利条件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -16362,7 +16643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16465,12 +16746,23 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -18368,7 +18660,7 @@
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{8877E4EA-1C65-427B-856D-A0FBC6DD8473}">
     <filterColumn colId="0">
-      <colorFilter dxfId="8" cellColor="0"/>
+      <colorFilter dxfId="9" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -18380,15 +18672,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B102"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.1875" customWidth="1"/>
+    <col min="2" max="2" width="50.0625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18396,279 +18694,363 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1825</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1827</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1829</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>5041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1831</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="24" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1833</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="24" t="s">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="30" t="s">
         <v>1834</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>1836</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" s="24" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>1838</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="24" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="30" t="s">
         <v>1840</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C10" s="24" t="s">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>1842</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="24" t="s">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="30" t="s">
         <v>1844</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" s="24" t="s">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>1846</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" s="24" t="s">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>1848</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" s="24" t="s">
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>1850</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" s="24" t="s">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>1852</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="24" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>1854</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="24" t="s">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="30" t="s">
         <v>1856</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>1858</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" s="24" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>1860</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="24" t="s">
+        <v>4879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="30" t="s">
         <v>1862</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>1864</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="24" t="s">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="30" t="s">
         <v>1866</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>1868</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" s="24" t="s">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>1870</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" s="24" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>1872</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="24" t="s">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="30" t="s">
         <v>1874</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="30" t="s">
         <v>1876</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="30" t="s">
         <v>1878</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" s="24" t="s">
+        <v>5057</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>1880</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" s="24" t="s">
+        <v>5058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>1882</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="220.5" x14ac:dyDescent="0.4">
+      <c r="C31" s="24" t="s">
+        <v>5059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="47.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>1884</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" s="24" t="s">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>1886</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" s="24" t="s">
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>1888</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="24" t="s">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="30" t="s">
         <v>1890</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>1892</v>
       </c>
@@ -18676,87 +19058,114 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="30" t="s">
         <v>1894</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D37" s="24" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>1896</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="C38" t="s">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="30" t="s">
         <v>1898</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>1900</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40" s="24" t="s">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>1902</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" s="24" t="s">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>1904</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" s="24" t="s">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>1906</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" s="24" t="s">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>1908</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" s="24" t="s">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>1910</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="24" t="s">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="30" t="s">
         <v>1912</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D46" s="24" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>1912</v>
       </c>
@@ -18764,440 +19173,581 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>1915</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+      <c r="C48" s="24" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="30" t="s">
         <v>1917</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="30" t="s">
         <v>1919</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D50" s="24" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>1921</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51" s="24" t="s">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>1923</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" s="24" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>1925</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
+      <c r="C53" s="24" t="s">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="30" t="s">
         <v>1927</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>1929</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" s="24" t="s">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>1931</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="24" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="30" t="s">
         <v>1933</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1934</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>1935</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="24" t="s">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="30" t="s">
         <v>1937</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59" s="24" t="s">
+        <v>5074</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>1939</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C60" s="24" t="s">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>1941</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
+      <c r="C61" s="24" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="30" t="s">
         <v>1943</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D62" s="24" t="s">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>1945</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+      <c r="C63" s="24" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="30" t="s">
         <v>1947</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>1949</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" s="24" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>1951</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66" s="24" t="s">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>1953</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67" s="24" t="s">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>1955</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" s="24" t="s">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>1957</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" s="24" t="s">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>1959</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="94.5" x14ac:dyDescent="0.4">
+      <c r="C70" s="24" t="s">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>1961</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" s="24" t="s">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>1963</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72" s="24" t="s">
+        <v>5081</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>1965</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" s="24" t="s">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>1967</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" s="24" t="s">
+        <v>5083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>1969</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" s="24" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>1971</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="110.25" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="24" t="s">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="110.25" x14ac:dyDescent="0.4">
+      <c r="A77" s="30" t="s">
         <v>1973</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>1975</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="126" x14ac:dyDescent="0.4">
+      <c r="C78" s="24" t="s">
+        <v>5086</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>1977</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79" s="24" t="s">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>1979</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" s="24" t="s">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>1981</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" s="24" t="s">
+        <v>5088</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>1983</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" s="24" t="s">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>1985</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="24" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A84" s="30" t="s">
         <v>1987</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
+      <c r="D84" s="24" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="30" t="s">
         <v>1989</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="30" t="s">
         <v>1991</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="189" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" ht="31.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>1993</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" s="24" t="s">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>1995</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88" s="24" t="s">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>1997</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C89" s="24" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>1999</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
+      <c r="C90" s="24" t="s">
+        <v>5093</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="30" t="s">
         <v>2001</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D91" s="24" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>2003</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="24" t="s">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="30" t="s">
         <v>2005</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>2007</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C94" s="24" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>2009</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="173.25" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="24" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="173.25" x14ac:dyDescent="0.4">
+      <c r="A96" s="30" t="s">
         <v>2011</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>2013</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
+      <c r="C97" s="24" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="30" t="s">
         <v>2015</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C98" s="24" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>2017</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C99" s="24" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>2019</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C100" s="24" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>2021</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+      <c r="C101" s="24" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="34" t="s">
         <v>2023</v>
       </c>
       <c r="B102" t="s">
@@ -19205,9 +19755,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C102" xr:uid="{BBF5F73B-771F-47A0-9BA8-09CEC4341A26}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -28179,7 +28734,7 @@
   </sheetData>
   <autoFilter ref="C2:C104" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="7" cellColor="0"/>
+      <colorFilter dxfId="8" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31357,7 +31912,7 @@
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{EB0AAC0E-54E6-4BAF-85EA-EAB72902E7D8}">
     <filterColumn colId="0">
-      <colorFilter dxfId="6" cellColor="0"/>
+      <colorFilter dxfId="7" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32325,7 +32880,7 @@
   </sheetData>
   <autoFilter ref="A1:B102" xr:uid="{FC10310A-B1AA-4FE6-B9AA-93B13E1AE05E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="5" cellColor="0"/>
+      <colorFilter dxfId="6" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -33296,7 +33851,7 @@
   </sheetData>
   <autoFilter ref="A1:B104" xr:uid="{B972B4E9-6070-4B03-B736-003BB1CB9797}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34640,7 +35195,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{3CEA6DCD-6F19-45F4-A1AC-9A6529A1AAED}">
     <filterColumn colId="0">
-      <colorFilter dxfId="3"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -35889,7 +36444,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{92D45149-ED46-4D87-AACA-68C3C1E1FD5D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37093,7 +37648,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{4D99FFA6-EBF8-45B5-9ACB-5FE5A2FB6ADF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37108,8 +37663,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -37937,7 +38492,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="63" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A77" s="30" t="s">
         <v>1776</v>
       </c>
@@ -37956,7 +38511,7 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="110.25" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A79" s="30" t="s">
         <v>1780</v>
       </c>
@@ -38203,7 +38758,7 @@
   </sheetData>
   <autoFilter ref="A1:A101" xr:uid="{EF727F8F-0659-444A-BBCC-2B98A1D69067}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8798C346-CD2C-4C62-99BF-D0CF8ABFDE28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661CAEFA-EF7C-450C-BE44-465FB378392A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Sheet10!$A$1:$C$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet11!$A$2:$B$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet12!$A$1:$C$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$A$1:$C$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$102</definedName>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5399" uniqueCount="5230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5503" uniqueCount="5332">
   <si>
     <t>单词</t>
   </si>
@@ -16946,6 +16947,414 @@
   </si>
   <si>
     <t>chlorophyll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用碱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逮捕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归功于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉食动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充，赞美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细 的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰川的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中空的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗沿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学上的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时刻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题，突出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁轨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新聚集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常备的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勺子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨饿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徘徊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让渡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹拂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简短的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纤维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心头萦绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏远的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊的 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕，轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17237,7 +17646,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -19159,7 +19576,7 @@
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{8877E4EA-1C65-427B-856D-A0FBC6DD8473}">
     <filterColumn colId="0">
-      <colorFilter dxfId="11" cellColor="0"/>
+      <colorFilter dxfId="12" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19174,8 +19591,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -20256,7 +20673,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{BBF5F73B-771F-47A0-9BA8-09CEC4341A26}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -20743,7 +21160,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2131</v>
       </c>
@@ -20984,7 +21401,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>2183</v>
       </c>
@@ -21212,7 +21629,7 @@
   </sheetData>
   <autoFilter ref="A2:B105" xr:uid="{243E1F76-385C-43C8-B6E2-E4C9F2E60CCD}">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21227,8 +21644,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A43" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -22338,7 +22755,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{95BA6F22-B048-402F-980D-C45A4F12AB31}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -22350,15 +22767,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B103"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="A62" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22366,591 +22788,837 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2434</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2435</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="24" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
         <v>2436</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2437</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="24" t="s">
+        <v>5231</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2438</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2439</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="24" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2440</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2441</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+      <c r="C5" s="24" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2442</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="C6" s="24" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>2444</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="24" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
         <v>2446</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D8" s="24" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2448</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="228" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="24" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>2450</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2451</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="24" t="s">
+        <v>5237</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>2452</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2453</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" s="24" t="s">
+        <v>5238</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>2454</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2455</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" s="24" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2456</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2457</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="24" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
         <v>2458</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="24" t="s">
+        <v>5241</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
         <v>2460</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" s="24" t="s">
+        <v>5242</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>2462</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2463</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="24" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2464</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2465</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="24" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2466</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2467</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="24" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2468</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="24" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2470</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2471</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="24" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2472</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2473</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="24" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2474</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2475</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="C22" s="24" t="s">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2476</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2477</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="24" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
         <v>2478</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2479</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="24" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>2480</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2481</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="24" t="s">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2482</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2483</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="24" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2484</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2485</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="24" t="s">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="30" t="s">
         <v>2486</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2487</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D28" s="24" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>2488</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2489</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="C29" s="24" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="30" t="s">
         <v>2490</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2491</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="24" t="s">
+        <v>5256</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
         <v>2492</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>2493</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C31" s="24" t="s">
+        <v>5257</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2494</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2495</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="24" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2496</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2497</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="24" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>2498</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2499</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="24" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>2500</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="24" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2502</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2503</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="24" t="s">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="30" t="s">
         <v>2504</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="24" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="30" t="s">
         <v>2506</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2507</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="24" t="s">
+        <v>5263</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2508</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2509</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="24" t="s">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2510</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2511</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="24" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="30" t="s">
         <v>2512</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2513</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2514</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="24" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>2516</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C43" s="24" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>2518</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2519</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="24" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>2520</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2521</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="24" t="s">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2522</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2523</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="C46" s="24" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2524</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>2525</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="C47" s="24" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2526</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>2527</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="24" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2528</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2529</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="24" t="s">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2530</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2531</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="24" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2532</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2533</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="24" t="s">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2534</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2535</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" s="24" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>2536</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2537</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="24" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2538</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="171" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="C54" s="24" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+      <c r="A55" s="30" t="s">
         <v>2540</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>2541</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="24" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2542</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>2543</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="24" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2544</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2545</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="C57" s="24" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="30" t="s">
         <v>2546</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="24" t="s">
+        <v>5281</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="30" t="s">
         <v>2548</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="24" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
         <v>2550</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="24" t="s">
+        <v>5283</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>2552</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="C61" s="24" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="30" t="s">
         <v>2554</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="24" t="s">
+        <v>5248</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>2556</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" s="24" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2558</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>2559</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="24" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="30" t="s">
         <v>2560</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2561</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2562</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="24" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>2564</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="24" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="30" t="s">
         <v>2566</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D68" s="24" t="s">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2568</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" s="24" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2570</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="171" x14ac:dyDescent="0.15">
+      <c r="C70" s="24" t="s">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>2572</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" s="24" t="s">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>2574</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72" s="24" t="s">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>2576</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+      <c r="C73" s="24" t="s">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A74" s="30" t="s">
         <v>2578</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" s="24" t="s">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>2580</v>
       </c>
@@ -22958,234 +23626,305 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="156.75" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>2582</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C76" s="24" t="s">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>2584</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2585</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+      <c r="C77" s="24" t="s">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="30" t="s">
         <v>2586</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>2587</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>2588</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>2589</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" s="24" t="s">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>2590</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2591</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+      <c r="C80" s="24" t="s">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="30" t="s">
         <v>2592</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>2593</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" s="24" t="s">
+        <v>5299</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>2594</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="24" t="s">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>2596</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83" s="24" t="s">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>2598</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84" s="24" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>2600</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
+      <c r="C85" s="24" t="s">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="30" t="s">
         <v>2602</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="30" t="s">
         <v>2604</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>2606</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2607</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C88" s="24" t="s">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>2608</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2609</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" s="24" t="s">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>2610</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2611</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
+      <c r="C90" s="24" t="s">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="30" t="s">
         <v>2612</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2613</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="30" t="s">
         <v>2614</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2615</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>2616</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>2617</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93" s="24" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>2618</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>2619</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+      <c r="C94" s="24" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="30" t="s">
         <v>2620</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="114" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>2622</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96" s="24" t="s">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>2624</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97" s="24" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>2626</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" s="24" t="s">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>2628</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>2629</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C99" s="24" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>2630</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C100" s="24" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>2632</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>2633</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+      <c r="C101" s="24" t="s">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="30" t="s">
         <v>2634</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>2635</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>2636</v>
       </c>
       <c r="B103" t="s">
         <v>2637</v>
       </c>
+      <c r="C103" s="24" t="s">
+        <v>5315</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C103" xr:uid="{CE376EB1-BBB3-4D04-AC8A-8205A6BAAF49}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -29623,7 +30362,7 @@
   </sheetData>
   <autoFilter ref="C2:C104" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="10" cellColor="0"/>
+      <colorFilter dxfId="11" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32801,7 +33540,7 @@
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{EB0AAC0E-54E6-4BAF-85EA-EAB72902E7D8}">
     <filterColumn colId="0">
-      <colorFilter dxfId="9" cellColor="0"/>
+      <colorFilter dxfId="10" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -33769,7 +34508,7 @@
   </sheetData>
   <autoFilter ref="A1:B102" xr:uid="{FC10310A-B1AA-4FE6-B9AA-93B13E1AE05E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="8" cellColor="0"/>
+      <colorFilter dxfId="9" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34740,7 +35479,7 @@
   </sheetData>
   <autoFilter ref="A1:B104" xr:uid="{B972B4E9-6070-4B03-B736-003BB1CB9797}">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="8"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -36084,7 +36823,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{3CEA6DCD-6F19-45F4-A1AC-9A6529A1AAED}">
     <filterColumn colId="0">
-      <colorFilter dxfId="6"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37333,7 +38072,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{92D45149-ED46-4D87-AACA-68C3C1E1FD5D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="6"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -38537,7 +39276,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{4D99FFA6-EBF8-45B5-9ACB-5FE5A2FB6ADF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -39647,7 +40386,7 @@
   </sheetData>
   <autoFilter ref="A1:A101" xr:uid="{EF727F8F-0659-444A-BBCC-2B98A1D69067}">
     <filterColumn colId="0">
-      <colorFilter dxfId="3"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661CAEFA-EF7C-450C-BE44-465FB378392A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F39EED-E8EE-448D-BBCF-74C95BB54BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet11!$A$2:$B$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet12!$A$1:$C$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$A$1:$C$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet14!$A$1:$C$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$102</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5503" uniqueCount="5332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="5451">
   <si>
     <t>单词</t>
   </si>
@@ -16618,10 +16619,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猛兽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16650,10 +16647,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>拥挤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16854,10 +16847,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收费站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -16890,11 +16879,563 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食用碱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逮捕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归功于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线缆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉食动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗糙的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充，赞美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废墟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精细 的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰川的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中空的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌溉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗沿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文学上的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时刻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题，突出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁轨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新聚集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常备的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勺子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨饿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐慌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除非</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徘徊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让渡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹拂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简短的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纤维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心头萦绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏远的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">特殊的 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕，轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹拂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简明的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心弦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏暗的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纤维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萦绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不渗透的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中和的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏远的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲场所，诉诸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹豫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自发的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯田</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安静平静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海狸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>橱窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶绿素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绳子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>平衡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被免除</t>
+    <t>免除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -16902,139 +17443,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>冰雹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>托运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>橱柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>架子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产卵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chlorophyll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>食用碱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>逮捕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>归功于</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弯腰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信仰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线缆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉食动物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>细胞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗糙的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充，赞美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当代的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>废墟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>处置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坝</t>
+    <t>蜂房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迫切的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入，访问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗生素的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钩子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹嘘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗争</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纠正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压迫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -17042,135 +17519,243 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>排水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精细 的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠诚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洪水</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伽马</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰川的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘旋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中空的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理想的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感染</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灌溉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗沿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文学上的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记忆的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时刻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金字塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营养</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题，突出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擦亮</t>
+    <t>优雅的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平衡的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筋疲力竭的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>间断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房、</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诱惑力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多产的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反叛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改革</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可依赖的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尊敬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵律</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕塑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多愁善感的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下沉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浸泡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牲畜， 股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同情的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不相似的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种多样的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光彩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木匠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞质的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -17178,183 +17763,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>繁荣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁轨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新聚集</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常备的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>感觉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺激的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浸泡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勺子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挨饿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地铁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐慌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>容忍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轨迹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌龟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>除非</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>震动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>徘徊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>让渡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芭蕾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹拂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简短的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心弦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纤维</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大厅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>心头萦绕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏远的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">特殊的 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绕，轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自发的</t>
+    <t>腺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘟疫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄严的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起伏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱粒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>细枝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精力旺盛的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亏损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大规模的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -17646,7 +18123,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -19576,7 +20061,7 @@
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{8877E4EA-1C65-427B-856D-A0FBC6DD8473}">
     <filterColumn colId="0">
-      <colorFilter dxfId="12" cellColor="0"/>
+      <colorFilter dxfId="13" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19591,7 +20076,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -20673,7 +21158,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{BBF5F73B-771F-47A0-9BA8-09CEC4341A26}">
     <filterColumn colId="0">
-      <colorFilter dxfId="3"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21629,7 +22114,7 @@
   </sheetData>
   <autoFilter ref="A2:B105" xr:uid="{243E1F76-385C-43C8-B6E2-E4C9F2E60CCD}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21644,14 +22129,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A29" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="2" max="2" width="55.5" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21748,7 +22233,7 @@
         <v>2246</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>5147</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21759,7 +22244,7 @@
         <v>2248</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>5148</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21770,7 +22255,7 @@
         <v>2250</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
@@ -21780,9 +22265,10 @@
       <c r="B12" s="3" t="s">
         <v>2252</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>5223</v>
-      </c>
+      <c r="C12" s="24" t="s">
+        <v>5346</v>
+      </c>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -21792,7 +22278,7 @@
         <v>2254</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21803,15 +22289,18 @@
         <v>2256</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="31" t="s">
-        <v>5229</v>
+        <v>5213</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2257</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>5347</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -21822,7 +22311,7 @@
         <v>2259</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21833,7 +22322,7 @@
         <v>2261</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>5153</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21844,7 +22333,7 @@
         <v>2263</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>5154</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -21855,11 +22344,9 @@
         <v>2265</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>5155</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>5224</v>
-      </c>
+        <v>5348</v>
+      </c>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
@@ -21868,6 +22355,9 @@
       <c r="B20" s="2" t="s">
         <v>2267</v>
       </c>
+      <c r="C20" s="24" t="s">
+        <v>5349</v>
+      </c>
     </row>
     <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -21877,7 +22367,7 @@
         <v>2269</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21888,7 +22378,7 @@
         <v>2271</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21899,7 +22389,7 @@
         <v>2273</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21910,7 +22400,7 @@
         <v>2275</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21921,7 +22411,7 @@
         <v>2277</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21932,7 +22422,7 @@
         <v>2279</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>5213</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -21943,7 +22433,7 @@
         <v>2281</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21954,7 +22444,7 @@
         <v>2283</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>5214</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -21965,7 +22455,7 @@
         <v>2285</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>5215</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -21976,7 +22466,7 @@
         <v>2287</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>5216</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -21987,7 +22477,7 @@
         <v>2289</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>5217</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -21998,7 +22488,7 @@
         <v>2291</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22009,7 +22499,7 @@
         <v>2293</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>5218</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22020,7 +22510,7 @@
         <v>2295</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22031,7 +22521,7 @@
         <v>2297</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22042,7 +22532,7 @@
         <v>2299</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
@@ -22053,7 +22543,7 @@
         <v>2301</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>5219</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -22063,9 +22553,7 @@
       <c r="B38" s="2" t="s">
         <v>2303</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>5220</v>
-      </c>
+      <c r="C38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="30" t="s">
@@ -22074,6 +22562,9 @@
       <c r="B39" s="2" t="s">
         <v>2305</v>
       </c>
+      <c r="C39" s="24" t="s">
+        <v>5354</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="30" t="s">
@@ -22090,6 +22581,9 @@
       <c r="B41" s="2" t="s">
         <v>2309</v>
       </c>
+      <c r="C41" s="24" t="s">
+        <v>5355</v>
+      </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -22099,7 +22593,7 @@
         <v>2311</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -22109,9 +22603,7 @@
       <c r="B43" s="2" t="s">
         <v>2313</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>5225</v>
-      </c>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
@@ -22121,7 +22613,7 @@
         <v>2315</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -22140,7 +22632,7 @@
         <v>2319</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22151,7 +22643,7 @@
         <v>2321</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -22178,7 +22670,7 @@
         <v>2327</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22189,7 +22681,7 @@
         <v>2329</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -22208,7 +22700,7 @@
         <v>2333</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22219,7 +22711,7 @@
         <v>2335</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22230,7 +22722,7 @@
         <v>2337</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22241,7 +22733,7 @@
         <v>2339</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22252,7 +22744,7 @@
         <v>2341</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22263,7 +22755,7 @@
         <v>2343</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22274,7 +22766,7 @@
         <v>2345</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22285,7 +22777,7 @@
         <v>2347</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22296,7 +22788,7 @@
         <v>2349</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
@@ -22306,9 +22798,7 @@
       <c r="B62" s="3" t="s">
         <v>2351</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>5221</v>
-      </c>
+      <c r="C62" s="24"/>
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
@@ -22318,7 +22808,7 @@
         <v>2353</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22329,7 +22819,7 @@
         <v>2355</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22340,7 +22830,7 @@
         <v>2357</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22351,7 +22841,7 @@
         <v>2359</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -22370,7 +22860,7 @@
         <v>2363</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22381,7 +22871,7 @@
         <v>2365</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22392,7 +22882,7 @@
         <v>2367</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -22402,9 +22892,7 @@
       <c r="B71" s="2" t="s">
         <v>2369</v>
       </c>
-      <c r="C71" s="24" t="s">
-        <v>5222</v>
-      </c>
+      <c r="C71" s="24"/>
     </row>
     <row r="72" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
@@ -22414,7 +22902,7 @@
         <v>2371</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22425,7 +22913,7 @@
         <v>2373</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22436,7 +22924,7 @@
         <v>2375</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -22455,7 +22943,7 @@
         <v>2379</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22466,7 +22954,7 @@
         <v>2381</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22477,7 +22965,7 @@
         <v>2383</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22488,7 +22976,7 @@
         <v>2385</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
@@ -22498,9 +22986,7 @@
       <c r="B80" s="3" t="s">
         <v>2387</v>
       </c>
-      <c r="D80" s="24" t="s">
-        <v>5226</v>
-      </c>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
@@ -22510,7 +22996,7 @@
         <v>2389</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22521,7 +23007,7 @@
         <v>2391</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
@@ -22531,9 +23017,7 @@
       <c r="B83" s="3" t="s">
         <v>2393</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>5227</v>
-      </c>
+      <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -22543,7 +23027,7 @@
         <v>2395</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22554,7 +23038,7 @@
         <v>2397</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22565,7 +23049,7 @@
         <v>2399</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22576,7 +23060,7 @@
         <v>2401</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -22595,7 +23079,7 @@
         <v>2405</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22606,7 +23090,7 @@
         <v>2407</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22617,7 +23101,7 @@
         <v>2409</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22628,7 +23112,7 @@
         <v>2411</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22639,7 +23123,7 @@
         <v>2413</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
@@ -22650,7 +23134,7 @@
         <v>2415</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
@@ -22660,12 +23144,8 @@
       <c r="B95" s="2" t="s">
         <v>2417</v>
       </c>
-      <c r="C95" s="24" t="s">
-        <v>5206</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>5228</v>
-      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
     </row>
     <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
@@ -22683,7 +23163,7 @@
         <v>2421</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>5207</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22694,7 +23174,7 @@
         <v>2423</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>5208</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -22705,7 +23185,7 @@
         <v>2425</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>5209</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22716,7 +23196,7 @@
         <v>2427</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>5210</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22727,7 +23207,7 @@
         <v>2429</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>5211</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
@@ -22738,7 +23218,7 @@
         <v>2431</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>5212</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -22748,19 +23228,17 @@
       <c r="B103" t="s">
         <v>2433</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>5136</v>
-      </c>
+      <c r="C103" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{95BA6F22-B048-402F-980D-C45A4F12AB31}">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -22768,19 +23246,21 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A31" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
+    <col min="2" max="2" width="33.25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22788,7 +23268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2434</v>
       </c>
@@ -22796,10 +23276,10 @@
         <v>2435</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>5230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>2436</v>
       </c>
@@ -22807,13 +23287,16 @@
         <v>2437</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>5231</v>
+        <v>5215</v>
       </c>
       <c r="D3" s="24" t="s">
+        <v>5300</v>
+      </c>
+      <c r="E3" s="24" t="s">
         <v>5316</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2438</v>
       </c>
@@ -22821,10 +23304,10 @@
         <v>2439</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>5232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2440</v>
       </c>
@@ -22832,10 +23315,10 @@
         <v>2441</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>5233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2442</v>
       </c>
@@ -22843,10 +23326,10 @@
         <v>2443</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>5234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>2444</v>
       </c>
@@ -22854,10 +23337,10 @@
         <v>2445</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>5235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>2446</v>
       </c>
@@ -22865,10 +23348,13 @@
         <v>2447</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>5301</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>5317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2448</v>
       </c>
@@ -22876,10 +23362,10 @@
         <v>2449</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>5236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>2450</v>
       </c>
@@ -22887,13 +23373,16 @@
         <v>2451</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>5237</v>
+        <v>5221</v>
       </c>
       <c r="D10" s="24" t="s">
+        <v>5302</v>
+      </c>
+      <c r="E10" s="24" t="s">
         <v>5318</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>2452</v>
       </c>
@@ -22901,13 +23390,16 @@
         <v>2453</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>5238</v>
+        <v>5222</v>
       </c>
       <c r="D11" s="24" t="s">
+        <v>5303</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>5319</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>2454</v>
       </c>
@@ -22915,10 +23407,10 @@
         <v>2455</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>5239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2456</v>
       </c>
@@ -22926,10 +23418,10 @@
         <v>2457</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>5240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>2458</v>
       </c>
@@ -22937,13 +23429,16 @@
         <v>2459</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>5241</v>
+        <v>5225</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>5304</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>5320</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
         <v>2460</v>
       </c>
@@ -22951,13 +23446,16 @@
         <v>2461</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>5242</v>
+        <v>5226</v>
       </c>
       <c r="D15" s="24" t="s">
+        <v>5305</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>5321</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>2462</v>
       </c>
@@ -22965,10 +23463,10 @@
         <v>2463</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>5243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2464</v>
       </c>
@@ -22976,10 +23474,10 @@
         <v>2465</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>5244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2466</v>
       </c>
@@ -22987,10 +23485,10 @@
         <v>2467</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>5245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2468</v>
       </c>
@@ -22998,10 +23496,10 @@
         <v>2469</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>5246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2470</v>
       </c>
@@ -23009,10 +23507,10 @@
         <v>2471</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>5247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2472</v>
       </c>
@@ -23020,10 +23518,10 @@
         <v>2473</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>5248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2474</v>
       </c>
@@ -23031,10 +23529,10 @@
         <v>2475</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>5249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2476</v>
       </c>
@@ -23042,10 +23540,10 @@
         <v>2477</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
         <v>2478</v>
       </c>
@@ -23053,10 +23551,13 @@
         <v>2479</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>5251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5235</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>2480</v>
       </c>
@@ -23064,10 +23565,10 @@
         <v>2481</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>5252</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2482</v>
       </c>
@@ -23075,10 +23576,10 @@
         <v>2483</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>5253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2484</v>
       </c>
@@ -23086,10 +23587,10 @@
         <v>2485</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>5254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="30" t="s">
         <v>2486</v>
       </c>
@@ -23097,10 +23598,13 @@
         <v>2487</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>5322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5306</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>2488</v>
       </c>
@@ -23108,10 +23612,10 @@
         <v>2489</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>5255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="30" t="s">
         <v>2490</v>
       </c>
@@ -23119,13 +23623,16 @@
         <v>2491</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>5256</v>
+        <v>5240</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>5323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>5307</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
         <v>2492</v>
       </c>
@@ -23133,13 +23640,16 @@
         <v>2493</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>5257</v>
+        <v>5241</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>5324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5308</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2494</v>
       </c>
@@ -23147,10 +23657,10 @@
         <v>2495</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>5258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2496</v>
       </c>
@@ -23158,10 +23668,10 @@
         <v>2497</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>5259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>2498</v>
       </c>
@@ -23169,10 +23679,10 @@
         <v>2499</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>5260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>2500</v>
       </c>
@@ -23180,10 +23690,10 @@
         <v>2501</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>5261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2502</v>
       </c>
@@ -23191,10 +23701,10 @@
         <v>2503</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>5262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="30" t="s">
         <v>2504</v>
       </c>
@@ -23202,10 +23712,13 @@
         <v>2505</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>5325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5309</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="30" t="s">
         <v>2506</v>
       </c>
@@ -23213,13 +23726,16 @@
         <v>2507</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>5263</v>
+        <v>5247</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>5326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5310</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2508</v>
       </c>
@@ -23227,10 +23743,10 @@
         <v>2509</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>5264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2510</v>
       </c>
@@ -23238,18 +23754,21 @@
         <v>2511</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>5265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>2512</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2513</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="24" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2514</v>
       </c>
@@ -23257,10 +23776,10 @@
         <v>2515</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>5266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>2516</v>
       </c>
@@ -23268,10 +23787,10 @@
         <v>2517</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>5267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>2518</v>
       </c>
@@ -23279,10 +23798,10 @@
         <v>2519</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>5268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>2520</v>
       </c>
@@ -23290,10 +23809,10 @@
         <v>2521</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>5269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2522</v>
       </c>
@@ -23301,10 +23820,10 @@
         <v>2523</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>5270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2524</v>
       </c>
@@ -23312,10 +23831,10 @@
         <v>2525</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>5271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2526</v>
       </c>
@@ -23323,10 +23842,10 @@
         <v>2527</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>5272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2528</v>
       </c>
@@ -23334,10 +23853,10 @@
         <v>2529</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>5273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2530</v>
       </c>
@@ -23345,10 +23864,10 @@
         <v>2531</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>5274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2532</v>
       </c>
@@ -23356,10 +23875,10 @@
         <v>2533</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>5275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2534</v>
       </c>
@@ -23367,10 +23886,10 @@
         <v>2535</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>5276</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>2536</v>
       </c>
@@ -23378,10 +23897,10 @@
         <v>2537</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>5277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2538</v>
       </c>
@@ -23389,10 +23908,10 @@
         <v>2539</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>5278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
         <v>2540</v>
       </c>
@@ -23400,10 +23919,13 @@
         <v>2541</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>5279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5263</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2542</v>
       </c>
@@ -23411,10 +23933,10 @@
         <v>2543</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>5279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2544</v>
       </c>
@@ -23422,10 +23944,10 @@
         <v>2545</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="30" t="s">
         <v>2546</v>
       </c>
@@ -23433,13 +23955,16 @@
         <v>2547</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>5281</v>
+        <v>5265</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>5327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5311</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
         <v>2548</v>
       </c>
@@ -23447,10 +23972,13 @@
         <v>2549</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>5282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5266</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>2550</v>
       </c>
@@ -23458,13 +23986,16 @@
         <v>2551</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>5283</v>
+        <v>5267</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>5328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5312</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>2552</v>
       </c>
@@ -23472,10 +24003,10 @@
         <v>2553</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>5284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="30" t="s">
         <v>2554</v>
       </c>
@@ -23483,13 +24014,16 @@
         <v>2555</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>5248</v>
+        <v>5232</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>5329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5313</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>2556</v>
       </c>
@@ -23497,10 +24031,10 @@
         <v>2557</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>5285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2558</v>
       </c>
@@ -23508,18 +24042,21 @@
         <v>2559</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>5286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="30" t="s">
         <v>2560</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E65" s="24" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2562</v>
       </c>
@@ -23527,10 +24064,10 @@
         <v>2563</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>5287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>2564</v>
       </c>
@@ -23538,10 +24075,10 @@
         <v>2565</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>5288</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
         <v>2566</v>
       </c>
@@ -23549,10 +24086,13 @@
         <v>2567</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>5330</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5314</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2568</v>
       </c>
@@ -23560,10 +24100,10 @@
         <v>2569</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>5289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2570</v>
       </c>
@@ -23571,10 +24111,10 @@
         <v>2571</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>5290</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.15">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>2572</v>
       </c>
@@ -23582,10 +24122,10 @@
         <v>2573</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>5291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>2574</v>
       </c>
@@ -23593,10 +24133,10 @@
         <v>2575</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>5292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>2576</v>
       </c>
@@ -23604,10 +24144,10 @@
         <v>2577</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>5293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="30" t="s">
         <v>2578</v>
       </c>
@@ -23615,10 +24155,13 @@
         <v>2579</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5278</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>2580</v>
       </c>
@@ -23626,7 +24169,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>2582</v>
       </c>
@@ -23634,10 +24177,10 @@
         <v>2583</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>5295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>2584</v>
       </c>
@@ -23645,18 +24188,21 @@
         <v>2585</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>5296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
         <v>2586</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E78" s="24" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>2588</v>
       </c>
@@ -23664,10 +24210,10 @@
         <v>2589</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>5297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>2590</v>
       </c>
@@ -23675,10 +24221,10 @@
         <v>2591</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>5298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="30" t="s">
         <v>2592</v>
       </c>
@@ -23686,13 +24232,16 @@
         <v>2593</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>5299</v>
+        <v>5283</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>5331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5315</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>2594</v>
       </c>
@@ -23700,10 +24249,10 @@
         <v>2595</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>2596</v>
       </c>
@@ -23711,10 +24260,10 @@
         <v>2597</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>5303</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>2598</v>
       </c>
@@ -23722,10 +24271,10 @@
         <v>2599</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>5301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>2600</v>
       </c>
@@ -23733,26 +24282,32 @@
         <v>2601</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>5302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="30" t="s">
         <v>2602</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>2603</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E86" s="24" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="30" t="s">
         <v>2604</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>2605</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E87" s="24" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>2606</v>
       </c>
@@ -23760,10 +24315,10 @@
         <v>2607</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>5304</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>2608</v>
       </c>
@@ -23771,10 +24326,10 @@
         <v>2609</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>5305</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>2610</v>
       </c>
@@ -23782,26 +24337,32 @@
         <v>2611</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>5306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
         <v>2612</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2613</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E91" s="24" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="30" t="s">
         <v>2614</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E92" s="24" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>2616</v>
       </c>
@@ -23809,10 +24370,10 @@
         <v>2617</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>5307</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>2618</v>
       </c>
@@ -23820,18 +24381,21 @@
         <v>2619</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>5308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="30" t="s">
         <v>2620</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E95" s="24" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>2622</v>
       </c>
@@ -23839,10 +24403,10 @@
         <v>2623</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>5309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>2624</v>
       </c>
@@ -23850,10 +24414,10 @@
         <v>2625</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>5310</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>2626</v>
       </c>
@@ -23861,10 +24425,10 @@
         <v>2627</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>5311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>2628</v>
       </c>
@@ -23872,10 +24436,10 @@
         <v>2629</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>5312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>2630</v>
       </c>
@@ -23883,10 +24447,10 @@
         <v>2631</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>5313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>2632</v>
       </c>
@@ -23894,18 +24458,21 @@
         <v>2633</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>5314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="30" t="s">
         <v>2634</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>2635</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E102" s="24" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>2636</v>
       </c>
@@ -23913,13 +24480,13 @@
         <v>2637</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>5315</v>
+        <v>5299</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{CE376EB1-BBB3-4D04-AC8A-8205A6BAAF49}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23931,15 +24498,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B103"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23947,111 +24519,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2638</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2639</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="24" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2640</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="24" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
         <v>2642</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="24" t="s">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2644</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="24" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
         <v>2646</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2647</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
         <v>2648</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2649</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>2650</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2651</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="24" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2652</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2653</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" s="24" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>2654</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2655</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="24" t="s">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>2656</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2657</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" s="24" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>2658</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2659</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="24" t="s">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
         <v>2660</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="24" t="s">
+        <v>5426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
         <v>2662</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2663</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" s="24" t="s">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>2664</v>
       </c>
@@ -24059,714 +24664,974 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>2666</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2667</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="24" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2668</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2669</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="24" t="s">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2670</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="156.75" x14ac:dyDescent="0.15">
+      <c r="C18" s="24" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2672</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="24" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2674</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2675</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="24" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
         <v>2676</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2677</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="24" t="s">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2678</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="C22" s="24" t="s">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2680</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>2681</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="24" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
         <v>2682</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2683</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>2684</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2685</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="24" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
         <v>2686</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C26" s="24" t="s">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2688</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="24" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="30" t="s">
         <v>2690</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2691</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="24" t="s">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>2692</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2693</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="24" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>2694</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="24" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
         <v>2696</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C31" s="24" t="s">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2698</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="C32" s="24" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="30" t="s">
         <v>2700</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="24" t="s">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>2702</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2703</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="24" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>2704</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2705</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
+      <c r="C35" s="24" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
         <v>2706</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2707</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="24" t="s">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="30" t="s">
         <v>2708</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2709</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="24" t="s">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="30" t="s">
         <v>2710</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2711</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="24" t="s">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2712</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2713</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="24" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2714</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2715</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+      <c r="C40" s="24" t="s">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2716</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>2717</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="24" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2718</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2719</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="24" t="s">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>2720</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="C43" s="24" t="s">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="30" t="s">
         <v>2722</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2723</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C44" s="24" t="s">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>2724</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2725</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="24" t="s">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2726</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2727</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="24" t="s">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2728</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C47" s="24" t="s">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2730</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>2731</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="24" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2732</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2733</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="24" t="s">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2734</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2735</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="24" t="s">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2736</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2737</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="24" t="s">
+        <v>5389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2738</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2739</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="24" t="s">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
         <v>2740</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2741</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="24" t="s">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2742</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>2743</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="114" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
+      <c r="C54" s="24" t="s">
+        <v>5391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="114" x14ac:dyDescent="0.15">
+      <c r="A55" s="30" t="s">
         <v>2744</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>2745</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2746</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>2747</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="24" t="s">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2748</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2749</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="24" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2750</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2751</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="24" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2752</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2753</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="C59" s="24" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="30" t="s">
         <v>2754</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2755</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="C60" s="24" t="s">
+        <v>5438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="30" t="s">
         <v>2756</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="C61" s="24" t="s">
+        <v>5393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="30" t="s">
         <v>2758</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2759</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="C62" s="24" t="s">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="30" t="s">
         <v>2760</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2761</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="C63" s="24" t="s">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2762</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>2763</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="24" t="s">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="30" t="s">
         <v>2764</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2765</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" s="24" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2766</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>2767</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="24" t="s">
+        <v>5398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>2768</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2769</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" s="24" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2770</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>2771</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68" s="24" t="s">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2772</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2773</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" s="24" t="s">
+        <v>5401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2774</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2775</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="C70" s="24" t="s">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>2776</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>2777</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" s="24" t="s">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>2778</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2779</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="24" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="30" t="s">
         <v>2780</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>2781</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73" s="24" t="s">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>2782</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>2783</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C74" s="24" t="s">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>2784</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>2785</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="24" t="s">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="30" t="s">
         <v>2786</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>2787</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>2788</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2789</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" s="24" t="s">
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>2790</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>2791</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" s="24" t="s">
+        <v>5408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>2792</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>2793</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C79" s="24" t="s">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>2794</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2795</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="C80" s="24" t="s">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>2796</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>2797</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" s="24" t="s">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>2798</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>2799</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="24" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>2800</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>2801</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C83" s="24" t="s">
+        <v>5413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>2802</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>2803</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
+      <c r="C84" s="24" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="30" t="s">
         <v>2804</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>2805</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="114" x14ac:dyDescent="0.15">
+      <c r="C85" s="24" t="s">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>2806</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>2807</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="24" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="30" t="s">
         <v>2808</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>2809</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C87" s="24" t="s">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>2810</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>2811</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+      <c r="C88" s="24" t="s">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
         <v>2812</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>2813</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" s="24" t="s">
+        <v>5444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>2814</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2815</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C90" s="24" t="s">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>2816</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>2817</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C91" s="24" t="s">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>2818</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="24" t="s">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="30" t="s">
         <v>2820</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>2821</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C93" s="24" t="s">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>2822</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>2823</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94" s="24" t="s">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>2824</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>2825</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C95" s="24" t="s">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>2826</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>2827</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
+      <c r="C96" s="24" t="s">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="30" t="s">
         <v>2828</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2829</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C97" s="24" t="s">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>2830</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" s="24" t="s">
+        <v>5423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>2832</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>2833</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
+      <c r="C99" s="24" t="s">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="30" t="s">
         <v>2834</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
+      <c r="C100" s="24" t="s">
+        <v>5447</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="30" t="s">
         <v>2836</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>2837</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+      <c r="C101" s="24" t="s">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A102" s="30" t="s">
         <v>2838</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>2839</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="C102" s="24" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="34" t="s">
         <v>2840</v>
       </c>
       <c r="B103" t="s">
         <v>2841</v>
       </c>
+      <c r="C103" s="24" t="s">
+        <v>5450</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C103" xr:uid="{D0D8031A-A48B-4FC2-A777-8C59AF90745D}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -30362,7 +31227,7 @@
   </sheetData>
   <autoFilter ref="C2:C104" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="11" cellColor="0"/>
+      <colorFilter dxfId="12" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -33540,7 +34405,7 @@
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{EB0AAC0E-54E6-4BAF-85EA-EAB72902E7D8}">
     <filterColumn colId="0">
-      <colorFilter dxfId="10" cellColor="0"/>
+      <colorFilter dxfId="11" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -34508,7 +35373,7 @@
   </sheetData>
   <autoFilter ref="A1:B102" xr:uid="{FC10310A-B1AA-4FE6-B9AA-93B13E1AE05E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="9" cellColor="0"/>
+      <colorFilter dxfId="10" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -35479,7 +36344,7 @@
   </sheetData>
   <autoFilter ref="A1:B104" xr:uid="{B972B4E9-6070-4B03-B736-003BB1CB9797}">
     <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
+      <colorFilter dxfId="9"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -36823,7 +37688,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{3CEA6DCD-6F19-45F4-A1AC-9A6529A1AAED}">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="8"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -38072,7 +38937,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{92D45149-ED46-4D87-AACA-68C3C1E1FD5D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="6"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -39276,7 +40141,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{4D99FFA6-EBF8-45B5-9ACB-5FE5A2FB6ADF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="6"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -40386,7 +41251,7 @@
   </sheetData>
   <autoFilter ref="A1:A101" xr:uid="{EF727F8F-0659-444A-BBCC-2B98A1D69067}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F39EED-E8EE-448D-BBCF-74C95BB54BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA60044-4BCA-4661-A3B1-940E2153B101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18574,7 +18574,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -24501,7 +24501,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="220" zoomScaleNormal="220" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -25090,7 +25090,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="114" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
         <v>2744</v>
       </c>
@@ -29819,8 +29819,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -33031,7 +33031,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
@@ -35388,7 +35388,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
@@ -36359,8 +36359,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -37703,8 +37703,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A62" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -38952,8 +38952,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A62" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -40156,8 +40156,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA60044-4BCA-4661-A3B1-940E2153B101}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFAD78-E95D-40EC-BBD3-B372062673D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5622" uniqueCount="5451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="5596">
   <si>
     <t>单词</t>
   </si>
@@ -17832,6 +17832,586 @@
   </si>
   <si>
     <t>年轻人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激性的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思乡的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食腐动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共设施</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪婪的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厌恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇聚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母系的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气象学家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔藓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绳子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视转播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨损</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翘起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美学的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两栖动物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忧郁的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固执的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草坪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先决条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖战壕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲倦的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头颅的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保守的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表述的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渴望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主旨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气味</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>画图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生锈的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木筏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天飞机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈腐守旧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庙宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想知道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游艇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图瓷器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平坦的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>、不协调的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有威严的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小心的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强硬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富足</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木炭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一贯的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古怪的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚胎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖隧道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽默的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不动的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸引人的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>层岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耕犁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫瘠的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热力学的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罐子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>躯干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六边形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安抚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18573,8 +19153,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -18687,7 +19267,9 @@
         <v>4732</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>5463</v>
+      </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -18957,7 +19539,9 @@
         <v>4733</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>5451</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
@@ -18975,7 +19559,9 @@
         <v>4734</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="24"/>
+      <c r="E28" s="24" t="s">
+        <v>5452</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
@@ -18993,7 +19579,9 @@
         <v>4735</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>5453</v>
+      </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -19165,7 +19753,9 @@
         <v>4736</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="24"/>
+      <c r="E41" s="24" t="s">
+        <v>5454</v>
+      </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -19239,7 +19829,9 @@
         <v>4737</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="24"/>
+      <c r="E46" s="24" t="s">
+        <v>5455</v>
+      </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
@@ -19355,7 +19947,9 @@
         <v>4738</v>
       </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="24"/>
+      <c r="E54" s="24" t="s">
+        <v>5456</v>
+      </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
@@ -19373,7 +19967,9 @@
         <v>4739</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="24"/>
+      <c r="E55" s="24" t="s">
+        <v>5457</v>
+      </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
@@ -19503,7 +20099,9 @@
         <v>4740</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="24"/>
+      <c r="E64" s="24" t="s">
+        <v>5458</v>
+      </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
@@ -19563,7 +20161,9 @@
         <v>4744</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="24"/>
+      <c r="E68" s="24" t="s">
+        <v>5459</v>
+      </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
       <c r="H68" s="24"/>
@@ -19693,7 +20293,9 @@
         <v>4741</v>
       </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="24"/>
+      <c r="E77" s="24" t="s">
+        <v>5460</v>
+      </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
@@ -19865,7 +20467,9 @@
         <v>4742</v>
       </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="24"/>
+      <c r="E89" s="24" t="s">
+        <v>5461</v>
+      </c>
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
@@ -19995,7 +20599,9 @@
         <v>4743</v>
       </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="24"/>
+      <c r="E98" s="24" t="s">
+        <v>5462</v>
+      </c>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
@@ -20076,8 +20682,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A35" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -29820,7 +30426,7 @@
   <dimension ref="A2:K104"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -29854,7 +30460,9 @@
       <c r="E3" s="24" t="s">
         <v>4745</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>5464</v>
+      </c>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -29976,7 +30584,9 @@
       <c r="E13" s="24" t="s">
         <v>4746</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>5465</v>
+      </c>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -30010,7 +30620,9 @@
       <c r="E15" s="24" t="s">
         <v>4747</v>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>5466</v>
+      </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -30088,7 +30700,9 @@
       <c r="E21" s="24" t="s">
         <v>4748</v>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>5467</v>
+      </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -30243,7 +30857,9 @@
       <c r="E34" s="24" t="s">
         <v>4749</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="24" t="s">
+        <v>5468</v>
+      </c>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -30354,7 +30970,9 @@
       <c r="E43" s="24" t="s">
         <v>4750</v>
       </c>
-      <c r="F43" s="24"/>
+      <c r="F43" s="24" t="s">
+        <v>5469</v>
+      </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -30465,7 +31083,9 @@
       <c r="E52" s="24" t="s">
         <v>4751</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="24" t="s">
+        <v>5470</v>
+      </c>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -30488,7 +31108,9 @@
       <c r="E53" s="24" t="s">
         <v>4752</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="24" t="s">
+        <v>5471</v>
+      </c>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
@@ -30522,7 +31144,9 @@
       <c r="E55" s="24" t="s">
         <v>4753</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="F55" s="24" t="s">
+        <v>5472</v>
+      </c>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -30556,7 +31180,9 @@
       <c r="E57" s="24" t="s">
         <v>4754</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="24" t="s">
+        <v>5473</v>
+      </c>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -30645,7 +31271,9 @@
       <c r="E64" s="24" t="s">
         <v>4755</v>
       </c>
-      <c r="F64" s="24"/>
+      <c r="F64" s="24" t="s">
+        <v>5474</v>
+      </c>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
       <c r="I64" s="24"/>
@@ -30712,7 +31340,9 @@
       <c r="E69" s="24" t="s">
         <v>4756</v>
       </c>
-      <c r="F69" s="24"/>
+      <c r="F69" s="24" t="s">
+        <v>5485</v>
+      </c>
       <c r="G69" s="24"/>
       <c r="H69" s="24"/>
       <c r="I69" s="24"/>
@@ -30746,7 +31376,9 @@
       <c r="E71" s="24" t="s">
         <v>4757</v>
       </c>
-      <c r="F71" s="24"/>
+      <c r="F71" s="24" t="s">
+        <v>5475</v>
+      </c>
       <c r="G71" s="24"/>
       <c r="H71" s="24"/>
       <c r="I71" s="24"/>
@@ -30780,7 +31412,9 @@
       <c r="E73" s="24" t="s">
         <v>4758</v>
       </c>
-      <c r="F73" s="24"/>
+      <c r="F73" s="24" t="s">
+        <v>5476</v>
+      </c>
       <c r="G73" s="24"/>
       <c r="H73" s="24"/>
       <c r="I73" s="24"/>
@@ -30836,7 +31470,9 @@
       <c r="E77" s="24" t="s">
         <v>4759</v>
       </c>
-      <c r="F77" s="24"/>
+      <c r="F77" s="24" t="s">
+        <v>5477</v>
+      </c>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
       <c r="I77" s="24"/>
@@ -30881,7 +31517,9 @@
       <c r="E80" s="24" t="s">
         <v>4747</v>
       </c>
-      <c r="F80" s="24"/>
+      <c r="F80" s="24" t="s">
+        <v>5484</v>
+      </c>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="24"/>
@@ -30948,7 +31586,9 @@
       <c r="E85" s="24" t="s">
         <v>4760</v>
       </c>
-      <c r="F85" s="24"/>
+      <c r="F85" s="24" t="s">
+        <v>5478</v>
+      </c>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="24"/>
@@ -30982,7 +31622,9 @@
       <c r="E87" s="24" t="s">
         <v>4761</v>
       </c>
-      <c r="F87" s="24"/>
+      <c r="F87" s="24" t="s">
+        <v>5479</v>
+      </c>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
@@ -31005,7 +31647,9 @@
       <c r="E88" s="24" t="s">
         <v>4762</v>
       </c>
-      <c r="F88" s="24"/>
+      <c r="F88" s="24" t="s">
+        <v>5480</v>
+      </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="24"/>
@@ -31072,7 +31716,9 @@
       <c r="E93" s="24" t="s">
         <v>4763</v>
       </c>
-      <c r="F93" s="24"/>
+      <c r="F93" s="24" t="s">
+        <v>5481</v>
+      </c>
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
@@ -31139,7 +31785,9 @@
       <c r="E98" s="24" t="s">
         <v>4765</v>
       </c>
-      <c r="F98" s="24"/>
+      <c r="F98" s="24" t="s">
+        <v>5483</v>
+      </c>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
@@ -31206,7 +31854,9 @@
       <c r="E103" s="24" t="s">
         <v>4764</v>
       </c>
-      <c r="F103" s="24"/>
+      <c r="F103" s="24" t="s">
+        <v>5482</v>
+      </c>
       <c r="G103" s="24"/>
       <c r="H103" s="24"/>
       <c r="I103" s="24"/>
@@ -32909,7 +33559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -33031,8 +33681,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -33087,7 +33737,9 @@
       <c r="D4" s="7"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>5486</v>
+      </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -33105,7 +33757,9 @@
       <c r="D5" s="7"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>5487</v>
+      </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -33134,7 +33788,9 @@
       <c r="D7" s="7"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>5488</v>
+      </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
@@ -33174,7 +33830,9 @@
       <c r="D10" s="7"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>5489</v>
+      </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -33225,7 +33883,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>5490</v>
+      </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
@@ -33298,7 +33958,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>5478</v>
+      </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -33316,7 +33978,9 @@
       <c r="D21" s="9"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="24" t="s">
+        <v>5516</v>
+      </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -33356,7 +34020,9 @@
       <c r="D24" s="7"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="24" t="s">
+        <v>5491</v>
+      </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
@@ -33374,7 +34040,9 @@
       <c r="D25" s="7"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>5492</v>
+      </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -33392,7 +34060,9 @@
       <c r="D26" s="7"/>
       <c r="E26" s="25"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>5494</v>
+      </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
@@ -33410,7 +34080,9 @@
       <c r="D27" s="7"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="24" t="s">
+        <v>5517</v>
+      </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
@@ -33428,7 +34100,9 @@
       <c r="D28" s="7"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="G28" s="24" t="s">
+        <v>5493</v>
+      </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -33523,7 +34197,9 @@
       <c r="D36" s="7"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="24" t="s">
+        <v>5495</v>
+      </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
@@ -33541,7 +34217,9 @@
       <c r="D37" s="7"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="24" t="s">
+        <v>5518</v>
+      </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
@@ -33559,7 +34237,9 @@
       <c r="D38" s="9"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
+      <c r="G38" s="24" t="s">
+        <v>5496</v>
+      </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
@@ -33577,7 +34257,9 @@
       <c r="D39" s="7"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="24" t="s">
+        <v>5497</v>
+      </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
@@ -33639,7 +34321,9 @@
       <c r="D44" s="7"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="24" t="s">
+        <v>5498</v>
+      </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -33668,7 +34352,9 @@
       <c r="D46" s="9"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="G46" s="24" t="s">
+        <v>5499</v>
+      </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
@@ -33694,7 +34380,9 @@
       <c r="D48" s="7"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="G48" s="24" t="s">
+        <v>5500</v>
+      </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
@@ -33712,7 +34400,9 @@
       <c r="D49" s="7"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="G49" s="24" t="s">
+        <v>5501</v>
+      </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
@@ -33763,7 +34453,9 @@
       <c r="D53" s="7"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="G53" s="24" t="s">
+        <v>5502</v>
+      </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -33781,7 +34473,9 @@
       <c r="D54" s="9"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
+      <c r="G54" s="24" t="s">
+        <v>5503</v>
+      </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -33854,7 +34548,9 @@
       <c r="D60" s="9"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="G60" s="24" t="s">
+        <v>5504</v>
+      </c>
       <c r="H60" s="24"/>
       <c r="J60" s="24"/>
     </row>
@@ -33882,7 +34578,9 @@
       <c r="D62" s="7"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="G62" s="24" t="s">
+        <v>5505</v>
+      </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
@@ -33922,7 +34620,9 @@
       <c r="D65" s="9"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="G65" s="24" t="s">
+        <v>5506</v>
+      </c>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
@@ -33951,7 +34651,9 @@
       <c r="D67" s="9"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="G67" s="24" t="s">
+        <v>5507</v>
+      </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
@@ -34046,7 +34748,9 @@
       <c r="D75" s="7"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+      <c r="G75" s="24" t="s">
+        <v>5508</v>
+      </c>
       <c r="H75" s="24"/>
       <c r="I75" s="24"/>
       <c r="J75" s="24"/>
@@ -34064,7 +34768,9 @@
       <c r="D76" s="9"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+      <c r="G76" s="24" t="s">
+        <v>5509</v>
+      </c>
       <c r="H76" s="24"/>
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
@@ -34156,7 +34862,9 @@
       <c r="D84" s="9"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="G84" s="24" t="s">
+        <v>5510</v>
+      </c>
       <c r="H84" s="24"/>
       <c r="I84" s="24"/>
       <c r="J84" s="24"/>
@@ -34185,7 +34893,9 @@
       <c r="D86" s="7"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="G86" s="24" t="s">
+        <v>5511</v>
+      </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
@@ -34269,7 +34979,9 @@
       <c r="D93" s="7"/>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="G93" s="24" t="s">
+        <v>5512</v>
+      </c>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="24"/>
@@ -34298,7 +35010,9 @@
       <c r="D95" s="7"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
+      <c r="G95" s="24" t="s">
+        <v>5513</v>
+      </c>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
@@ -34327,7 +35041,9 @@
       <c r="D97" s="9"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
+      <c r="G97" s="24" t="s">
+        <v>5514</v>
+      </c>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
       <c r="J97" s="24"/>
@@ -34386,7 +35102,9 @@
       <c r="D102" s="9"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="G102" s="24" t="s">
+        <v>5515</v>
+      </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
@@ -34418,10 +35136,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A35" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -34431,7 +35149,7 @@
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34439,7 +35157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>612</v>
       </c>
@@ -34447,7 +35165,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>614</v>
       </c>
@@ -34455,7 +35173,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>616</v>
       </c>
@@ -34463,7 +35181,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>618</v>
       </c>
@@ -34471,7 +35189,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
         <v>620</v>
       </c>
@@ -34481,8 +35199,11 @@
       <c r="C6" s="24" t="s">
         <v>4799</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="24" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="27" t="s">
         <v>622</v>
       </c>
@@ -34492,8 +35213,11 @@
       <c r="C7" s="24" t="s">
         <v>4800</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="24" t="s">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>624</v>
       </c>
@@ -34501,7 +35225,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>626</v>
       </c>
@@ -34509,7 +35233,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>628</v>
       </c>
@@ -34517,7 +35241,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>630</v>
       </c>
@@ -34525,7 +35249,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>632</v>
       </c>
@@ -34535,8 +35259,11 @@
       <c r="C12" s="24" t="s">
         <v>4801</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12" s="24" t="s">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="27" t="s">
         <v>634</v>
       </c>
@@ -34546,8 +35273,11 @@
       <c r="C13" s="24" t="s">
         <v>4802</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="24" t="s">
+        <v>5521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>636</v>
       </c>
@@ -34557,8 +35287,11 @@
       <c r="C14" s="24" t="s">
         <v>4767</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="24" t="s">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>638</v>
       </c>
@@ -34566,7 +35299,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>640</v>
       </c>
@@ -34574,7 +35307,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>642</v>
       </c>
@@ -34582,7 +35315,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
         <v>644</v>
       </c>
@@ -34592,8 +35325,11 @@
       <c r="C18" s="24" t="s">
         <v>4803</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="24" t="s">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>646</v>
       </c>
@@ -34601,7 +35337,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>648</v>
       </c>
@@ -34609,7 +35345,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>650</v>
       </c>
@@ -34617,7 +35353,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>652</v>
       </c>
@@ -34625,7 +35361,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>654</v>
       </c>
@@ -34633,7 +35369,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
         <v>656</v>
       </c>
@@ -34643,8 +35379,11 @@
       <c r="C24" s="24" t="s">
         <v>4804</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="24" t="s">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>658</v>
       </c>
@@ -34652,7 +35391,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="29" t="s">
         <v>660</v>
       </c>
@@ -34662,8 +35401,11 @@
       <c r="C26" s="24" t="s">
         <v>4805</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="24" t="s">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>662</v>
       </c>
@@ -34671,7 +35413,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
         <v>664</v>
       </c>
@@ -34681,8 +35423,11 @@
       <c r="C28" s="24" t="s">
         <v>4806</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="24" t="s">
+        <v>5524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="27" t="s">
         <v>666</v>
       </c>
@@ -34692,8 +35437,11 @@
       <c r="C29" s="24" t="s">
         <v>4807</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29" s="24" t="s">
+        <v>5551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>668</v>
       </c>
@@ -34703,8 +35451,11 @@
       <c r="C30" s="24" t="s">
         <v>4808</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="24" t="s">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>670</v>
       </c>
@@ -34712,7 +35463,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="29" t="s">
         <v>672</v>
       </c>
@@ -34722,8 +35473,11 @@
       <c r="C32" s="24" t="s">
         <v>4809</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D32" s="24" t="s">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>674</v>
       </c>
@@ -34731,7 +35485,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>676</v>
       </c>
@@ -34739,7 +35493,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>4557</v>
       </c>
@@ -34749,8 +35503,11 @@
       <c r="C35" s="24" t="s">
         <v>4810</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="24" t="s">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
         <v>679</v>
       </c>
@@ -34760,8 +35517,11 @@
       <c r="C36" s="24" t="s">
         <v>4811</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="24" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>681</v>
       </c>
@@ -34771,8 +35531,11 @@
       <c r="C37" s="24" t="s">
         <v>4775</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="24" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>683</v>
       </c>
@@ -34780,7 +35543,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>685</v>
       </c>
@@ -34788,7 +35551,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>687</v>
       </c>
@@ -34796,7 +35559,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
         <v>689</v>
       </c>
@@ -34806,8 +35569,11 @@
       <c r="C41" s="24" t="s">
         <v>4812</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="24" t="s">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>691</v>
       </c>
@@ -34815,7 +35581,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>693</v>
       </c>
@@ -34823,7 +35589,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>695</v>
       </c>
@@ -34831,7 +35597,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="27" t="s">
         <v>697</v>
       </c>
@@ -34841,8 +35607,11 @@
       <c r="C45" s="24" t="s">
         <v>4813</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="D45" s="24" t="s">
+        <v>5527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A46" s="27" t="s">
         <v>699</v>
       </c>
@@ -34852,8 +35621,11 @@
       <c r="C46" s="24" t="s">
         <v>4814</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="D46" s="24" t="s">
+        <v>5528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>701</v>
       </c>
@@ -34863,8 +35635,11 @@
       <c r="C47" s="24" t="s">
         <v>4815</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="24" t="s">
+        <v>5529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="27" t="s">
         <v>703</v>
       </c>
@@ -34874,8 +35649,11 @@
       <c r="C48" s="24" t="s">
         <v>4816</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48" s="24" t="s">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="29" t="s">
         <v>4731</v>
       </c>
@@ -34885,8 +35663,11 @@
       <c r="C49" s="24" t="s">
         <v>4834</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="24" t="s">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>706</v>
       </c>
@@ -34894,7 +35675,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="29" t="s">
         <v>708</v>
       </c>
@@ -34904,8 +35685,11 @@
       <c r="C51" s="24" t="s">
         <v>4835</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="24" t="s">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>710</v>
       </c>
@@ -34913,7 +35697,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="29" t="s">
         <v>712</v>
       </c>
@@ -34923,8 +35707,11 @@
       <c r="C53" s="24" t="s">
         <v>4817</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="24" t="s">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>714</v>
       </c>
@@ -34932,7 +35719,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>716</v>
       </c>
@@ -34940,7 +35727,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="27" t="s">
         <v>718</v>
       </c>
@@ -34950,8 +35737,11 @@
       <c r="C56" s="24" t="s">
         <v>4818</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="24" t="s">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>720</v>
       </c>
@@ -34959,7 +35749,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>722</v>
       </c>
@@ -34967,7 +35757,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>724</v>
       </c>
@@ -34977,8 +35767,11 @@
       <c r="C59" s="24" t="s">
         <v>4819</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="24" t="s">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="29" t="s">
         <v>726</v>
       </c>
@@ -34988,8 +35781,11 @@
       <c r="C60" s="24" t="s">
         <v>4784</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="24" t="s">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>728</v>
       </c>
@@ -34997,7 +35793,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="27" t="s">
         <v>730</v>
       </c>
@@ -35007,8 +35803,11 @@
       <c r="C62" s="24" t="s">
         <v>4820</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="24" t="s">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>732</v>
       </c>
@@ -35016,7 +35815,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>734</v>
       </c>
@@ -35024,7 +35823,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="27" t="s">
         <v>736</v>
       </c>
@@ -35034,8 +35833,11 @@
       <c r="C65" s="24" t="s">
         <v>4822</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65" s="24" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="29" t="s">
         <v>738</v>
       </c>
@@ -35045,8 +35847,11 @@
       <c r="C66" s="24" t="s">
         <v>4821</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="24" t="s">
+        <v>5557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>740</v>
       </c>
@@ -35054,7 +35859,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>742</v>
       </c>
@@ -35062,7 +35867,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="27" t="s">
         <v>744</v>
       </c>
@@ -35072,8 +35877,11 @@
       <c r="C69" s="24" t="s">
         <v>4823</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="24" t="s">
+        <v>5536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>746</v>
       </c>
@@ -35081,7 +35889,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>748</v>
       </c>
@@ -35089,7 +35897,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>750</v>
       </c>
@@ -35097,7 +35905,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>752</v>
       </c>
@@ -35105,7 +35913,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="29" t="s">
         <v>754</v>
       </c>
@@ -35115,8 +35923,11 @@
       <c r="C74" s="24" t="s">
         <v>4824</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="24" t="s">
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>756</v>
       </c>
@@ -35124,7 +35935,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="27" t="s">
         <v>758</v>
       </c>
@@ -35134,8 +35945,11 @@
       <c r="C76" s="24" t="s">
         <v>4825</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="24" t="s">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>760</v>
       </c>
@@ -35143,7 +35957,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>762</v>
       </c>
@@ -35151,7 +35965,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A79" s="29" t="s">
         <v>764</v>
       </c>
@@ -35161,8 +35975,11 @@
       <c r="C79" s="24" t="s">
         <v>4826</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79" s="24" t="s">
+        <v>5539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="29" t="s">
         <v>766</v>
       </c>
@@ -35172,8 +35989,11 @@
       <c r="C80" s="24" t="s">
         <v>4827</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="24" t="s">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>768</v>
       </c>
@@ -35181,7 +36001,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>770</v>
       </c>
@@ -35189,7 +36009,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>772</v>
       </c>
@@ -35197,7 +36017,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>774</v>
       </c>
@@ -35205,7 +36025,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="27" t="s">
         <v>776</v>
       </c>
@@ -35215,8 +36035,11 @@
       <c r="C85" s="24" t="s">
         <v>4828</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="24" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>778</v>
       </c>
@@ -35224,7 +36047,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>780</v>
       </c>
@@ -35232,7 +36055,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>782</v>
       </c>
@@ -35240,7 +36063,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="29" t="s">
         <v>784</v>
       </c>
@@ -35250,8 +36073,11 @@
       <c r="C89" s="24" t="s">
         <v>4829</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="24" t="s">
+        <v>5542</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>786</v>
       </c>
@@ -35259,7 +36085,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="29" t="s">
         <v>788</v>
       </c>
@@ -35269,8 +36095,11 @@
       <c r="C91" s="24" t="s">
         <v>4830</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D91" s="24" t="s">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>790</v>
       </c>
@@ -35278,7 +36107,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>792</v>
       </c>
@@ -35286,7 +36115,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="27" t="s">
         <v>794</v>
       </c>
@@ -35296,8 +36125,11 @@
       <c r="C94" s="24" t="s">
         <v>4831</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D94" s="24" t="s">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>796</v>
       </c>
@@ -35305,7 +36137,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>798</v>
       </c>
@@ -35313,7 +36145,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="29" t="s">
         <v>800</v>
       </c>
@@ -35323,8 +36155,11 @@
       <c r="C97" s="24" t="s">
         <v>4768</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="24" t="s">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>802</v>
       </c>
@@ -35332,7 +36167,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>804</v>
       </c>
@@ -35340,7 +36175,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>806</v>
       </c>
@@ -35348,7 +36183,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
         <v>808</v>
       </c>
@@ -35358,8 +36193,11 @@
       <c r="C101" s="24" t="s">
         <v>4832</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="D101" s="24" t="s">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
         <v>810</v>
       </c>
@@ -35368,6 +36206,9 @@
       </c>
       <c r="C102" s="24" t="s">
         <v>4833</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>5547</v>
       </c>
     </row>
   </sheetData>
@@ -35378,7 +36219,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -35386,19 +36227,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A15" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.625" customWidth="1"/>
     <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35406,7 +36248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>812</v>
       </c>
@@ -35414,7 +36256,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>814</v>
       </c>
@@ -35422,7 +36264,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>816</v>
       </c>
@@ -35430,7 +36272,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>818</v>
       </c>
@@ -35440,8 +36282,11 @@
       <c r="C5" s="24" t="s">
         <v>4836</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="24" t="s">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>820</v>
       </c>
@@ -35449,7 +36294,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>822</v>
       </c>
@@ -35457,7 +36302,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>824</v>
       </c>
@@ -35465,7 +36310,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>826</v>
       </c>
@@ -35473,7 +36318,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>828</v>
       </c>
@@ -35481,7 +36326,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>830</v>
       </c>
@@ -35491,8 +36336,11 @@
       <c r="C11" s="24" t="s">
         <v>4837</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="24" t="s">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>832</v>
       </c>
@@ -35500,7 +36348,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>834</v>
       </c>
@@ -35510,8 +36358,11 @@
       <c r="C13" s="24" t="s">
         <v>4838</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13" s="24" t="s">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
         <v>836</v>
       </c>
@@ -35521,8 +36372,11 @@
       <c r="C14" s="24" t="s">
         <v>4839</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14" s="24" t="s">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
         <v>838</v>
       </c>
@@ -35532,8 +36386,11 @@
       <c r="C15" s="24" t="s">
         <v>4840</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15" s="24" t="s">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
         <v>840</v>
       </c>
@@ -35543,8 +36400,11 @@
       <c r="C16" s="24" t="s">
         <v>4841</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="24" t="s">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>842</v>
       </c>
@@ -35552,7 +36412,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>844</v>
       </c>
@@ -35560,7 +36420,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
         <v>846</v>
       </c>
@@ -35570,8 +36430,11 @@
       <c r="C19" s="24" t="s">
         <v>4867</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="24" t="s">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>848</v>
       </c>
@@ -35579,7 +36442,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>850</v>
       </c>
@@ -35587,7 +36450,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>852</v>
       </c>
@@ -35595,7 +36458,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>854</v>
       </c>
@@ -35605,8 +36468,11 @@
       <c r="C23" s="24" t="s">
         <v>4866</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="24" t="s">
+        <v>5589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>856</v>
       </c>
@@ -35614,7 +36480,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>858</v>
       </c>
@@ -35622,7 +36488,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>860</v>
       </c>
@@ -35630,7 +36496,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
         <v>862</v>
       </c>
@@ -35640,8 +36506,11 @@
       <c r="C27" s="24" t="s">
         <v>4842</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" s="24" t="s">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="30" t="s">
         <v>864</v>
       </c>
@@ -35651,8 +36520,11 @@
       <c r="C28" s="24" t="s">
         <v>4843</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28" s="24" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="30" t="s">
         <v>866</v>
       </c>
@@ -35662,8 +36534,11 @@
       <c r="C29" s="24" t="s">
         <v>4844</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="24" t="s">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>868</v>
       </c>
@@ -35671,7 +36546,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>870</v>
       </c>
@@ -35679,7 +36554,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>872</v>
       </c>
@@ -35687,7 +36562,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>874</v>
       </c>
@@ -35695,7 +36570,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="30" t="s">
         <v>876</v>
       </c>
@@ -35705,8 +36580,11 @@
       <c r="C34" s="24" t="s">
         <v>4868</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="24" t="s">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>878</v>
       </c>
@@ -35716,8 +36594,11 @@
       <c r="C35" s="24" t="s">
         <v>4845</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="24" t="s">
+        <v>5569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>880</v>
       </c>
@@ -35725,7 +36606,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>882</v>
       </c>
@@ -35733,7 +36614,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="30" t="s">
         <v>884</v>
       </c>
@@ -35743,8 +36624,11 @@
       <c r="C38" s="24" t="s">
         <v>4846</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="24" t="s">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="30" t="s">
         <v>886</v>
       </c>
@@ -35754,8 +36638,11 @@
       <c r="C39" s="24" t="s">
         <v>4847</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="24" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="30" t="s">
         <v>888</v>
       </c>
@@ -35765,8 +36652,11 @@
       <c r="C40" s="24" t="s">
         <v>4848</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="24" t="s">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="30" t="s">
         <v>890</v>
       </c>
@@ -35776,8 +36666,11 @@
       <c r="C41" s="24" t="s">
         <v>4849</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="24" t="s">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>892</v>
       </c>
@@ -35785,7 +36678,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
         <v>894</v>
       </c>
@@ -35795,8 +36688,11 @@
       <c r="C43" s="24" t="s">
         <v>4850</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="24" t="s">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>896</v>
       </c>
@@ -35804,7 +36700,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>898</v>
       </c>
@@ -35812,7 +36708,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="29" t="s">
         <v>900</v>
       </c>
@@ -35822,8 +36718,11 @@
       <c r="C46" s="24" t="s">
         <v>4851</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="24" t="s">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>902</v>
       </c>
@@ -35833,8 +36732,11 @@
       <c r="C47" s="24" t="s">
         <v>4852</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="24" t="s">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="30" t="s">
         <v>904</v>
       </c>
@@ -35844,8 +36746,11 @@
       <c r="C48" s="24" t="s">
         <v>4853</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="24" t="s">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>906</v>
       </c>
@@ -35853,7 +36758,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>908</v>
       </c>
@@ -35861,7 +36766,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>910</v>
       </c>
@@ -35869,7 +36774,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>912</v>
       </c>
@@ -35877,7 +36782,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>914</v>
       </c>
@@ -35885,7 +36790,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>916</v>
       </c>
@@ -35893,7 +36798,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>918</v>
       </c>
@@ -35901,7 +36806,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>920</v>
       </c>
@@ -35909,7 +36814,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>922</v>
       </c>
@@ -35917,7 +36822,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>924</v>
       </c>
@@ -35925,7 +36830,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>926</v>
       </c>
@@ -35933,7 +36838,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>928</v>
       </c>
@@ -35941,7 +36846,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="30" t="s">
         <v>930</v>
       </c>
@@ -35951,8 +36856,11 @@
       <c r="C61" s="24" t="s">
         <v>4854</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="24" t="s">
+        <v>5576</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>932</v>
       </c>
@@ -35960,7 +36868,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>934</v>
       </c>
@@ -35968,7 +36876,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="29" t="s">
         <v>936</v>
       </c>
@@ -35978,8 +36886,11 @@
       <c r="C64" s="24" t="s">
         <v>4855</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="24" t="s">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>938</v>
       </c>
@@ -35987,7 +36898,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>940</v>
       </c>
@@ -35995,7 +36906,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>942</v>
       </c>
@@ -36003,7 +36914,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
         <v>944</v>
       </c>
@@ -36013,8 +36924,11 @@
       <c r="C68" s="24" t="s">
         <v>4856</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="24" t="s">
+        <v>5578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>946</v>
       </c>
@@ -36022,7 +36936,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>948</v>
       </c>
@@ -36030,7 +36944,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>950</v>
       </c>
@@ -36038,7 +36952,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
         <v>952</v>
       </c>
@@ -36048,8 +36962,11 @@
       <c r="C72" s="24" t="s">
         <v>4857</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="24" t="s">
+        <v>5579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>954</v>
       </c>
@@ -36057,7 +36974,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>956</v>
       </c>
@@ -36065,7 +36982,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>958</v>
       </c>
@@ -36073,7 +36990,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>960</v>
       </c>
@@ -36081,7 +36998,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>962</v>
       </c>
@@ -36089,7 +37006,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="29" t="s">
         <v>964</v>
       </c>
@@ -36099,8 +37016,11 @@
       <c r="C78" s="24" t="s">
         <v>4858</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="24" t="s">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>966</v>
       </c>
@@ -36108,7 +37028,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>968</v>
       </c>
@@ -36116,7 +37036,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>970</v>
       </c>
@@ -36124,7 +37044,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="29" t="s">
         <v>972</v>
       </c>
@@ -36134,8 +37054,11 @@
       <c r="C82" s="24" t="s">
         <v>4869</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="24" t="s">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>974</v>
       </c>
@@ -36143,7 +37066,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>976</v>
       </c>
@@ -36151,7 +37074,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>978</v>
       </c>
@@ -36159,7 +37082,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>980</v>
       </c>
@@ -36167,7 +37090,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="29" t="s">
         <v>4871</v>
       </c>
@@ -36177,8 +37100,11 @@
       <c r="C87" s="24" t="s">
         <v>4870</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="24" t="s">
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>983</v>
       </c>
@@ -36186,7 +37112,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>985</v>
       </c>
@@ -36194,7 +37120,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="31" t="s">
         <v>987</v>
       </c>
@@ -36204,8 +37130,11 @@
       <c r="C90" s="24" t="s">
         <v>4859</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="D90" s="24" t="s">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A91" s="29" t="s">
         <v>989</v>
       </c>
@@ -36215,8 +37144,11 @@
       <c r="C91" s="24" t="s">
         <v>4860</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91" s="24" t="s">
+        <v>5594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="29" t="s">
         <v>991</v>
       </c>
@@ -36226,8 +37158,11 @@
       <c r="C92" s="24" t="s">
         <v>4861</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="24" t="s">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>993</v>
       </c>
@@ -36235,7 +37170,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="30" t="s">
         <v>995</v>
       </c>
@@ -36245,8 +37180,11 @@
       <c r="C94" s="24" t="s">
         <v>4862</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94" s="24" t="s">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="29" t="s">
         <v>997</v>
       </c>
@@ -36256,8 +37194,11 @@
       <c r="C95" s="24" t="s">
         <v>4863</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="D95" s="24" t="s">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
         <v>999</v>
       </c>
@@ -36267,8 +37208,11 @@
       <c r="C96" s="24" t="s">
         <v>4864</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="24" t="s">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>1001</v>
       </c>
@@ -36276,7 +37220,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="30" t="s">
         <v>1003</v>
       </c>
@@ -36286,8 +37230,11 @@
       <c r="C98" s="24" t="s">
         <v>4838</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="24" t="s">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>1005</v>
       </c>
@@ -36295,7 +37242,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="29" t="s">
         <v>1007</v>
       </c>
@@ -36305,8 +37252,11 @@
       <c r="C100" s="24" t="s">
         <v>4865</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="24" t="s">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>1009</v>
       </c>
@@ -36314,7 +37264,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="30" t="s">
         <v>1011</v>
       </c>
@@ -36324,21 +37274,30 @@
       <c r="C102" s="24" t="s">
         <v>4872</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102" s="24" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="30" t="s">
         <v>1013</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103" s="24" t="s">
+        <v>5587</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="30" t="s">
         <v>1015</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>1016</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>5588</v>
       </c>
     </row>
   </sheetData>
@@ -36359,8 +37318,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -37703,8 +38662,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -38952,8 +39911,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A59" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -40156,8 +41115,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A45" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFAD78-E95D-40EC-BBD3-B372062673D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24806A22-CA84-48DD-85EC-19CAC19954E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30425,7 +30425,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:K104"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -33559,7 +33559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -33681,7 +33681,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24806A22-CA84-48DD-85EC-19CAC19954E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6921D99-8917-4003-88D1-84B24BDD1224}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Sheet12!$A$1:$C$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$A$1:$C$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet14!$A$1:$C$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Sheet15!$A$1:$A$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$102</definedName>
@@ -52,12 +53,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet8!$A$1:$A$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet9!$A$1:$A$101</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5771" uniqueCount="5596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="5673">
   <si>
     <t>单词</t>
   </si>
@@ -18412,6 +18413,314 @@
   </si>
   <si>
     <t>安抚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞赏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光秃的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝聚力的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包屑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欺骗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵蚀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同类的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>涌入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提及</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>违背</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说服的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花粉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传染的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如释重负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚硬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急促的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>久立的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手术的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空前的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上清漆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷惑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -18703,7 +19012,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -20667,7 +20984,7 @@
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{8877E4EA-1C65-427B-856D-A0FBC6DD8473}">
     <filterColumn colId="0">
-      <colorFilter dxfId="13" cellColor="0"/>
+      <colorFilter dxfId="14" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21764,7 +22081,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{BBF5F73B-771F-47A0-9BA8-09CEC4341A26}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -22720,7 +23037,7 @@
   </sheetData>
   <autoFilter ref="A2:B105" xr:uid="{243E1F76-385C-43C8-B6E2-E4C9F2E60CCD}">
     <filterColumn colId="0">
-      <colorFilter dxfId="3"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23839,7 +24156,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{95BA6F22-B048-402F-980D-C45A4F12AB31}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25092,7 +25409,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{CE376EB1-BBB3-4D04-AC8A-8205A6BAAF49}">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26232,7 +26549,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{D0D8031A-A48B-4FC2-A777-8C59AF90745D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26244,15 +26561,19 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B103"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="49" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26260,503 +26581,659 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2842</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="24" t="s">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2844</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2845</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="24" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
         <v>2846</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>2848</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" s="24" t="s">
+        <v>5671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2850</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="24" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
         <v>2852</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2853</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
         <v>2854</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="24" t="s">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>2856</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" s="24" t="s">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>2858</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="24" t="s">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>2860</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2861</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>2862</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="24" t="s">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="30" t="s">
         <v>2864</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2865</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="24" t="s">
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
         <v>2866</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2867</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
         <v>2868</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2869</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" s="24" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>2870</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2871</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" s="24" t="s">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2872</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2873</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="24" t="s">
+        <v>5606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
         <v>2874</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C18" s="24" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2876</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2877</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C19" s="24" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2878</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2879</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="24" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2880</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2881</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="24" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2882</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="24" t="s">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="30" t="s">
         <v>2884</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2885</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="24" t="s">
+        <v>5611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>2886</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="24" t="s">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>2888</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="24" t="s">
+        <v>5607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="30" t="s">
         <v>2890</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2891</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
         <v>2892</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C27" s="24" t="s">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2894</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="24" t="s">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>2896</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="24" t="s">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>2898</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="24" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
         <v>2900</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2901</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2902</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" s="24" t="s">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2904</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2905</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" s="24" t="s">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>2906</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="C34" s="24" t="s">
+        <v>5619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="30" t="s">
         <v>2908</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2909</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2910</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2911</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="24" t="s">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2912</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C37" s="24" t="s">
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2914</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C38" s="24" t="s">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2916</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2917</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="24" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2918</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C40" s="24" t="s">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2920</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2921</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C41" s="24" t="s">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2922</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>2923</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="24" t="s">
+        <v>5626</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>2924</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>2925</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="C43" s="24" t="s">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="30" t="s">
         <v>2926</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2927</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>2928</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>2929</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C45" s="24" t="s">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2930</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>2931</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="24" t="s">
+        <v>5629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2932</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>2933</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="213.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+      <c r="C47" s="24" t="s">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
         <v>2934</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>2935</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="C48" s="24" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="30" t="s">
         <v>2936</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2937</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2938</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2939</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="24" t="s">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2940</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="24" t="s">
+        <v>5633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2942</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>2943</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="24" t="s">
+        <v>5634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
         <v>2944</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>2945</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="30" t="s">
         <v>2946</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="24" t="s">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2948</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+      <c r="C55" s="24" t="s">
+        <v>5636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="30" t="s">
         <v>2950</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>2951</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="24" t="s">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2952</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="24" t="s">
+        <v>5638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2954</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2955</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="C58" s="24" t="s">
+        <v>5639</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="30" t="s">
         <v>2956</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2957</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="24" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2958</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>2959</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="24" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>2960</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="24" t="s">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>2962</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="24" t="s">
+        <v>5642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>2964</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2965</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C63" s="24" t="s">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2966</v>
       </c>
@@ -26764,322 +27241,417 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="30" t="s">
         <v>2968</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C65" s="24" t="s">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2970</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="24" t="s">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="30" t="s">
         <v>2972</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C67" s="24" t="s">
+        <v>5646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2974</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>2975</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C68" s="24" t="s">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2976</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C69" s="24" t="s">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2978</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2979</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C70" s="24" t="s">
+        <v>5648</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>2980</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" s="24" t="s">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>2982</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+      <c r="C72" s="24" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="30" t="s">
         <v>2984</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>2985</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C73" s="24" t="s">
+        <v>5651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>2986</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
+      <c r="C74" s="24" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="30" t="s">
         <v>2988</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="156.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A76" s="30" t="s">
         <v>2990</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="24" t="s">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="30" t="s">
         <v>2992</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" s="24" t="s">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>2994</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" s="24" t="s">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>2996</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>2997</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="24" t="s">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="30" t="s">
         <v>2998</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>2999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>3000</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C81" s="24" t="s">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>3002</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>3003</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="24" t="s">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>3004</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="24" t="s">
+        <v>5658</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="30" t="s">
         <v>3006</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>3008</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85" s="24" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>3010</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>3011</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C86" s="24" t="s">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>3012</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
+      <c r="C87" s="24" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="30" t="s">
         <v>3014</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>3015</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
         <v>3016</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+      <c r="C89" s="24" t="s">
+        <v>5662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="30" t="s">
         <v>3018</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>3020</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3021</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="C91" s="24" t="s">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>3022</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
+      <c r="C92" s="24" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="30" t="s">
         <v>3024</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3025</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>3026</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
+      <c r="C94" s="24" t="s">
+        <v>5664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="30" t="s">
         <v>3028</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>3030</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="114" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
+      <c r="C96" s="24" t="s">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="30" t="s">
         <v>3032</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>3033</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>3034</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>3035</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C98" s="24" t="s">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>3036</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
+      <c r="C99" s="24" t="s">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="30" t="s">
         <v>3038</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="114" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
+      <c r="C100" s="24" t="s">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="30" t="s">
         <v>3040</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>3041</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>3042</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>3043</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="C102" s="24" t="s">
+        <v>5669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="34" t="s">
         <v>3044</v>
       </c>
       <c r="B103" t="s">
         <v>3045</v>
       </c>
+      <c r="C103" s="24" t="s">
+        <v>5670</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A103" xr:uid="{F40C8119-B940-4F2C-993B-CF0DA6C0C726}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -31877,7 +32449,7 @@
   </sheetData>
   <autoFilter ref="C2:C104" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="12" cellColor="0"/>
+      <colorFilter dxfId="13" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -33681,14 +34253,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView topLeftCell="A75" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="22.375" customWidth="1"/>
     <col min="4" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
@@ -33945,7 +34517,7 @@
         <v>4495</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>444</v>
       </c>
@@ -34775,7 +35347,7 @@
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>558</v>
       </c>
@@ -34797,7 +35369,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>562</v>
       </c>
@@ -34880,7 +35452,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>576</v>
       </c>
@@ -35123,7 +35695,7 @@
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{EB0AAC0E-54E6-4BAF-85EA-EAB72902E7D8}">
     <filterColumn colId="0">
-      <colorFilter dxfId="11" cellColor="0"/>
+      <colorFilter dxfId="12" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -35138,7 +35710,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
@@ -36214,7 +36786,7 @@
   </sheetData>
   <autoFilter ref="A1:B102" xr:uid="{FC10310A-B1AA-4FE6-B9AA-93B13E1AE05E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="10" cellColor="0"/>
+      <colorFilter dxfId="11" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37303,7 +37875,7 @@
   </sheetData>
   <autoFilter ref="A1:B104" xr:uid="{B972B4E9-6070-4B03-B736-003BB1CB9797}">
     <filterColumn colId="0">
-      <colorFilter dxfId="9"/>
+      <colorFilter dxfId="10"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -38647,7 +39219,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{3CEA6DCD-6F19-45F4-A1AC-9A6529A1AAED}">
     <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
+      <colorFilter dxfId="9"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -38663,7 +39235,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -39896,7 +40468,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{92D45149-ED46-4D87-AACA-68C3C1E1FD5D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="8"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -41100,7 +41672,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{4D99FFA6-EBF8-45B5-9ACB-5FE5A2FB6ADF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="6"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -42210,7 +42782,7 @@
   </sheetData>
   <autoFilter ref="A1:A101" xr:uid="{EF727F8F-0659-444A-BBCC-2B98A1D69067}">
     <filterColumn colId="0">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="6"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C548A-40CB-4366-8955-B9446B609E90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96310806-2F68-4A10-9978-7E51BD7F0362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">Sheet19!$A$1:$C$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$C$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">Sheet20!$A$1:$C$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">Sheet21!$A$1:$C$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$D$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$B$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$B$104</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6291" uniqueCount="6103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="6186">
   <si>
     <t>单词</t>
   </si>
@@ -20452,6 +20453,338 @@
   </si>
   <si>
     <t>receptacle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恰当</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>街道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随意的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖民</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>察觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞争对手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多样的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>染料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名誉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天才</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阐明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤立</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光合作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一瞬的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场合也</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首要的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四分之一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分泌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挤压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬挂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未拯救的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -20746,7 +21079,15 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -22758,7 +23099,7 @@
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{8877E4EA-1C65-427B-856D-A0FBC6DD8473}">
     <filterColumn colId="0">
-      <colorFilter dxfId="19" cellColor="0"/>
+      <colorFilter dxfId="20" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23855,7 +24196,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{BBF5F73B-771F-47A0-9BA8-09CEC4341A26}">
     <filterColumn colId="0">
-      <colorFilter dxfId="10"/>
+      <colorFilter dxfId="11"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24811,7 +25152,7 @@
   </sheetData>
   <autoFilter ref="A2:B105" xr:uid="{243E1F76-385C-43C8-B6E2-E4C9F2E60CCD}">
     <filterColumn colId="0">
-      <colorFilter dxfId="9"/>
+      <colorFilter dxfId="10"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25930,7 +26271,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{95BA6F22-B048-402F-980D-C45A4F12AB31}">
     <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
+      <colorFilter dxfId="9"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27183,7 +27524,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{CE376EB1-BBB3-4D04-AC8A-8205A6BAAF49}">
     <filterColumn colId="0">
-      <colorFilter dxfId="7"/>
+      <colorFilter dxfId="8"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28323,7 +28664,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{D0D8031A-A48B-4FC2-A777-8C59AF90745D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="6"/>
+      <colorFilter dxfId="7"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29420,7 +29761,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{F40C8119-B940-4F2C-993B-CF0DA6C0C726}">
     <filterColumn colId="0">
-      <colorFilter dxfId="5"/>
+      <colorFilter dxfId="6"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30550,7 +30891,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{E5CD6F33-4CF3-4DDA-A720-D36A3F169B24}">
     <filterColumn colId="0">
-      <colorFilter dxfId="4"/>
+      <colorFilter dxfId="5"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -31655,7 +31996,7 @@
   </sheetData>
   <autoFilter ref="A1:A102" xr:uid="{8556C4B5-247E-469D-B5B7-E6586216F964}">
     <filterColumn colId="0">
-      <colorFilter dxfId="3"/>
+      <colorFilter dxfId="4"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32757,7 +33098,7 @@
   </sheetData>
   <autoFilter ref="A1:A101" xr:uid="{50A42E63-5FF6-4472-92D6-F183165FA44E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="3"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32904,7 +33245,7 @@
         <v>5946</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>3669</v>
       </c>
@@ -33496,7 +33837,7 @@
         <v>5995</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>3781</v>
       </c>
@@ -33702,7 +34043,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>3819</v>
       </c>
@@ -33864,7 +34205,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{3B23A53D-FD29-4136-90E5-22A64CD2986D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="1"/>
+      <colorFilter dxfId="2"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -35331,7 +35672,7 @@
   </sheetData>
   <autoFilter ref="C2:C104" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0">
-      <colorFilter dxfId="18" cellColor="0"/>
+      <colorFilter dxfId="19" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -35346,8 +35687,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A60" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -35935,7 +36276,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>3958</v>
       </c>
@@ -36083,7 +36424,7 @@
         <v>6077</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>3985</v>
       </c>
@@ -36138,7 +36479,7 @@
         <v>6082</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>3995</v>
       </c>
@@ -36160,7 +36501,7 @@
         <v>6084</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>3999</v>
       </c>
@@ -36171,7 +36512,7 @@
         <v>6085</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>4001</v>
       </c>
@@ -36417,7 +36758,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{F552659A-E6B3-4BC3-A600-FBC41FF66635}">
     <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+      <colorFilter dxfId="1"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -36429,15 +36770,21 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B102"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:B102"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="27.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -36445,818 +36792,1078 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4049</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4050</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="24" t="s">
+        <v>6103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4051</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4052</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="24" t="s">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
         <v>4053</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4054</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="24" t="s">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4055</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4056</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="24" t="s">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
         <v>4057</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4058</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="24" t="s">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>4059</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4060</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="24" t="s">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>4061</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4062</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" s="24" t="s">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>4063</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4064</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" s="24" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>4065</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4066</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="24" t="s">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>4067</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4068</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4069</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4070</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" s="24" t="s">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>4071</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4072</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="24" t="s">
+        <v>6113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="30" t="s">
         <v>4073</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4074</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="30" t="s">
         <v>4075</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4076</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>4077</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4078</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="24" t="s">
+        <v>6114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
         <v>4079</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4080</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="24" t="s">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>4081</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4082</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="24" t="s">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="30" t="s">
         <v>4083</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4084</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>4085</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4086</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C20" s="24" t="s">
+        <v>6117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>4087</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4088</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="99.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="24" t="s">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="30" t="s">
         <v>4089</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4090</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C22" s="24" t="s">
+        <v>6119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>4091</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4092</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C23" s="24" t="s">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>4093</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4094</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C24" s="24" t="s">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>4095</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4096</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C25" s="24" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>4097</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4098</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="C26" s="24" t="s">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
         <v>4099</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4100</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="C27" s="24" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="30" t="s">
         <v>4101</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4102</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C28" s="24" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>4103</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4104</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C29" s="24" t="s">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>4105</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4106</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="C30" s="24" t="s">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
         <v>4107</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4108</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="C31" s="24" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="30" t="s">
         <v>4109</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>4111</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4112</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="C33" s="24" t="s">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="30" t="s">
         <v>4113</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4114</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C34" s="24" t="s">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>4115</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4116</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C35" s="24" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>4117</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4118</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C36" s="24" t="s">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>4119</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4120</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="24" t="s">
+        <v>6133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="30" t="s">
         <v>4121</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4122</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>4123</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4124</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C39" s="24" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>4125</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4126</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="24" t="s">
+        <v>6135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="30" t="s">
         <v>4127</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4128</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>4129</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4130</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C42" s="24" t="s">
+        <v>6136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>4131</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4132</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="C43" s="24" t="s">
+        <v>6137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="30" t="s">
         <v>4133</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4134</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="30" t="s">
         <v>4135</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4136</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="C45" s="24" t="s">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="30" t="s">
         <v>4137</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4138</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C46" s="24" t="s">
+        <v>6138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>4139</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4140</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+      <c r="C47" s="24" t="s">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
         <v>4141</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4142</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>4143</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4144</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="24" t="s">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>4145</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4146</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="24" t="s">
+        <v>6141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>4147</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4148</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="C51" s="24" t="s">
+        <v>6142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="30" t="s">
         <v>4149</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4150</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="C52" s="24" t="s">
+        <v>6143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
         <v>4151</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4152</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>4153</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>4154</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="24" t="s">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>4155</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>4156</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="C55" s="24" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>4157</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4158</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="C56" s="24" t="s">
+        <v>6146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="30" t="s">
         <v>4159</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>4160</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>4161</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>4162</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="24" t="s">
+        <v>6147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>4163</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4164</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="24" t="s">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>4165</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4166</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="24" t="s">
+        <v>6149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>4167</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>4168</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="24" t="s">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>4169</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4170</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="C62" s="24" t="s">
+        <v>6151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="30" t="s">
         <v>4171</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4172</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="30" t="s">
         <v>4173</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4174</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="C64" s="24" t="s">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="30" t="s">
         <v>4175</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4176</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="C65" s="24" t="s">
+        <v>6153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="30" t="s">
         <v>4177</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4178</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="C66" s="24" t="s">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="30" t="s">
         <v>4179</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4180</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="C67" s="24" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="30" t="s">
         <v>4181</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4182</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
+      <c r="C68" s="24" t="s">
+        <v>6156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="30" t="s">
         <v>4183</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4184</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>4185</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4186</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="C70" s="24" t="s">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>4187</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>4188</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C71" s="24" t="s">
+        <v>6158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>4189</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4190</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C72" s="24" t="s">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>4191</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4192</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+      <c r="C73" s="24" t="s">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="30" t="s">
         <v>4193</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4194</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="57" x14ac:dyDescent="0.15">
+      <c r="C74" s="24" t="s">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>4195</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4196</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+      <c r="C75" s="24" t="s">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="30" t="s">
         <v>4197</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4198</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>4199</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4200</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C77" s="24" t="s">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>4201</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4202</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C78" s="24" t="s">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>4203</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>4204</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+      <c r="C79" s="24" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="30" t="s">
         <v>4205</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4206</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C80" s="24" t="s">
+        <v>6165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>4207</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>4208</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="C81" s="24" t="s">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>4209</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4210</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C82" s="24" t="s">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>4211</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>4212</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="24" t="s">
+        <v>6168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="30" t="s">
         <v>4213</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4214</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C84" s="24" t="s">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>4215</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>4216</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C85" s="24" t="s">
+        <v>6170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>4217</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>4218</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+      <c r="C86" s="24" t="s">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="30" t="s">
         <v>4219</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>4220</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>4221</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>4222</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="C88" s="24" t="s">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>4223</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4224</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C89" s="24" t="s">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>4225</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>4226</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
+      <c r="C90" s="24" t="s">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="30" t="s">
         <v>4227</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4228</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>4229</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>4230</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C92" s="24" t="s">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>4231</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>4232</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="C93" s="24" t="s">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>4233</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>4234</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C94" s="24" t="s">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>4235</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>4236</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="24" t="s">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="30" t="s">
         <v>4237</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>4238</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C96" s="24" t="s">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>4239</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>4240</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+      <c r="C97" s="24" t="s">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="30" t="s">
         <v>4241</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4242</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+      <c r="C98" s="24" t="s">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="30" t="s">
         <v>4243</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>4244</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="C99" s="24" t="s">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>4245</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4246</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C100" s="24" t="s">
+        <v>6183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>4247</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>4248</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C101" s="24" t="s">
+        <v>6184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>4249</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>4250</v>
       </c>
+      <c r="C102" s="24" t="s">
+        <v>6185</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C102" xr:uid="{341798C8-545C-4DF7-919A-6CD0B375C0F2}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -38829,7 +39436,7 @@
   </sheetData>
   <autoFilter ref="A1:D103" xr:uid="{EB0AAC0E-54E6-4BAF-85EA-EAB72902E7D8}">
     <filterColumn colId="0">
-      <colorFilter dxfId="17" cellColor="0"/>
+      <colorFilter dxfId="18" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -39920,7 +40527,7 @@
   </sheetData>
   <autoFilter ref="A1:B102" xr:uid="{FC10310A-B1AA-4FE6-B9AA-93B13E1AE05E}">
     <filterColumn colId="0">
-      <colorFilter dxfId="16" cellColor="0"/>
+      <colorFilter dxfId="17" cellColor="0"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -41009,7 +41616,7 @@
   </sheetData>
   <autoFilter ref="A1:B104" xr:uid="{B972B4E9-6070-4B03-B736-003BB1CB9797}">
     <filterColumn colId="0">
-      <colorFilter dxfId="15"/>
+      <colorFilter dxfId="16"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -42353,7 +42960,7 @@
   </sheetData>
   <autoFilter ref="A1:C103" xr:uid="{3CEA6DCD-6F19-45F4-A1AC-9A6529A1AAED}">
     <filterColumn colId="0">
-      <colorFilter dxfId="14"/>
+      <colorFilter dxfId="15"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -43602,7 +44209,7 @@
   </sheetData>
   <autoFilter ref="A1:C102" xr:uid="{92D45149-ED46-4D87-AACA-68C3C1E1FD5D}">
     <filterColumn colId="0">
-      <colorFilter dxfId="13"/>
+      <colorFilter dxfId="14"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -44806,7 +45413,7 @@
   </sheetData>
   <autoFilter ref="A1:A103" xr:uid="{4D99FFA6-EBF8-45B5-9ACB-5FE5A2FB6ADF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="12"/>
+      <colorFilter dxfId="13"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -45916,7 +46523,7 @@
   </sheetData>
   <autoFilter ref="A1:A101" xr:uid="{EF727F8F-0659-444A-BBCC-2B98A1D69067}">
     <filterColumn colId="0">
-      <colorFilter dxfId="11"/>
+      <colorFilter dxfId="12"/>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96310806-2F68-4A10-9978-7E51BD7F0362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E39314-ED7F-437F-9680-5E7541FBD400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36774,7 +36774,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -36937,7 +36937,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>4077</v>
       </c>
@@ -37704,7 +37704,7 @@
         <v>6172</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>4223</v>
       </c>

--- a/21天托福词汇.xlsx
+++ b/21天托福词汇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Intensive-Listening-for-Scientific-America\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E39314-ED7F-437F-9680-5E7541FBD400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5B94A2-9B7E-4321-A3D9-3012C427AE85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10545" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6376" uniqueCount="6186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6402" uniqueCount="6212">
   <si>
     <t>单词</t>
   </si>
@@ -20785,6 +20785,110 @@
   </si>
   <si>
     <t>智慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手稿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>氦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹦鹉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水沟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉灶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同义的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残暴的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -30906,7 +31010,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
@@ -32009,18 +32113,18 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="2" max="3" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32028,7 +32132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3448</v>
       </c>
@@ -32039,7 +32143,7 @@
         <v>5848</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3450</v>
       </c>
@@ -32050,7 +32154,7 @@
         <v>5849</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3452</v>
       </c>
@@ -32061,15 +32165,18 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>3454</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3455</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="24" t="s">
+        <v>6186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>3456</v>
       </c>
@@ -32080,7 +32187,7 @@
         <v>5851</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>3458</v>
       </c>
@@ -32091,7 +32198,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>3460</v>
       </c>
@@ -32102,7 +32209,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>3462</v>
       </c>
@@ -32113,7 +32220,7 @@
         <v>5854</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>3464</v>
       </c>
@@ -32124,7 +32231,7 @@
         <v>5855</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>3466</v>
       </c>
@@ -32135,7 +32242,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>3468</v>
       </c>
@@ -32146,7 +32253,7 @@
         <v>5857</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
         <v>3470</v>
       </c>
@@ -32156,8 +32263,11 @@
       <c r="C13" s="24" t="s">
         <v>5858</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="24" t="s">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>3472</v>
       </c>
@@ -32168,7 +32278,7 @@
         <v>5859</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>3474</v>
       </c>
@@ -32179,7 +32289,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>3476</v>
       </c>
@@ -32190,7 +32300,7 @@
         <v>5861</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
         <v>3478</v>
       </c>
@@ -32200,8 +32310,11 @@
       <c r="C17" s="24" t="s">
         <v>5862</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17" s="24" t="s">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
         <v>3480</v>
       </c>
@@ -32211,8 +32324,11 @@
       <c r="C18" s="24" t="s">
         <v>5863</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="24" t="s">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>3482</v>
       </c>
@@ -32223,7 +32339,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>3484</v>
       </c>
@@ -32234,7 +32350,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>3486</v>
       </c>
@@ -32245,7 +32361,7 @@
         <v>5866</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>3488</v>
       </c>
@@ -32256,7 +32372,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>3490</v>
       </c>
@@ -32267,7 +32383,7 @@
         <v>5868</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>3492</v>
       </c>
@@ -32278,15 +32394,18 @@
         <v>5869</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="30" t="s">
         <v>3494</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>3495</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="24" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>3496</v>
       </c>
@@ -32297,7 +32416,7 @@
         <v>5870</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>3498</v>
       </c>
@@ -32308,7 +32427,7 @@
         <v>5871</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="30" t="s">
         <v>3500</v>
       </c>
@@ -32318,8 +32437,11 @@
       <c r="C28" s="24" t="s">
         <v>5872</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="24" t="s">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>3502</v>
       </c>
@@ -32330,7 +32452,7 @@
         <v>5873</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>3504</v>
       </c>
@@ -32341,15 +32463,18 @@
         <v>5874</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="30" t="s">
         <v>3506</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3507</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="24" t="s">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>3508</v>
       </c>
@@ -32360,7 +32485,7 @@
         <v>5875</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="30" t="s">
         <v>3510</v>
       </c>
@@ -32370,8 +32495,11 @@
       <c r="C33" s="24" t="s">
         <v>5876</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D33" s="24" t="s">
+        <v>6206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>3512</v>
       </c>
@@ -32382,7 +32510,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>3514</v>
       </c>
@@ -32393,7 +32521,7 @@
         <v>5878</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="30" t="s">
         <v>3516</v>
       </c>
@@ -32403,16 +32531,22 @@
       <c r="C36" s="24" t="s">
         <v>5879</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="24" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="30" t="s">
         <v>3518</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3519</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="24" t="s">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>3520</v>
       </c>
@@ -32423,7 +32557,7 @@
         <v>5880</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>3522</v>
       </c>
@@ -32434,7 +32568,7 @@
         <v>5881</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="30" t="s">
         <v>3524</v>
       </c>
@@ -32444,8 +32578,11 @@
       <c r="C40" s="24" t="s">
         <v>5883</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="24" t="s">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>3526</v>
       </c>
@@ -32456,15 +32593,18 @@
         <v>5882</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="30" t="s">
         <v>3528</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3529</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42" s="24" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
         <v>3530</v>
       </c>
@@ -32474,8 +32614,11 @@
       <c r="C43" s="24" t="s">
         <v>5884</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="24" t="s">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="30" t="s">
         <v>3532</v>
       </c>
@@ -32485,8 +32628,11 @@
       <c r="C44" s="24" t="s">
         <v>5885</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="24" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>3534</v>
       </c>
@@ -32497,7 +32643,7 @@
         <v>5886</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>3536</v>
       </c>
@@ -32508,7 +32654,7 @@
         <v>5887</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>3538</v>
       </c>
@@ -32519,7 +32665,7 @@
         <v>5888</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>3540</v>
       </c>
@@ -32530,7 +32676,7 @@
         <v>5889</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>3542</v>
       </c>
@@ -32541,7 +32687,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="30" t="s">
         <v>3544</v>
       </c>
@@ -32549,7 +32695,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>3546</v>
       </c>
@@ -32560,7 +32706,7 @@
         <v>5891</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>3548</v>
       </c>
@@ -32571,7 +32717,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>3550</v>
       </c>
@@ -32582,7 +32728,7 @@
         <v>5893</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>3552</v>
       </c>
@@ -32593,7 +32739,7 @@
         <v>5894</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="30" t="s">
         <v>3554</v>
       </c>
@@ -32603,8 +32749,11 @@
       <c r="C55" s="24" t="s">
         <v>5895</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="24" t="s">
+        <v>6197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>3556</v>
       </c>
@@ -32615,7 +32764,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
         <v>3558</v>
       </c>
@@ -32625,8 +32774,11 @@
       <c r="C57" s="24" t="s">
         <v>5897</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57" s="24" t="s">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="30" t="s">
         <v>3560</v>
       </c>
@@ -32636,16 +32788,22 @@
       <c r="C58" s="24" t="s">
         <v>5898</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58" s="24" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
         <v>3562</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3563</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59" s="24" t="s">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="30" t="s">
         <v>3564</v>
       </c>
@@ -32655,8 +32813,11 @@
       <c r="C60" s="24" t="s">
         <v>5899</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="24" t="s">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>3566</v>
       </c>
@@ -32667,7 +32828,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>3568</v>
       </c>
@@ -32678,15 +32839,18 @@
         <v>5901</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
         <v>3570</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3571</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="24" t="s">
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>3572</v>
       </c>
@@ -32870,7 +33034,7 @@
         <v>5917</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>3606</v>
       </c>
@@ -32881,7 +33045,7 @@
         <v>5918</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>3608</v>
       </c>
@@ -32892,7 +33056,7 @@
         <v>5919</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>3610</v>
       </c>
@@ -32903,7 +33067,7 @@
         <v>5920</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>3612</v>
       </c>
@@ -32914,7 +33078,7 @@
         <v>5921</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>3614</v>
       </c>
@@ -32925,7 +33089,7 @@
         <v>5922</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="30" t="s">
         <v>3616</v>
       </c>
@@ -32935,8 +33099,11 @@
       <c r="C86" s="24" t="s">
         <v>5923</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="24" t="s">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>3618</v>
       </c>
@@ -32947,7 +33114,7 @@
         <v>5924</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>3620</v>
       </c>
@@ -32958,15 +33125,18 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
         <v>3622</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>3623</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="24" t="s">
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>3624</v>
       </c>
@@ -32977,7 +33147,7 @@
         <v>5926</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>3626</v>
       </c>
@@ -32988,7 +33158,7 @@
         <v>5927</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>3628</v>
       </c>
@@ -32999,7 +33169,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>3630</v>
       </c>
@@ -33010,7 +33180,7 @@
         <v>5929</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>3632</v>
       </c>
@@ -33021,7 +33191,7 @@
         <v>5930</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>3634</v>
       </c>
@@ -33032,15 +33202,18 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
         <v>3636</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>3637</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="24" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>3638</v>
       </c>
@@ -33051,7 +33224,7 @@
         <v>5932</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="30" t="s">
         <v>3640</v>
       </c>
@@ -33061,8 +33234,11 @@
       <c r="C98" s="24" t="s">
         <v>5933</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="24" t="s">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="35" t="s">
         <v>5937</v>
       </c>
@@ -33073,7 +33249,7 @@
         <v>5934</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="30" t="s">
         <v>3643</v>
       </c>
@@ -33083,8 +33259,11 @@
       <c r="C100" s="24" t="s">
         <v>5935</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" s="24" t="s">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="30" t="s">
         <v>3645</v>
       </c>
@@ -33093,6 +33272,9 @@
       </c>
       <c r="C101" s="24" t="s">
         <v>5936</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>6203</v>
       </c>
     </row>
   </sheetData>
@@ -33113,7 +33295,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
@@ -35687,8 +35869,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A52" zoomScale="205" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -36773,13 +36955,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="94.25" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
